--- a/python/results/tuning_summary.xlsx
+++ b/python/results/tuning_summary.xlsx
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="125">
   <si>
     <t>setup</t>
   </si>
@@ -316,18 +316,6 @@
     <t>alpha=0.223801135944, l1_ratio=0.8</t>
   </si>
   <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>gamma=0.01, lambda=2.0</t>
-  </si>
-  <si>
-    <t>gamma=1.0, lambda=3.0</t>
-  </si>
-  <si>
-    <t>gamma=0.1, lambda=2.0</t>
-  </si>
-  <si>
     <t>lambda 1=10.0, lambda 2=10.0</t>
   </si>
   <si>
@@ -364,15 +352,6 @@
     <t>alpha=0.413583525596, l1_ratio=0.1</t>
   </si>
   <si>
-    <t>gamma=1.0, lambda=2.0</t>
-  </si>
-  <si>
-    <t>gamma=100.0, lambda=2.0</t>
-  </si>
-  <si>
-    <t>gamma=10.0, lambda=2.0</t>
-  </si>
-  <si>
     <t>lambda 1=100.0, lambda 2=10.0</t>
   </si>
   <si>
@@ -487,12 +466,6 @@
     <t>alpha=0.367401981896, l1_ratio=0.1</t>
   </si>
   <si>
-    <t>gamma=10.0, lambda=3.0</t>
-  </si>
-  <si>
-    <t>gamma=0.01, lambda=3.0</t>
-  </si>
-  <si>
     <t>alpha=0.103587568802</t>
   </si>
   <si>
@@ -506,6 +479,30 @@
   </si>
   <si>
     <t>C=10.0</t>
+  </si>
+  <si>
+    <t>gamma=2.0, lambda=0.01</t>
+  </si>
+  <si>
+    <t>gamma=3.0, lambda=1.0</t>
+  </si>
+  <si>
+    <t>gamma=2.0, lambda=0.1</t>
+  </si>
+  <si>
+    <t>gamma=2.0, lambda=1.0</t>
+  </si>
+  <si>
+    <t>gamma=2.0, lambda=100.0</t>
+  </si>
+  <si>
+    <t>gamma=2.0, lambda=10.0</t>
+  </si>
+  <si>
+    <t>gamma=3.0, lambda=10.0</t>
+  </si>
+  <si>
+    <t>gamma=3.0, lambda=0.01</t>
   </si>
 </sst>
 </file>
@@ -2502,25 +2499,25 @@
         <v>33</v>
       </c>
       <c r="D6">
-        <v>871.69055653199996</v>
+        <v>735.70405802799996</v>
       </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>62</v>
+        <v>220</v>
+      </c>
+      <c r="F6">
+        <v>0.79888431673600002</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J6" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2534,7 +2531,7 @@
         <v>33</v>
       </c>
       <c r="D7">
-        <v>218.73837657000001</v>
+        <v>218.74685539699999</v>
       </c>
       <c r="E7">
         <v>220</v>
@@ -2552,7 +2549,7 @@
         <v>0.2</v>
       </c>
       <c r="J7" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2566,25 +2563,25 @@
         <v>33</v>
       </c>
       <c r="D8">
-        <v>341.43772960899997</v>
+        <v>259.93431759200001</v>
       </c>
       <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>62</v>
+        <v>220</v>
+      </c>
+      <c r="F8">
+        <v>0.60917498607499998</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.109090909091</v>
       </c>
       <c r="J8" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2598,7 +2595,7 @@
         <v>33</v>
       </c>
       <c r="D9">
-        <v>127.780421061</v>
+        <v>127.744039133</v>
       </c>
       <c r="E9">
         <v>220</v>
@@ -2616,7 +2613,7 @@
         <v>0.109090909091</v>
       </c>
       <c r="J9" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2648,7 +2645,7 @@
         <v>0.2</v>
       </c>
       <c r="J10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2662,13 +2659,13 @@
         <v>36</v>
       </c>
       <c r="D11">
-        <v>26.3193508974</v>
+        <v>20.8835301479</v>
       </c>
       <c r="E11">
         <v>220</v>
       </c>
       <c r="F11">
-        <v>0.80598233855300006</v>
+        <v>0.85788632569500001</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -2680,7 +2677,7 @@
         <v>0.2</v>
       </c>
       <c r="J11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2694,13 +2691,13 @@
         <v>36</v>
       </c>
       <c r="D12">
-        <v>2.6077125831300001</v>
+        <v>5.6610267303799997</v>
       </c>
       <c r="E12">
         <v>220</v>
       </c>
       <c r="F12">
-        <v>0.87230977002599996</v>
+        <v>0.93250994180299995</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -2712,7 +2709,7 @@
         <v>0.109090909091</v>
       </c>
       <c r="J12" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2726,13 +2723,13 @@
         <v>36</v>
       </c>
       <c r="D13">
-        <v>5.28330629483</v>
+        <v>6.4996436722500004</v>
       </c>
       <c r="E13">
         <v>220</v>
       </c>
       <c r="F13">
-        <v>0.73884561142799998</v>
+        <v>0.79555144053500004</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -2744,7 +2741,7 @@
         <v>0.109090909091</v>
       </c>
       <c r="J13" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2776,7 +2773,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2808,7 +2805,7 @@
         <v>0.60416666666700003</v>
       </c>
       <c r="J15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2840,7 +2837,7 @@
         <v>0.193181818182</v>
       </c>
       <c r="J16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2872,7 +2869,7 @@
         <v>0.35897435897399999</v>
       </c>
       <c r="J17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2936,7 +2933,7 @@
         <v>0.2</v>
       </c>
       <c r="J19" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3000,7 +2997,7 @@
         <v>0.109090909091</v>
       </c>
       <c r="J21" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3082,7 +3079,7 @@
         <v>0.25730994151999997</v>
       </c>
       <c r="J2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3114,7 +3111,7 @@
         <v>0.23976608187099999</v>
       </c>
       <c r="J3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3146,7 +3143,7 @@
         <v>0.15894039735099999</v>
       </c>
       <c r="J4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3178,7 +3175,7 @@
         <v>0.14012738853500001</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3192,7 +3189,7 @@
         <v>33</v>
       </c>
       <c r="D6">
-        <v>735.65313080800001</v>
+        <v>735.66811349199997</v>
       </c>
       <c r="E6">
         <v>220</v>
@@ -3210,7 +3207,7 @@
         <v>0.2</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3224,7 +3221,7 @@
         <v>33</v>
       </c>
       <c r="D7">
-        <v>218.756911065</v>
+        <v>219.87200418200001</v>
       </c>
       <c r="E7">
         <v>220</v>
@@ -3242,7 +3239,7 @@
         <v>0.2</v>
       </c>
       <c r="J7" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3256,25 +3253,25 @@
         <v>33</v>
       </c>
       <c r="D8">
-        <v>341.43772960899997</v>
+        <v>259.93689843099997</v>
       </c>
       <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>62</v>
+        <v>220</v>
+      </c>
+      <c r="F8">
+        <v>0.60917498607499998</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.109090909091</v>
       </c>
       <c r="J8" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3288,7 +3285,7 @@
         <v>33</v>
       </c>
       <c r="D9">
-        <v>127.799364248</v>
+        <v>128.074853512</v>
       </c>
       <c r="E9">
         <v>220</v>
@@ -3306,7 +3303,7 @@
         <v>0.109090909091</v>
       </c>
       <c r="J9" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3320,13 +3317,13 @@
         <v>36</v>
       </c>
       <c r="D10">
-        <v>5.0235583515300002</v>
+        <v>0.71469296498400003</v>
       </c>
       <c r="E10">
         <v>220</v>
       </c>
       <c r="F10">
-        <v>0.98987844280600001</v>
+        <v>0.99972646635700002</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -3338,7 +3335,7 @@
         <v>0.2</v>
       </c>
       <c r="J10" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3352,13 +3349,13 @@
         <v>36</v>
       </c>
       <c r="D11">
-        <v>26.3193508974</v>
+        <v>20.8835301479</v>
       </c>
       <c r="E11">
         <v>220</v>
       </c>
       <c r="F11">
-        <v>0.80598233855300006</v>
+        <v>0.85788632569500001</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -3370,7 +3367,7 @@
         <v>0.2</v>
       </c>
       <c r="J11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3402,7 +3399,7 @@
         <v>0.109090909091</v>
       </c>
       <c r="J12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3434,7 +3431,7 @@
         <v>0.109090909091</v>
       </c>
       <c r="J13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3466,7 +3463,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3498,7 +3495,7 @@
         <v>0.543859649123</v>
       </c>
       <c r="J15" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3530,7 +3527,7 @@
         <v>0.53846153846199996</v>
       </c>
       <c r="J16" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3562,7 +3559,7 @@
         <v>0.34042553191500002</v>
       </c>
       <c r="J17" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3576,7 +3573,7 @@
         <v>43</v>
       </c>
       <c r="J18" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3608,7 +3605,7 @@
         <v>0.2</v>
       </c>
       <c r="J19" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3640,7 +3637,7 @@
         <v>0.109090909091</v>
       </c>
       <c r="J20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3672,7 +3669,7 @@
         <v>0.109090909091</v>
       </c>
       <c r="J21" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3883,7 +3880,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3947,7 +3944,7 @@
         <v>0.22857142857099999</v>
       </c>
       <c r="J8" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3979,7 +3976,7 @@
         <v>0.224299065421</v>
       </c>
       <c r="J9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4139,7 +4136,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4267,7 +4264,7 @@
         <v>0.59459459459499997</v>
       </c>
       <c r="J18" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4299,7 +4296,7 @@
         <v>0.27450980392199997</v>
       </c>
       <c r="J19" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -4331,7 +4328,7 @@
         <v>0.25862068965500001</v>
       </c>
       <c r="J20" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -4363,7 +4360,7 @@
         <v>0.13131313131299999</v>
       </c>
       <c r="J21" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -4395,7 +4392,7 @@
         <v>0.08</v>
       </c>
       <c r="J22" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -4427,7 +4424,7 @@
         <v>0.08</v>
       </c>
       <c r="J23" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -4459,7 +4456,7 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J24" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -4491,7 +4488,7 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J25" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -4651,7 +4648,7 @@
         <v>0.511627906977</v>
       </c>
       <c r="J30" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -4683,7 +4680,7 @@
         <v>0.271844660194</v>
       </c>
       <c r="J31" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -4715,7 +4712,7 @@
         <v>0.26415094339599998</v>
       </c>
       <c r="J32" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -4747,7 +4744,7 @@
         <v>0.13402061855700001</v>
       </c>
       <c r="J33" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -4843,7 +4840,7 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J36" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -4875,7 +4872,7 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J37" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -4907,7 +4904,7 @@
         <v>0.08</v>
       </c>
       <c r="J38" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -4939,7 +4936,7 @@
         <v>0.08</v>
       </c>
       <c r="J39" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -4971,7 +4968,7 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J40" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -5003,7 +5000,7 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J41" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -5035,7 +5032,7 @@
         <v>0.08</v>
       </c>
       <c r="J42" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -5067,7 +5064,7 @@
         <v>0.08</v>
       </c>
       <c r="J43" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -5099,7 +5096,7 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J44" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -5131,7 +5128,7 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J45" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -5213,7 +5210,7 @@
         <v>0.511627906977</v>
       </c>
       <c r="J2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5245,7 +5242,7 @@
         <v>0.41666666666699997</v>
       </c>
       <c r="J3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5277,7 +5274,7 @@
         <v>0.56666666666700005</v>
       </c>
       <c r="J4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -5309,7 +5306,7 @@
         <v>0.25</v>
       </c>
       <c r="J5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5323,7 +5320,7 @@
         <v>33</v>
       </c>
       <c r="D6">
-        <v>628.62396501499995</v>
+        <v>628.49356452300003</v>
       </c>
       <c r="E6">
         <v>550</v>
@@ -5341,7 +5338,7 @@
         <v>0.08</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5355,7 +5352,7 @@
         <v>33</v>
       </c>
       <c r="D7">
-        <v>224.73424633299999</v>
+        <v>224.88971647400001</v>
       </c>
       <c r="E7">
         <v>550</v>
@@ -5373,7 +5370,7 @@
         <v>0.08</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5387,25 +5384,25 @@
         <v>33</v>
       </c>
       <c r="D8">
-        <v>312.91377539400003</v>
+        <v>247.705282098</v>
       </c>
       <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>62</v>
+        <v>550</v>
+      </c>
+      <c r="F8">
+        <v>0.53759075755700003</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4.36363636364E-2</v>
       </c>
       <c r="J8" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5419,25 +5416,25 @@
         <v>33</v>
       </c>
       <c r="D9">
-        <v>199.52836678599999</v>
+        <v>144.97737970200001</v>
       </c>
       <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>62</v>
+        <v>550</v>
+      </c>
+      <c r="F9">
+        <v>0.43070704542400001</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>4.36363636364E-2</v>
       </c>
       <c r="J9" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5469,7 +5466,7 @@
         <v>0.08</v>
       </c>
       <c r="J10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5483,13 +5480,13 @@
         <v>36</v>
       </c>
       <c r="D11">
-        <v>28.816500122200001</v>
+        <v>12.663817033100001</v>
       </c>
       <c r="E11">
         <v>550</v>
       </c>
       <c r="F11">
-        <v>0.73250890922300005</v>
+        <v>0.870026834784</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -5501,7 +5498,7 @@
         <v>0.08</v>
       </c>
       <c r="J11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5515,13 +5512,13 @@
         <v>36</v>
       </c>
       <c r="D12">
-        <v>1.73225017373</v>
+        <v>3.98588507347</v>
       </c>
       <c r="E12">
         <v>550</v>
       </c>
       <c r="F12">
-        <v>0.874072965993</v>
+        <v>0.94668429935200005</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -5533,7 +5530,7 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J12" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5547,13 +5544,13 @@
         <v>36</v>
       </c>
       <c r="D13">
-        <v>7.0731073423500002</v>
+        <v>4.6063338489700003</v>
       </c>
       <c r="E13">
         <v>550</v>
       </c>
       <c r="F13">
-        <v>0.73166860077600004</v>
+        <v>0.855000712444</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -5565,7 +5562,7 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J13" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5597,7 +5594,7 @@
         <v>0.46236559139799999</v>
       </c>
       <c r="J14" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5629,7 +5626,7 @@
         <v>0.45901639344299999</v>
       </c>
       <c r="J15" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5661,7 +5658,7 @@
         <v>0.433333333333</v>
       </c>
       <c r="J16" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5693,7 +5690,7 @@
         <v>0.210526315789</v>
       </c>
       <c r="J17" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5757,7 +5754,7 @@
         <v>0.08</v>
       </c>
       <c r="J19" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -5789,7 +5786,7 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -5821,7 +5818,7 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J21" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -5905,7 +5902,7 @@
         <v>0.109181141439</v>
       </c>
       <c r="J2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5937,7 +5934,7 @@
         <v>0.12359550561800001</v>
       </c>
       <c r="J3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5969,7 +5966,7 @@
         <v>7.5709779179799999E-2</v>
       </c>
       <c r="J4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6001,7 +5998,7 @@
         <v>6.70926517572E-2</v>
       </c>
       <c r="J5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6015,7 +6012,7 @@
         <v>33</v>
       </c>
       <c r="D6">
-        <v>628.59959798299997</v>
+        <v>628.473183027</v>
       </c>
       <c r="E6">
         <v>550</v>
@@ -6033,7 +6030,7 @@
         <v>0.08</v>
       </c>
       <c r="J6" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6047,25 +6044,25 @@
         <v>33</v>
       </c>
       <c r="D7">
-        <v>279.53681389100001</v>
+        <v>224.68550315600001</v>
       </c>
       <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>62</v>
+        <v>550</v>
+      </c>
+      <c r="F7">
+        <v>0.45698462269599999</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="J7" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6079,25 +6076,25 @@
         <v>33</v>
       </c>
       <c r="D8">
-        <v>312.91377539400003</v>
+        <v>247.70438373299999</v>
       </c>
       <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>62</v>
+        <v>550</v>
+      </c>
+      <c r="F8">
+        <v>0.53759075755700003</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4.36363636364E-2</v>
       </c>
       <c r="J8" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6111,25 +6108,25 @@
         <v>33</v>
       </c>
       <c r="D9">
-        <v>199.52836678599999</v>
+        <v>144.979623917</v>
       </c>
       <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>62</v>
+        <v>550</v>
+      </c>
+      <c r="F9">
+        <v>0.43070704542400001</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>4.36363636364E-2</v>
       </c>
       <c r="J9" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6143,13 +6140,13 @@
         <v>36</v>
       </c>
       <c r="D10">
-        <v>3.2448863638600001</v>
+        <v>0.33140450417599998</v>
       </c>
       <c r="E10">
         <v>550</v>
       </c>
       <c r="F10">
-        <v>0.98899279809600005</v>
+        <v>0.99988324791100003</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -6161,7 +6158,7 @@
         <v>0.08</v>
       </c>
       <c r="J10" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6175,13 +6172,13 @@
         <v>36</v>
       </c>
       <c r="D11">
-        <v>28.816500122200001</v>
+        <v>12.663817033100001</v>
       </c>
       <c r="E11">
         <v>550</v>
       </c>
       <c r="F11">
-        <v>0.73250890922300005</v>
+        <v>0.870026834784</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -6193,7 +6190,7 @@
         <v>0.08</v>
       </c>
       <c r="J11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6225,7 +6222,7 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6257,7 +6254,7 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6289,7 +6286,7 @@
         <v>0.46236559139799999</v>
       </c>
       <c r="J14" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6321,7 +6318,7 @@
         <v>0.33750000000000002</v>
       </c>
       <c r="J15" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -6353,7 +6350,7 @@
         <v>0.16483516483499999</v>
       </c>
       <c r="J16" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6385,7 +6382,7 @@
         <v>0.19354838709700001</v>
       </c>
       <c r="J17" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6417,7 +6414,7 @@
         <v>0.08</v>
       </c>
       <c r="J18" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -6449,7 +6446,7 @@
         <v>0.08</v>
       </c>
       <c r="J19" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -6463,7 +6460,7 @@
         <v>43</v>
       </c>
       <c r="J20" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -6495,7 +6492,7 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J21" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/python/results/tuning_summary.xlsx
+++ b/python/results/tuning_summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="cv_mse_p220" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <definedName name="orctun_results_coef_correlation_p550" localSheetId="4">coef_corr_p550!$A$1:$J$21</definedName>
     <definedName name="orctun_results_n_predictors_p220" localSheetId="2">n_pred_p220!$A$1:$J$21</definedName>
     <definedName name="orctun_results_n_predictors_p550" localSheetId="5">n_pred_p550!$A$1:$J$21</definedName>
-    <definedName name="p220_" localSheetId="0">cv_mse_p220!$A$1:$J$45</definedName>
-    <definedName name="p550_" localSheetId="3">cv_mse_p550!$A$1:$J$45</definedName>
+    <definedName name="p220_" localSheetId="0">cv_mse_p220!$A$1:$J$41</definedName>
+    <definedName name="p550_" localSheetId="3">cv_mse_p550!$A$1:$J$41</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="118">
   <si>
     <t>setup</t>
   </si>
@@ -163,15 +163,9 @@
     <t>agrace</t>
   </si>
   <si>
-    <t>lam2=0.1, lam1=10.0</t>
-  </si>
-  <si>
     <t>Setup 2</t>
   </si>
   <si>
-    <t>lam2=0.01, lam1=10.0</t>
-  </si>
-  <si>
     <t>Setup 3</t>
   </si>
   <si>
@@ -181,84 +175,24 @@
     <t>alinf</t>
   </si>
   <si>
-    <t>E=95.0</t>
-  </si>
-  <si>
-    <t>E=35.0</t>
-  </si>
-  <si>
-    <t>E=50.0</t>
-  </si>
-  <si>
-    <t>E=60.0</t>
-  </si>
-  <si>
-    <t>composite-magnitude</t>
-  </si>
-  <si>
-    <t>Zero threshold=0.0001, Coef. thresh=mean</t>
-  </si>
-  <si>
-    <t>Zero threshold=0.0001, Coef. thresh=mean+1*std</t>
-  </si>
-  <si>
-    <t>composite-vote</t>
-  </si>
-  <si>
-    <t>Vote threshold=0.8, Zero threshold=0.01</t>
-  </si>
-  <si>
-    <t>Vote threshold=0.5, Zero threshold=0.01</t>
-  </si>
-  <si>
-    <t>Vote threshold=0.6, Zero threshold=0.001</t>
-  </si>
-  <si>
     <t>enet</t>
   </si>
   <si>
     <t>alpha=0.0482951738875, l1_ratio=0.95</t>
   </si>
   <si>
-    <t>alpha=0.0157841110483, l1_ratio=0.99</t>
-  </si>
-  <si>
-    <t>alpha=0.0364905949006, l1_ratio=0.99</t>
-  </si>
-  <si>
     <t>alpha=0.019752466718, l1_ratio=0.99</t>
   </si>
   <si>
     <t>gblasso</t>
   </si>
   <si>
-    <t>lam=100, gam=2.0</t>
-  </si>
-  <si>
-    <t>lam=10, gam=2.0</t>
-  </si>
-  <si>
     <t>grace</t>
   </si>
   <si>
-    <t>lam2=10000.0, lam1=10.0</t>
-  </si>
-  <si>
     <t>lasso</t>
   </si>
   <si>
-    <t>alpha=0.0458804151931</t>
-  </si>
-  <si>
-    <t>alpha=0.0156262699379</t>
-  </si>
-  <si>
-    <t>alpha=0.0361256889516</t>
-  </si>
-  <si>
-    <t>alpha=0.0195549420508</t>
-  </si>
-  <si>
     <t>linf</t>
   </si>
   <si>
@@ -268,42 +202,12 @@
     <t>C=55.0</t>
   </si>
   <si>
-    <t>C=45.0</t>
-  </si>
-  <si>
-    <t>C=40.0</t>
-  </si>
-  <si>
     <t>ltlp</t>
   </si>
   <si>
-    <t>tau=1.28854982292, delta 1=0.0497037831258, delta 2=517.996827814</t>
-  </si>
-  <si>
-    <t>tau=2.84242373516, delta 1=0.0234394049068, delta 2=5.68484747033</t>
-  </si>
-  <si>
-    <t>tau=1e-06, delta 1=0.0541885334274, delta 2=484.798204577</t>
-  </si>
-  <si>
-    <t>tau=1e-06, delta 1=0.0293324130762, delta 2=5.21534271456</t>
-  </si>
-  <si>
     <t>ttlp</t>
   </si>
   <si>
-    <t>tau=2.57709864584, delta 1=5.15419729168, delta 2=517.996827814</t>
-  </si>
-  <si>
-    <t>tau=2.84242373516, delta 1=5.68484747033, delta 2=5.68484747033</t>
-  </si>
-  <si>
-    <t>tau=1e-06, delta 1=135.068156499, delta 2=4.82386273211</t>
-  </si>
-  <si>
-    <t>tau=1e-06, delta 1=286.843849301, delta 2=5.21534271456</t>
-  </si>
-  <si>
     <t>alpha=0.0345473635982, l1_ratio=0.8</t>
   </si>
   <si>
@@ -343,9 +247,6 @@
     <t>alpha=0.656912152733, l1_ratio=0.1</t>
   </si>
   <si>
-    <t>alpha=0.461163829722, l1_ratio=0.1</t>
-  </si>
-  <si>
     <t>alpha=0.330739809837, l1_ratio=0.1</t>
   </si>
   <si>
@@ -367,75 +268,9 @@
     <t>E=70.0</t>
   </si>
   <si>
-    <t>E=65.0</t>
-  </si>
-  <si>
-    <t>Vote threshold=0.8, Zero threshold=0.0001</t>
-  </si>
-  <si>
-    <t>alpha=0.0498413961161, l1_ratio=0.9</t>
-  </si>
-  <si>
-    <t>alpha=0.0128997572166, l1_ratio=0.99</t>
-  </si>
-  <si>
-    <t>alpha=0.0389811994348, l1_ratio=0.95</t>
-  </si>
-  <si>
-    <t>alpha=0.0099025953249, l1_ratio=0.99</t>
-  </si>
-  <si>
-    <t>lam=0.1, gam=2.0</t>
-  </si>
-  <si>
-    <t>lam=1, gam=2.0</t>
-  </si>
-  <si>
-    <t>lam=0.01, gam=2.0</t>
-  </si>
-  <si>
-    <t>alpha=0.0390145541049</t>
-  </si>
-  <si>
-    <t>alpha=0.0119100531867</t>
-  </si>
-  <si>
-    <t>alpha=0.0456549523915</t>
-  </si>
-  <si>
-    <t>alpha=0.0105120460959</t>
-  </si>
-  <si>
-    <t>tau=1.69176762051, delta 1=0.0585218311574, delta 2=6.76706848203</t>
-  </si>
-  <si>
-    <t>tau=1.32041375147, delta 1=0.0129025576189, delta 2=2.64082750295</t>
-  </si>
-  <si>
-    <t>tau=1e-06, delta 1=0.0684824285873, delta 2=2446.57501029</t>
-  </si>
-  <si>
-    <t>tau=1e-06, delta 1=0.00700803073061, delta 2=1485.60475863</t>
-  </si>
-  <si>
-    <t>tau=1.69176762051, delta 1=6.76706848203, delta 2=6.76706848203</t>
-  </si>
-  <si>
-    <t>tau=0.660207375737, delta 1=2.64082750295, delta 2=2.64082750295</t>
-  </si>
-  <si>
-    <t>tau=1e-06, delta 1=672.808127829, delta 2=4.89315002058</t>
-  </si>
-  <si>
-    <t>tau=1.48263997967, delta 1=5.93055791869, delta 2=5.93055791869</t>
-  </si>
-  <si>
     <t>alpha=0.0215751505702, l1_ratio=0.9</t>
   </si>
   <si>
-    <t>alpha=0.265889688055, l1_ratio=0.9</t>
-  </si>
-  <si>
     <t>alpha=0.635296423133, l1_ratio=0.9</t>
   </si>
   <si>
@@ -445,9 +280,6 @@
     <t>alpha=0.0181089518682</t>
   </si>
   <si>
-    <t>alpha=0.23930071925</t>
-  </si>
-  <si>
     <t>alpha=0.121263561278</t>
   </si>
   <si>
@@ -472,15 +304,6 @@
     <t>alpha=0.0113090803103</t>
   </si>
   <si>
-    <t>alpha=0.149005537405</t>
-  </si>
-  <si>
-    <t>C=100.0</t>
-  </si>
-  <si>
-    <t>C=10.0</t>
-  </si>
-  <si>
     <t>gamma=2.0, lambda=0.01</t>
   </si>
   <si>
@@ -493,9 +316,6 @@
     <t>gamma=2.0, lambda=1.0</t>
   </si>
   <si>
-    <t>gamma=2.0, lambda=100.0</t>
-  </si>
-  <si>
     <t>gamma=2.0, lambda=10.0</t>
   </si>
   <si>
@@ -503,6 +323,165 @@
   </si>
   <si>
     <t>gamma=3.0, lambda=0.01</t>
+  </si>
+  <si>
+    <t>lambda 1=10.0, lambda 2=0.1</t>
+  </si>
+  <si>
+    <t>lambda 1=10.0, lambda 2=0.01</t>
+  </si>
+  <si>
+    <t>E=5.0</t>
+  </si>
+  <si>
+    <t>E=90.0</t>
+  </si>
+  <si>
+    <t>E=10.0</t>
+  </si>
+  <si>
+    <t>composite</t>
+  </si>
+  <si>
+    <t>Vote threshold=0.8</t>
+  </si>
+  <si>
+    <t>alpha=0.0464822528312, l1_ratio=0.9</t>
+  </si>
+  <si>
+    <t>alpha=0.0210233900902, l1_ratio=0.99</t>
+  </si>
+  <si>
+    <t>alpha=0.0363539970584, l1_ratio=0.95</t>
+  </si>
+  <si>
+    <t>alpha=0.0122083823583, l1_ratio=0.99</t>
+  </si>
+  <si>
+    <t>lambda 1=10.0, lambda 2=10000.0</t>
+  </si>
+  <si>
+    <t>lambda 1=1.0, lambda 2=0.01</t>
+  </si>
+  <si>
+    <t>alpha=0.0418340275481</t>
+  </si>
+  <si>
+    <t>alpha=0.018102221837</t>
+  </si>
+  <si>
+    <t>alpha=0.037032139463</t>
+  </si>
+  <si>
+    <t>alpha=0.0159773753657</t>
+  </si>
+  <si>
+    <t>tau=1.68869145272, delta 1=0.0627510413221, delta 2=6.7547638109</t>
+  </si>
+  <si>
+    <t>tau=1e-06, delta 1=0.0271533327555, delta 2=2.65997678221</t>
+  </si>
+  <si>
+    <t>tau=2.44376502679, delta 1=0.0555482091945, delta 2=4.88753005359</t>
+  </si>
+  <si>
+    <t>tau=2.99870761465, delta 1=0.0239660630486, delta 2=5.99741522931</t>
+  </si>
+  <si>
+    <t>tau=1.68869145272, delta 1=467.767393905, delta 2=6.7547638109</t>
+  </si>
+  <si>
+    <t>tau=0.664994695553, delta 1=184.203392168, delta 2=2.65997678221</t>
+  </si>
+  <si>
+    <t>tau=1.2218830134, delta 1=338.461456211, delta 2=4.88753005359</t>
+  </si>
+  <si>
+    <t>tau=2.99870761465, delta 1=415.32100463, delta 2=5.99741522931</t>
+  </si>
+  <si>
+    <t>alpha=0.42205481678, l1_ratio=0.9</t>
+  </si>
+  <si>
+    <t>gamma=2.0, lambda=1000.0</t>
+  </si>
+  <si>
+    <t>alpha=0.256594317455</t>
+  </si>
+  <si>
+    <t>gamma=3.0, lambda=100.0</t>
+  </si>
+  <si>
+    <t>lambda 1=1.0, lambda 2=10.0</t>
+  </si>
+  <si>
+    <t>lambda 1=0.01, lambda 2=0.1</t>
+  </si>
+  <si>
+    <t>lambda 1=0.1, lambda 2=1.0</t>
+  </si>
+  <si>
+    <t>alpha=0.112717224649</t>
+  </si>
+  <si>
+    <t>C=60.0</t>
+  </si>
+  <si>
+    <t>E=15.0</t>
+  </si>
+  <si>
+    <t>Vote threshold=0.6</t>
+  </si>
+  <si>
+    <t>alpha=0.0137282148415, l1_ratio=0.99</t>
+  </si>
+  <si>
+    <t>alpha=0.0419553167532, l1_ratio=0.99</t>
+  </si>
+  <si>
+    <t>alpha=0.0427882287655</t>
+  </si>
+  <si>
+    <t>alpha=0.0145731116434</t>
+  </si>
+  <si>
+    <t>alpha=0.0415357635857</t>
+  </si>
+  <si>
+    <t>alpha=0.0224834314175</t>
+  </si>
+  <si>
+    <t>tau=2.57425432817, delta 1=0.0641823431482, delta 2=5.14850865635</t>
+  </si>
+  <si>
+    <t>tau=2.84260593198, delta 1=0.021859667465, delta 2=5.68521186397</t>
+  </si>
+  <si>
+    <t>tau=2.40056471873, delta 1=0.0623036453786, delta 2=4.80112943746</t>
+  </si>
+  <si>
+    <t>tau=2.60705951794, delta 1=0.0337251471262, delta 2=5.21411903588</t>
+  </si>
+  <si>
+    <t>tau=1.28712766409, delta 1=283.167976099, delta 2=5.14850865635</t>
+  </si>
+  <si>
+    <t>tau=2.84260593198, delta 1=159.185932191, delta 2=5.68521186397</t>
+  </si>
+  <si>
+    <t>tau=2.40056471873, delta 1=264.06211906, delta 2=4.80112943746</t>
+  </si>
+  <si>
+    <t>tau=2.60705951794, delta 1=286.776546973, delta 2=5.21411903588</t>
+  </si>
+  <si>
+    <t>gamma=3.0, lambda=0.1</t>
+  </si>
+  <si>
+    <t>alpha=0.552963768506, l1_ratio=0.1</t>
+  </si>
+  <si>
+    <t>C=25.0</t>
   </si>
 </sst>
 </file>
@@ -858,18 +837,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="62.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -913,121 +893,121 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>1.92342296938</v>
+        <v>1.92342303886</v>
       </c>
       <c r="E2">
-        <v>220</v>
+        <v>69</v>
       </c>
       <c r="F2">
-        <v>0.99149632452299996</v>
+        <v>0.99149632383800002</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.85795454545500005</v>
       </c>
       <c r="I2">
-        <v>0.2</v>
+        <v>0.63768115942000003</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3">
-        <v>14.612979924699999</v>
+        <v>14.612980673999999</v>
       </c>
       <c r="E3">
-        <v>220</v>
+        <v>87</v>
       </c>
       <c r="F3">
-        <v>0.84142814915599995</v>
+        <v>0.84142813863099997</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0.88636363636399995</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.72727272727299996</v>
       </c>
       <c r="I3">
-        <v>0.2</v>
+        <v>0.448275862069</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4">
-        <v>0.761208705825</v>
+        <v>0.77870490857399999</v>
       </c>
       <c r="E4">
-        <v>220</v>
+        <v>53</v>
       </c>
       <c r="F4">
-        <v>0.99762372625899998</v>
+        <v>0.99735850978700002</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.80612244897999996</v>
       </c>
       <c r="I4">
-        <v>0.109090909091</v>
+        <v>0.28301886792499997</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5">
-        <v>4.3964644068299998</v>
+        <v>4.3964644269199997</v>
       </c>
       <c r="E5">
-        <v>220</v>
+        <v>72</v>
       </c>
       <c r="F5">
-        <v>0.89544750915600002</v>
+        <v>0.89544750953300001</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0.79166666666700003</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.72959183673500005</v>
       </c>
       <c r="I5">
-        <v>0.109090909091</v>
+        <v>0.26388888888899997</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1038,80 +1018,62 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6">
-        <v>1.13028600375</v>
-      </c>
-      <c r="E6">
-        <v>46</v>
-      </c>
-      <c r="F6">
-        <v>0.99539151032499995</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>0.98863636363600005</v>
-      </c>
-      <c r="I6">
-        <v>0.95652173913000005</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
       <c r="D7">
-        <v>1.7400134118099999</v>
+        <v>24.3726245573</v>
       </c>
       <c r="E7">
-        <v>108</v>
+        <v>220</v>
       </c>
       <c r="F7">
-        <v>0.98806236391500002</v>
+        <v>0.49593143362300002</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.63636363636399995</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.40740740740699999</v>
+        <v>0.2</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
       <c r="D8">
-        <v>31.570897413800001</v>
+        <v>33.095036262400001</v>
       </c>
       <c r="E8">
         <v>220</v>
       </c>
       <c r="F8">
-        <v>0.172803518441</v>
+        <v>1.3307397368999999E-2</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1123,327 +1085,327 @@
         <v>0.109090909091</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>15.7200045818</v>
+        <v>23.552268926499998</v>
       </c>
       <c r="E9">
-        <v>127</v>
+        <v>220</v>
       </c>
       <c r="F9">
-        <v>0.447817502097</v>
+        <v>-5.4186258799599998E-2</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>0.474489795918</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.18897637795300001</v>
+        <v>0.109090909091</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="D10">
-        <v>1.14029849122</v>
+        <v>2.8094266887199999</v>
       </c>
       <c r="E10">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="F10">
-        <v>0.99464780483000004</v>
+        <v>0.98643867279599995</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0.85227272727299996</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0.62857142857100001</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="D11">
-        <v>1.46680723877</v>
+        <v>20.879828996200001</v>
       </c>
       <c r="E11">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="F11">
-        <v>0.98798898828799997</v>
+        <v>0.76170764988200002</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0.90909090909099999</v>
       </c>
       <c r="H11">
-        <v>0.95454545454499995</v>
+        <v>0.59090909090900001</v>
       </c>
       <c r="I11">
-        <v>0.84615384615400002</v>
+        <v>0.35714285714299998</v>
       </c>
       <c r="J11" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="D12">
-        <v>0.59411007542000005</v>
+        <v>0.96556700412499996</v>
       </c>
       <c r="E12">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="F12">
-        <v>0.99728937979499999</v>
+        <v>0.99654188227200002</v>
       </c>
       <c r="G12">
-        <v>0.54166666666700003</v>
+        <v>0.625</v>
       </c>
       <c r="H12">
-        <v>0.94387755102000004</v>
+        <v>0.80612244897999996</v>
       </c>
       <c r="I12">
-        <v>0.54166666666700003</v>
+        <v>0.28301886792499997</v>
       </c>
       <c r="J12" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="D13">
-        <v>2.6595299464800002</v>
+        <v>10.4076367667</v>
       </c>
       <c r="E13">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="F13">
-        <v>0.96150560602799995</v>
+        <v>0.77614255965400003</v>
       </c>
       <c r="G13">
-        <v>0.91666666666700003</v>
+        <v>0.83333333333299997</v>
       </c>
       <c r="H13">
-        <v>0.87244897959199996</v>
+        <v>0.60714285714299998</v>
       </c>
       <c r="I13">
-        <v>0.46808510638299999</v>
+        <v>0.20618556700999999</v>
       </c>
       <c r="J13" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>1.14029849122</v>
+        <v>1.9391142107299999</v>
       </c>
       <c r="E14">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="F14">
-        <v>0.99464780483000004</v>
+        <v>0.99209442967600003</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0.85227272727299996</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0.62857142857100001</v>
       </c>
       <c r="J14" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
       <c r="D15">
-        <v>4.3203981585699998</v>
+        <v>14.698286409</v>
       </c>
       <c r="E15">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F15">
-        <v>0.93439842946200002</v>
+        <v>0.84697380531099997</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0.86363636363600005</v>
       </c>
       <c r="H15">
-        <v>0.73863636363600005</v>
+        <v>0.67045454545500005</v>
       </c>
       <c r="I15">
-        <v>0.48888888888900001</v>
+        <v>0.39583333333300003</v>
       </c>
       <c r="J15" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>0.98852561595999999</v>
+        <v>0.78664556506299999</v>
       </c>
       <c r="E16">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F16">
-        <v>0.99607315591000001</v>
+        <v>0.99753613309</v>
       </c>
       <c r="G16">
-        <v>0.58333333333299997</v>
+        <v>0.625</v>
       </c>
       <c r="H16">
-        <v>0.83163265306099998</v>
+        <v>0.78571428571400004</v>
       </c>
       <c r="I16">
-        <v>0.29787234042600003</v>
+        <v>0.26315789473700002</v>
       </c>
       <c r="J16" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
       <c r="D17">
-        <v>5.45925261961</v>
+        <v>4.5341559739599999</v>
       </c>
       <c r="E17">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F17">
-        <v>0.89405669818699995</v>
+        <v>0.89885410918800002</v>
       </c>
       <c r="G17">
         <v>0.83333333333299997</v>
       </c>
       <c r="H17">
-        <v>0.70918367346900002</v>
+        <v>0.64795918367299998</v>
       </c>
       <c r="I17">
-        <v>0.25974025973999998</v>
+        <v>0.22471910112400001</v>
       </c>
       <c r="J17" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>1.9391142107299999</v>
+        <v>735.70405802799996</v>
       </c>
       <c r="E18">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="F18">
-        <v>0.99209442967600003</v>
+        <v>0.79888431673600002</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>0.85227272727299996</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.62857142857100001</v>
+        <v>0.2</v>
       </c>
       <c r="J18" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1451,223 +1413,223 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>14.6023498714</v>
+        <v>218.74685539699999</v>
       </c>
       <c r="E19">
-        <v>96</v>
+        <v>220</v>
       </c>
       <c r="F19">
-        <v>0.84696087237100004</v>
+        <v>0.48853167543499998</v>
       </c>
       <c r="G19">
-        <v>0.86363636363600005</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>0.67045454545500005</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.39583333333300003</v>
+        <v>0.2</v>
       </c>
       <c r="J19" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>0.81705922789600005</v>
+        <v>259.63641981799998</v>
       </c>
       <c r="E20">
-        <v>62</v>
+        <v>220</v>
       </c>
       <c r="F20">
-        <v>0.99748144256299998</v>
+        <v>0.60917498607499998</v>
       </c>
       <c r="G20">
-        <v>0.625</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>0.76020408163300002</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.241935483871</v>
+        <v>0.109090909091</v>
       </c>
       <c r="J20" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D21">
-        <v>4.5341559739599999</v>
+        <v>128.12177284800001</v>
       </c>
       <c r="E21">
-        <v>89</v>
+        <v>220</v>
       </c>
       <c r="F21">
-        <v>0.89885410918800002</v>
+        <v>0.45783749396399998</v>
       </c>
       <c r="G21">
-        <v>0.83333333333299997</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>0.64795918367299998</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.22471910112400001</v>
+        <v>0.109090909091</v>
       </c>
       <c r="J21" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>13.713613218900001</v>
+        <v>0.67756258895400001</v>
       </c>
       <c r="E22">
-        <v>220</v>
+        <v>151</v>
       </c>
       <c r="F22">
-        <v>0.88219441888200001</v>
+        <v>0.99995483598000001</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.39204545454500001</v>
       </c>
       <c r="I22">
-        <v>0.2</v>
+        <v>0.29139072847699998</v>
       </c>
       <c r="J22" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D23">
-        <v>35.635930525200003</v>
+        <v>15.1201847994</v>
       </c>
       <c r="E23">
-        <v>220</v>
+        <v>101</v>
       </c>
       <c r="F23">
-        <v>0.64981314568699999</v>
+        <v>0.84509127482699997</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0.86363636363600005</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.64204545454499995</v>
       </c>
       <c r="I23">
-        <v>0.2</v>
+        <v>0.37623762376199998</v>
       </c>
       <c r="J23" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>11.3869376475</v>
+        <v>0.76090057177299997</v>
       </c>
       <c r="E24">
-        <v>220</v>
+        <v>52</v>
       </c>
       <c r="F24">
-        <v>0.68982681258699996</v>
+        <v>0.99761894081199998</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.81122448979600004</v>
       </c>
       <c r="I24">
-        <v>0.109090909091</v>
+        <v>0.28846153846200001</v>
       </c>
       <c r="J24" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>12.740448972699999</v>
+        <v>4.4127939439299997</v>
       </c>
       <c r="E25">
-        <v>220</v>
+        <v>71</v>
       </c>
       <c r="F25">
-        <v>0.58324444011599996</v>
+        <v>0.89484330240400001</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0.79166666666700003</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.73469387755100002</v>
       </c>
       <c r="I25">
-        <v>0.109090909091</v>
+        <v>0.26760563380300001</v>
       </c>
       <c r="J25" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1678,272 +1640,272 @@
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D26">
-        <v>0.67756256608800003</v>
+        <v>2.0343988526599999</v>
       </c>
       <c r="E26">
-        <v>220</v>
+        <v>71</v>
       </c>
       <c r="F26">
-        <v>0.99995483598000001</v>
+        <v>0.99095780060399996</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>0.84659090909099999</v>
       </c>
       <c r="I26">
-        <v>0.2</v>
+        <v>0.619718309859</v>
       </c>
       <c r="J26" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
         <v>20</v>
       </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
-        <v>36</v>
-      </c>
       <c r="D27">
-        <v>14.5329296913</v>
+        <v>15.092321953900001</v>
       </c>
       <c r="E27">
-        <v>220</v>
+        <v>96</v>
       </c>
       <c r="F27">
-        <v>0.84268969637900004</v>
+        <v>0.84607084553099998</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0.88636363636399995</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>0.67613636363600005</v>
       </c>
       <c r="I27">
-        <v>0.2</v>
+        <v>0.40625</v>
       </c>
       <c r="J27" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D28">
-        <v>0.76090055720200001</v>
+        <v>0.78056182514899997</v>
       </c>
       <c r="E28">
-        <v>220</v>
+        <v>59</v>
       </c>
       <c r="F28">
-        <v>0.99761894081500002</v>
+        <v>0.99762265772400005</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>0.775510204082</v>
       </c>
       <c r="I28">
-        <v>0.109090909091</v>
+        <v>0.25423728813599999</v>
       </c>
       <c r="J28" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D29">
-        <v>4.4127938483999998</v>
+        <v>4.5366884562000003</v>
       </c>
       <c r="E29">
-        <v>220</v>
+        <v>87</v>
       </c>
       <c r="F29">
-        <v>0.89484330241300003</v>
+        <v>0.89900766305500002</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0.79166666666700003</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>0.65306122449000004</v>
       </c>
       <c r="I29">
-        <v>0.109090909091</v>
+        <v>0.218390804598</v>
       </c>
       <c r="J29" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D30">
-        <v>1.97110950141</v>
+        <v>1.6491242512299999</v>
       </c>
       <c r="E30">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="F30">
-        <v>0.99123892670400005</v>
+        <v>0.99212458743700005</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>0.85227272727299996</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>0.62857142857100001</v>
+        <v>0.2</v>
       </c>
       <c r="J30" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
         <v>21</v>
       </c>
-      <c r="B31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" t="s">
-        <v>38</v>
-      </c>
       <c r="D31">
-        <v>15.0385376007</v>
+        <v>4.1658572007299997</v>
       </c>
       <c r="E31">
-        <v>96</v>
+        <v>220</v>
       </c>
       <c r="F31">
-        <v>0.84596673728100003</v>
+        <v>0.97390446874400005</v>
       </c>
       <c r="G31">
-        <v>0.88636363636399995</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>0.67613636363600005</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>0.40625</v>
+        <v>0.2</v>
       </c>
       <c r="J31" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D32">
-        <v>0.80842398140899996</v>
+        <v>4.8022585500600004</v>
       </c>
       <c r="E32">
-        <v>61</v>
+        <v>220</v>
       </c>
       <c r="F32">
-        <v>0.99760190433999996</v>
+        <v>0.83585870495500003</v>
       </c>
       <c r="G32">
-        <v>0.625</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>0.76530612244899998</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>0.245901639344</v>
+        <v>0.109090909091</v>
       </c>
       <c r="J32" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D33">
-        <v>4.51098506663</v>
+        <v>6.7564863584800001</v>
       </c>
       <c r="E33">
-        <v>87</v>
+        <v>220</v>
       </c>
       <c r="F33">
-        <v>0.90000718923</v>
+        <v>0.75673550131300005</v>
       </c>
       <c r="G33">
-        <v>0.83333333333299997</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>0.658163265306</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>0.22988505747099999</v>
+        <v>0.109090909091</v>
       </c>
       <c r="J33" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D34">
-        <v>0.88704021501800001</v>
+        <v>1321.22138563</v>
       </c>
       <c r="E34">
         <v>220</v>
       </c>
       <c r="F34">
-        <v>0.99957218996599995</v>
+        <v>0.25654068936399999</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1955,27 +1917,27 @@
         <v>0.2</v>
       </c>
       <c r="J34" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D35">
-        <v>2.7660177102099999</v>
+        <v>896.53110212599995</v>
       </c>
       <c r="E35">
         <v>220</v>
       </c>
       <c r="F35">
-        <v>0.98606501714999995</v>
+        <v>0.25240262356400001</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1987,27 +1949,27 @@
         <v>0.2</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D36">
-        <v>4.8251013058899996</v>
+        <v>747.97872486999995</v>
       </c>
       <c r="E36">
         <v>220</v>
       </c>
       <c r="F36">
-        <v>0.84298686092800001</v>
+        <v>0.225111441311</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -2019,27 +1981,27 @@
         <v>0.109090909091</v>
       </c>
       <c r="J36" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D37">
-        <v>6.2694718785300001</v>
+        <v>412.20373545799998</v>
       </c>
       <c r="E37">
         <v>220</v>
       </c>
       <c r="F37">
-        <v>0.78260977201100002</v>
+        <v>0.20775544515399999</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -2051,27 +2013,27 @@
         <v>0.109090909091</v>
       </c>
       <c r="J37" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D38">
-        <v>1.47865688372</v>
+        <v>20.378001587699998</v>
       </c>
       <c r="E38">
         <v>220</v>
       </c>
       <c r="F38">
-        <v>0.99498022914100004</v>
+        <v>0.81812093660700003</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -2083,27 +2045,27 @@
         <v>0.2</v>
       </c>
       <c r="J38" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
         <v>11</v>
       </c>
-      <c r="B39" t="s">
-        <v>12</v>
-      </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D39">
-        <v>0.81797585238699999</v>
+        <v>29.9959302402</v>
       </c>
       <c r="E39">
         <v>220</v>
       </c>
       <c r="F39">
-        <v>0.99871101096299997</v>
+        <v>0.76757371842</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -2115,27 +2077,27 @@
         <v>0.2</v>
       </c>
       <c r="J39" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D40">
-        <v>1.1480139031100001</v>
+        <v>6.4329428364299996</v>
       </c>
       <c r="E40">
         <v>220</v>
       </c>
       <c r="F40">
-        <v>0.99408287451400001</v>
+        <v>0.88087264096200002</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -2147,27 +2109,27 @@
         <v>0.109090909091</v>
       </c>
       <c r="J40" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D41">
-        <v>4.57236316999</v>
+        <v>6.6956207328500001</v>
       </c>
       <c r="E41">
         <v>220</v>
       </c>
       <c r="F41">
-        <v>0.912299697799</v>
+        <v>0.80279324419300002</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -2179,135 +2141,7 @@
         <v>0.109090909091</v>
       </c>
       <c r="J41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42">
-        <v>5</v>
-      </c>
-      <c r="B42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42">
-        <v>0.67617877960499995</v>
-      </c>
-      <c r="E42">
-        <v>220</v>
-      </c>
-      <c r="F42">
-        <v>0.99995562987200004</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0.2</v>
-      </c>
-      <c r="J42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43">
-        <v>16</v>
-      </c>
-      <c r="B43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43">
-        <v>1.14039120491</v>
-      </c>
-      <c r="E43">
-        <v>220</v>
-      </c>
-      <c r="F43">
-        <v>0.99782208208300005</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0.2</v>
-      </c>
-      <c r="J43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44">
-        <v>27</v>
-      </c>
-      <c r="B44" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44">
-        <v>1.12813915578</v>
-      </c>
-      <c r="E44">
-        <v>220</v>
-      </c>
-      <c r="F44">
-        <v>0.99530525765699995</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0.109090909091</v>
-      </c>
-      <c r="J44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45">
-        <v>38</v>
-      </c>
-      <c r="B45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45">
-        <v>5.0964480961199996</v>
-      </c>
-      <c r="E45">
-        <v>220</v>
-      </c>
-      <c r="F45">
-        <v>0.89476359033399999</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0.109090909091</v>
-      </c>
-      <c r="J45" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2368,7 +2202,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>2.8078610745999999</v>
@@ -2389,7 +2223,7 @@
         <v>0.53012048192799999</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2397,10 +2231,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>23.607529756600002</v>
@@ -2421,7 +2255,7 @@
         <v>0.75</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2429,10 +2263,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>3.52989199754</v>
@@ -2453,7 +2287,7 @@
         <v>0.54545454545500005</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2461,10 +2295,10 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
       </c>
       <c r="D5">
         <v>5.1694122649500001</v>
@@ -2485,7 +2319,7 @@
         <v>0.321428571429</v>
       </c>
       <c r="J5" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2496,10 +2330,10 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>735.70405802799996</v>
+        <v>735.70031429200003</v>
       </c>
       <c r="E6">
         <v>220</v>
@@ -2517,7 +2351,7 @@
         <v>0.2</v>
       </c>
       <c r="J6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2525,10 +2359,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>218.74685539699999</v>
@@ -2549,7 +2383,7 @@
         <v>0.2</v>
       </c>
       <c r="J7" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2557,13 +2391,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>259.93431759200001</v>
+        <v>259.93396609799998</v>
       </c>
       <c r="E8">
         <v>220</v>
@@ -2581,7 +2415,7 @@
         <v>0.109090909091</v>
       </c>
       <c r="J8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2589,13 +2423,13 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>127.744039133</v>
+        <v>127.707023091</v>
       </c>
       <c r="E9">
         <v>220</v>
@@ -2613,7 +2447,7 @@
         <v>0.109090909091</v>
       </c>
       <c r="J9" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2624,28 +2458,28 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>1.0411900860500001</v>
+        <v>1.0411899150499999</v>
       </c>
       <c r="E10">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="F10">
-        <v>0.99783430680499996</v>
+        <v>0.99783430678499996</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.83522727272700004</v>
       </c>
       <c r="I10">
-        <v>0.2</v>
+        <v>0.60273972602699999</v>
       </c>
       <c r="J10" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2653,31 +2487,31 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>20.8835301479</v>
+        <v>20.883530251700002</v>
       </c>
       <c r="E11">
-        <v>220</v>
+        <v>39</v>
       </c>
       <c r="F11">
-        <v>0.85788632569500001</v>
+        <v>0.85788632559099998</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0.68181818181800002</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.94886363636399995</v>
       </c>
       <c r="I11">
-        <v>0.2</v>
+        <v>0.76923076923099998</v>
       </c>
       <c r="J11" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2685,31 +2519,31 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>5.6610267303799997</v>
+        <v>5.6610269002600004</v>
       </c>
       <c r="E12">
-        <v>220</v>
+        <v>37</v>
       </c>
       <c r="F12">
-        <v>0.93250994180299995</v>
+        <v>0.932509941826</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0.91666666666700003</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.92346938775499998</v>
       </c>
       <c r="I12">
-        <v>0.109090909091</v>
+        <v>0.59459459459499997</v>
       </c>
       <c r="J12" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2717,31 +2551,31 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>6.4996436722500004</v>
+        <v>6.4996438538600003</v>
       </c>
       <c r="E13">
-        <v>220</v>
+        <v>31</v>
       </c>
       <c r="F13">
-        <v>0.79555144053500004</v>
+        <v>0.79555144054600002</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0.70833333333299997</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.92857142857099995</v>
       </c>
       <c r="I13">
-        <v>0.109090909091</v>
+        <v>0.54838709677399999</v>
       </c>
       <c r="J13" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2752,7 +2586,7 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D14">
         <v>2.4226923936000002</v>
@@ -2773,7 +2607,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J14" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2781,10 +2615,10 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D15">
         <v>23.848641473099999</v>
@@ -2805,7 +2639,7 @@
         <v>0.60416666666700003</v>
       </c>
       <c r="J15" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2813,10 +2647,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D16">
         <v>1.01686023535</v>
@@ -2837,7 +2671,7 @@
         <v>0.193181818182</v>
       </c>
       <c r="J16" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2845,10 +2679,10 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D17">
         <v>5.8846780675700003</v>
@@ -2869,7 +2703,7 @@
         <v>0.35897435897399999</v>
       </c>
       <c r="J17" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2880,7 +2714,7 @@
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D18">
         <v>1.6491242512299999</v>
@@ -2901,7 +2735,7 @@
         <v>0.2</v>
       </c>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2909,10 +2743,10 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D19">
         <v>21.281859357399998</v>
@@ -2933,7 +2767,7 @@
         <v>0.2</v>
       </c>
       <c r="J19" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2941,10 +2775,10 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D20">
         <v>4.8524257479699999</v>
@@ -2965,7 +2799,7 @@
         <v>0.109090909091</v>
       </c>
       <c r="J20" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2973,10 +2807,10 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D21">
         <v>7.0504797826000001</v>
@@ -2997,7 +2831,7 @@
         <v>0.109090909091</v>
       </c>
       <c r="J21" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3058,7 +2892,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>32.664328990500003</v>
@@ -3079,7 +2913,7 @@
         <v>0.25730994151999997</v>
       </c>
       <c r="J2" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3087,31 +2921,31 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>38.0288181998</v>
+        <v>39.496961729399999</v>
       </c>
       <c r="E3">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F3">
-        <v>0.675958504367</v>
+        <v>0.67368349458800003</v>
       </c>
       <c r="G3">
-        <v>0.93181818181800002</v>
+        <v>0.90909090909099999</v>
       </c>
       <c r="H3">
-        <v>0.26136363636400001</v>
+        <v>0.26704545454500001</v>
       </c>
       <c r="I3">
-        <v>0.23976608187099999</v>
+        <v>0.236686390533</v>
       </c>
       <c r="J3" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3119,10 +2953,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>10.604569893500001</v>
@@ -3143,7 +2977,7 @@
         <v>0.15894039735099999</v>
       </c>
       <c r="J4" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3151,10 +2985,10 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
       </c>
       <c r="D5">
         <v>11.9658798903</v>
@@ -3175,7 +3009,7 @@
         <v>0.14012738853500001</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3186,10 +3020,10 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>735.66811349199997</v>
+        <v>735.70076644599999</v>
       </c>
       <c r="E6">
         <v>220</v>
@@ -3207,7 +3041,7 @@
         <v>0.2</v>
       </c>
       <c r="J6" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3215,13 +3049,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>219.87200418200001</v>
+        <v>218.74685539699999</v>
       </c>
       <c r="E7">
         <v>220</v>
@@ -3239,7 +3073,7 @@
         <v>0.2</v>
       </c>
       <c r="J7" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3247,13 +3081,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>259.93689843099997</v>
+        <v>259.93431759200001</v>
       </c>
       <c r="E8">
         <v>220</v>
@@ -3271,7 +3105,7 @@
         <v>0.109090909091</v>
       </c>
       <c r="J8" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3279,13 +3113,13 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>128.074853512</v>
+        <v>127.707023091</v>
       </c>
       <c r="E9">
         <v>220</v>
@@ -3303,7 +3137,7 @@
         <v>0.109090909091</v>
       </c>
       <c r="J9" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3314,28 +3148,28 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>0.71469296498400003</v>
+        <v>0.71469295952</v>
       </c>
       <c r="E10">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="F10">
-        <v>0.99972646635700002</v>
+        <v>0.999726466353</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.68181818181800002</v>
       </c>
       <c r="I10">
-        <v>0.2</v>
+        <v>0.44</v>
       </c>
       <c r="J10" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3343,31 +3177,31 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>20.8835301479</v>
+        <v>17.869583560300001</v>
       </c>
       <c r="E11">
-        <v>220</v>
+        <v>128</v>
       </c>
       <c r="F11">
-        <v>0.85788632569500001</v>
+        <v>0.85773751188900005</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0.86363636363600005</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.48863636363599999</v>
       </c>
       <c r="I11">
-        <v>0.2</v>
+        <v>0.296875</v>
       </c>
       <c r="J11" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3375,31 +3209,31 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>2.8414937113000001</v>
+        <v>2.60771279643</v>
       </c>
       <c r="E12">
-        <v>220</v>
+        <v>122</v>
       </c>
       <c r="F12">
-        <v>0.898470726256</v>
+        <v>0.87230977006499999</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I12">
-        <v>0.109090909091</v>
+        <v>0.19672131147499999</v>
       </c>
       <c r="J12" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3407,31 +3241,31 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>5.1993929802699999</v>
+        <v>5.2833062799499997</v>
       </c>
       <c r="E13">
-        <v>220</v>
+        <v>154</v>
       </c>
       <c r="F13">
-        <v>0.77785953839800004</v>
+        <v>0.73884561143399996</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0.91666666666700003</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.32653061224500002</v>
       </c>
       <c r="I13">
-        <v>0.109090909091</v>
+        <v>0.14285714285699999</v>
       </c>
       <c r="J13" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3442,7 +3276,7 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D14">
         <v>2.4226923936000002</v>
@@ -3463,7 +3297,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J14" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3471,10 +3305,10 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D15">
         <v>22.8064829602</v>
@@ -3495,7 +3329,7 @@
         <v>0.543859649123</v>
       </c>
       <c r="J15" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3503,10 +3337,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D16">
         <v>1.67326012323</v>
@@ -3527,7 +3361,7 @@
         <v>0.53846153846199996</v>
       </c>
       <c r="J16" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3535,10 +3369,10 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D17">
         <v>5.8150171659299996</v>
@@ -3559,7 +3393,7 @@
         <v>0.34042553191500002</v>
       </c>
       <c r="J17" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3570,10 +3404,10 @@
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="J18" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3581,10 +3415,10 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D19">
         <v>21.281859357399998</v>
@@ -3605,7 +3439,7 @@
         <v>0.2</v>
       </c>
       <c r="J19" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3613,10 +3447,10 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D20">
         <v>4.76501979861</v>
@@ -3637,7 +3471,7 @@
         <v>0.109090909091</v>
       </c>
       <c r="J20" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3645,19 +3479,19 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D21">
-        <v>7.0504797826000001</v>
+        <v>6.0136016397200001</v>
       </c>
       <c r="E21">
         <v>220</v>
       </c>
       <c r="F21">
-        <v>0.74547686476399999</v>
+        <v>0.72165248646199998</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -3669,7 +3503,7 @@
         <v>0.109090909091</v>
       </c>
       <c r="J21" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3679,18 +3513,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="62.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3734,121 +3571,121 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>1.35085663763</v>
+        <v>1.3508563917900001</v>
       </c>
       <c r="E2">
-        <v>550</v>
+        <v>78</v>
       </c>
       <c r="F2">
-        <v>0.98498985399200001</v>
+        <v>0.98498985471599998</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.93280632411099995</v>
       </c>
       <c r="I2">
-        <v>0.08</v>
+        <v>0.56410256410299997</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3">
-        <v>16.412046499300001</v>
+        <v>16.412046992099999</v>
       </c>
       <c r="E3">
-        <v>550</v>
+        <v>91</v>
       </c>
       <c r="F3">
-        <v>0.77240260371799996</v>
+        <v>0.77240259873200001</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0.65909090909099999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.87747035573099996</v>
       </c>
       <c r="I3">
-        <v>0.08</v>
+        <v>0.31868131868100003</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4">
-        <v>0.19301675418100001</v>
+        <v>0.19301668483600001</v>
       </c>
       <c r="E4">
-        <v>550</v>
+        <v>50</v>
       </c>
       <c r="F4">
-        <v>0.99920281927999999</v>
+        <v>0.99920281877999995</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.93346007604600001</v>
       </c>
       <c r="I4">
-        <v>4.36363636364E-2</v>
+        <v>0.3</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5">
-        <v>5.0393071703299999</v>
+        <v>5.0394186583999998</v>
       </c>
       <c r="E5">
-        <v>550</v>
+        <v>83</v>
       </c>
       <c r="F5">
-        <v>0.81030179013799997</v>
+        <v>0.81029097540899997</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0.54166666666700003</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.86692015209100004</v>
       </c>
       <c r="I5">
-        <v>4.36363636364E-2</v>
+        <v>0.156626506024</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3859,412 +3696,412 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>0.32782424822099998</v>
+        <v>52.582155008500003</v>
       </c>
       <c r="E6">
-        <v>44</v>
+        <v>550</v>
       </c>
       <c r="F6">
-        <v>0.99903227312099996</v>
+        <v>0.34347364997500002</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.08</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
       <c r="D7">
-        <v>0.81452861059299997</v>
+        <v>54.565333813300001</v>
       </c>
       <c r="E7">
-        <v>106</v>
+        <v>550</v>
       </c>
       <c r="F7">
-        <v>0.99135776072399995</v>
+        <v>0.27177833185099998</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.87747035573099996</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.41509433962300002</v>
+        <v>0.08</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
       <c r="D8">
-        <v>14.4856667765</v>
+        <v>47.111838700600003</v>
       </c>
       <c r="E8">
-        <v>105</v>
+        <v>550</v>
       </c>
       <c r="F8">
-        <v>0.57670963284999999</v>
+        <v>-1.28904046948E-2</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>0.84600760456299995</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.22857142857099999</v>
+        <v>4.36363636364E-2</v>
       </c>
       <c r="J8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>10.258013892099999</v>
+        <v>41.412693220900003</v>
       </c>
       <c r="E9">
-        <v>107</v>
+        <v>550</v>
       </c>
       <c r="F9">
-        <v>0.68486905339000004</v>
+        <v>-0.1217070073</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>0.84220532319399999</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.224299065421</v>
+        <v>4.36363636364E-2</v>
       </c>
       <c r="J9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="D10">
-        <v>0.35851689920899998</v>
+        <v>0.86377309511599998</v>
       </c>
       <c r="E10">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="F10">
-        <v>0.99885471936799997</v>
+        <v>0.993981006921</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>0.99604743083000002</v>
+        <v>0.96245059288500001</v>
       </c>
       <c r="I10">
-        <v>0.95652173913000005</v>
+        <v>0.69841269841300002</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="D11">
-        <v>0.73528265657799996</v>
+        <v>18.189474905000001</v>
       </c>
       <c r="E11">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="F11">
-        <v>0.99128716313499998</v>
+        <v>0.74472698649400004</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0.65909090909099999</v>
       </c>
       <c r="H11">
-        <v>0.942687747036</v>
+        <v>0.88339920948600004</v>
       </c>
       <c r="I11">
-        <v>0.60273972602699999</v>
+        <v>0.32954545454500001</v>
       </c>
       <c r="J11" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="D12">
-        <v>0.14873973127199999</v>
+        <v>0.28926720307100001</v>
       </c>
       <c r="E12">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F12">
-        <v>0.99823427718500002</v>
+        <v>0.99800782325399995</v>
       </c>
       <c r="G12">
-        <v>0.70833333333299997</v>
+        <v>0.625</v>
       </c>
       <c r="H12">
-        <v>0.97528517110299995</v>
+        <v>0.93346007604600001</v>
       </c>
       <c r="I12">
-        <v>0.56666666666700005</v>
+        <v>0.3</v>
       </c>
       <c r="J12" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="D13">
-        <v>6.4284979782500002</v>
+        <v>6.2246364431299996</v>
       </c>
       <c r="E13">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="F13">
-        <v>0.80261593930099995</v>
+        <v>0.78708293480299996</v>
       </c>
       <c r="G13">
-        <v>0.625</v>
+        <v>0.54166666666700003</v>
       </c>
       <c r="H13">
-        <v>0.95437262357399999</v>
+        <v>0.847908745247</v>
       </c>
       <c r="I13">
-        <v>0.384615384615</v>
+        <v>0.139784946237</v>
       </c>
       <c r="J13" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>0.32782424822099998</v>
+        <v>0.96372407213300004</v>
       </c>
       <c r="E14">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="F14">
-        <v>0.99903227312099996</v>
+        <v>0.99514219310499996</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0.93873517786600003</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0.58666666666699996</v>
       </c>
       <c r="J14" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
       <c r="D15">
-        <v>11.2753218646</v>
+        <v>16.442988547599999</v>
       </c>
       <c r="E15">
         <v>100</v>
       </c>
       <c r="F15">
-        <v>0.87766687463699999</v>
+        <v>0.76016886270200001</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0.65909090909099999</v>
       </c>
       <c r="H15">
-        <v>0.889328063241</v>
+        <v>0.85968379446599996</v>
       </c>
       <c r="I15">
-        <v>0.44</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J15" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>0.199441745753</v>
+        <v>0.21871281235100001</v>
       </c>
       <c r="E16">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="F16">
-        <v>0.997644603252</v>
+        <v>0.99859150064400004</v>
       </c>
       <c r="G16">
-        <v>0.58333333333299997</v>
+        <v>0.625</v>
       </c>
       <c r="H16">
-        <v>0.96958174904899996</v>
+        <v>0.91254752851700005</v>
       </c>
       <c r="I16">
-        <v>0.46666666666700002</v>
+        <v>0.245901639344</v>
       </c>
       <c r="J16" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
       <c r="D17">
-        <v>6.5292354464600004</v>
+        <v>5.9614735676299997</v>
       </c>
       <c r="E17">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="F17">
-        <v>0.79402862710800004</v>
+        <v>0.78954300319699999</v>
       </c>
       <c r="G17">
-        <v>0.70833333333299997</v>
+        <v>0.54166666666700003</v>
       </c>
       <c r="H17">
-        <v>0.86882129277599995</v>
+        <v>0.84030418251000005</v>
       </c>
       <c r="I17">
-        <v>0.19767441860500001</v>
+        <v>0.13402061855700001</v>
       </c>
       <c r="J17" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>0.95019364635900005</v>
+        <v>628.473183027</v>
       </c>
       <c r="E18">
-        <v>74</v>
+        <v>550</v>
       </c>
       <c r="F18">
-        <v>0.99531373302699999</v>
+        <v>0.66857624268500004</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>0.94071146245100001</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.59459459459499997</v>
+        <v>0.08</v>
       </c>
       <c r="J18" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4272,223 +4109,223 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>16.501672476500001</v>
+        <v>224.88971647400001</v>
       </c>
       <c r="E19">
-        <v>102</v>
+        <v>550</v>
       </c>
       <c r="F19">
-        <v>0.75847659430199998</v>
+        <v>0.45698462269599999</v>
       </c>
       <c r="G19">
-        <v>0.63636363636399995</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>0.853754940711</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.27450980392199997</v>
+        <v>0.08</v>
       </c>
       <c r="J19" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>0.215768744682</v>
+        <v>247.62656841399999</v>
       </c>
       <c r="E20">
-        <v>58</v>
+        <v>550</v>
       </c>
       <c r="F20">
-        <v>0.998622106708</v>
+        <v>0.53759075755700003</v>
       </c>
       <c r="G20">
-        <v>0.625</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>0.91825095056999995</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.25862068965500001</v>
+        <v>4.36363636364E-2</v>
       </c>
       <c r="J20" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D21">
-        <v>5.9671259213400001</v>
+        <v>144.73425902</v>
       </c>
       <c r="E21">
-        <v>99</v>
+        <v>550</v>
       </c>
       <c r="F21">
-        <v>0.78942021829099995</v>
+        <v>0.43070704542400001</v>
       </c>
       <c r="G21">
-        <v>0.54166666666700003</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>0.83650190114099998</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.13131313131299999</v>
+        <v>4.36363636364E-2</v>
       </c>
       <c r="J21" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>125.39485965199999</v>
+        <v>0.33150372368300002</v>
       </c>
       <c r="E22">
-        <v>550</v>
+        <v>224</v>
       </c>
       <c r="F22">
-        <v>0.75962022663899997</v>
+        <v>0.99997705778900003</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.64426877470400001</v>
       </c>
       <c r="I22">
-        <v>0.08</v>
+        <v>0.196428571429</v>
       </c>
       <c r="J22" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D23">
-        <v>49.705894980799997</v>
+        <v>16.340459614899999</v>
       </c>
       <c r="E23">
-        <v>550</v>
+        <v>91</v>
       </c>
       <c r="F23">
-        <v>0.52890525377700004</v>
+        <v>0.77341458180599998</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0.65909090909099999</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.87747035573099996</v>
       </c>
       <c r="I23">
-        <v>0.08</v>
+        <v>0.31868131868100003</v>
       </c>
       <c r="J23" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>35.5867443311</v>
+        <v>0.184381281595</v>
       </c>
       <c r="E24">
-        <v>550</v>
+        <v>53</v>
       </c>
       <c r="F24">
-        <v>0.59816865430099997</v>
+        <v>0.99930939025499999</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0.58333333333299997</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.92585551330799998</v>
       </c>
       <c r="I24">
-        <v>4.36363636364E-2</v>
+        <v>0.26415094339599998</v>
       </c>
       <c r="J24" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>31.065617759399998</v>
+        <v>6.3127543503199997</v>
       </c>
       <c r="E25">
-        <v>550</v>
+        <v>99</v>
       </c>
       <c r="F25">
-        <v>0.48040368922600002</v>
+        <v>0.78511227174300002</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0.58333333333299997</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.83840304182500003</v>
       </c>
       <c r="I25">
-        <v>4.36363636364E-2</v>
+        <v>0.14141414141399999</v>
       </c>
       <c r="J25" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -4499,272 +4336,272 @@
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D26">
-        <v>0.33150371495300002</v>
+        <v>4.0995340844200001</v>
       </c>
       <c r="E26">
-        <v>550</v>
+        <v>85</v>
       </c>
       <c r="F26">
-        <v>0.99997705778799995</v>
+        <v>0.94846109737200002</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>0.91897233201600004</v>
       </c>
       <c r="I26">
-        <v>0.08</v>
+        <v>0.51764705882399997</v>
       </c>
       <c r="J26" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
         <v>20</v>
       </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
-        <v>36</v>
-      </c>
       <c r="D27">
-        <v>16.340460260099999</v>
+        <v>16.437790415999999</v>
       </c>
       <c r="E27">
-        <v>550</v>
+        <v>99</v>
       </c>
       <c r="F27">
-        <v>0.77341458200900004</v>
+        <v>0.76030484297300005</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0.65909090909099999</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>0.86166007905099995</v>
       </c>
       <c r="I27">
-        <v>0.08</v>
+        <v>0.292929292929</v>
       </c>
       <c r="J27" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D28">
-        <v>0.19213115529999999</v>
+        <v>0.19317779509800001</v>
       </c>
       <c r="E28">
-        <v>550</v>
+        <v>59</v>
       </c>
       <c r="F28">
-        <v>0.99914605071600004</v>
+        <v>0.99924710721999999</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>0.91634980988600001</v>
       </c>
       <c r="I28">
-        <v>4.36363636364E-2</v>
+        <v>0.25423728813599999</v>
       </c>
       <c r="J28" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D29">
-        <v>5.0332993894299998</v>
+        <v>5.8043536717700004</v>
       </c>
       <c r="E29">
-        <v>550</v>
+        <v>96</v>
       </c>
       <c r="F29">
-        <v>0.81051797398400005</v>
+        <v>0.78954797111599995</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0.54166666666700003</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>0.84220532319399999</v>
       </c>
       <c r="I29">
-        <v>4.36363636364E-2</v>
+        <v>0.135416666667</v>
       </c>
       <c r="J29" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D30">
-        <v>4.20504948548</v>
+        <v>0.93329221339400004</v>
       </c>
       <c r="E30">
-        <v>86</v>
+        <v>550</v>
       </c>
       <c r="F30">
-        <v>0.94754497129799997</v>
+        <v>0.99876079285599995</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>0.91699604743100005</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>0.511627906977</v>
+        <v>0.08</v>
       </c>
       <c r="J30" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
         <v>21</v>
       </c>
-      <c r="B31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" t="s">
-        <v>38</v>
-      </c>
       <c r="D31">
-        <v>16.465570067200002</v>
+        <v>9.8914280354099997</v>
       </c>
       <c r="E31">
-        <v>103</v>
+        <v>550</v>
       </c>
       <c r="F31">
-        <v>0.76001530367900005</v>
+        <v>0.90973293033699998</v>
       </c>
       <c r="G31">
-        <v>0.63636363636399995</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>0.85177865612600001</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>0.271844660194</v>
+        <v>0.08</v>
       </c>
       <c r="J31" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D32">
-        <v>0.184172377778</v>
+        <v>2.75277660263</v>
       </c>
       <c r="E32">
-        <v>53</v>
+        <v>550</v>
       </c>
       <c r="F32">
-        <v>0.99932637826100001</v>
+        <v>0.86290441906100002</v>
       </c>
       <c r="G32">
-        <v>0.58333333333299997</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>0.92585551330799998</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>0.26415094339599998</v>
+        <v>4.36363636364E-2</v>
       </c>
       <c r="J32" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D33">
-        <v>5.8862719620000004</v>
+        <v>8.3508507124900007</v>
       </c>
       <c r="E33">
-        <v>97</v>
+        <v>550</v>
       </c>
       <c r="F33">
-        <v>0.78957482671599999</v>
+        <v>0.68545818259299995</v>
       </c>
       <c r="G33">
-        <v>0.54166666666700003</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>0.84030418251000005</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>0.13402061855700001</v>
+        <v>4.36363636364E-2</v>
       </c>
       <c r="J33" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D34">
-        <v>0.42066448828000003</v>
+        <v>277510.680399</v>
       </c>
       <c r="E34">
         <v>550</v>
       </c>
       <c r="F34">
-        <v>0.99987094384599995</v>
+        <v>0.225068556655</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -4776,27 +4613,27 @@
         <v>0.08</v>
       </c>
       <c r="J34" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D35">
-        <v>1.22863230709</v>
+        <v>43345.178499900001</v>
       </c>
       <c r="E35">
         <v>550</v>
       </c>
       <c r="F35">
-        <v>0.99244158792000003</v>
+        <v>0.208678084337</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -4808,27 +4645,27 @@
         <v>0.08</v>
       </c>
       <c r="J35" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D36">
-        <v>1.91876039433</v>
+        <v>3578.0938762800001</v>
       </c>
       <c r="E36">
         <v>550</v>
       </c>
       <c r="F36">
-        <v>0.86879025805599996</v>
+        <v>0.20012208978599999</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -4840,27 +4677,27 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J36" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D37">
-        <v>8.1882745378199999</v>
+        <v>2025.6164855100001</v>
       </c>
       <c r="E37">
         <v>550</v>
       </c>
       <c r="F37">
-        <v>0.68043731050599998</v>
+        <v>0.17302939850499999</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -4872,27 +4709,27 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J37" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D38">
-        <v>0.445701022452</v>
+        <v>25.1578753595</v>
       </c>
       <c r="E38">
         <v>550</v>
       </c>
       <c r="F38">
-        <v>0.99956792419200002</v>
+        <v>0.74937865470800002</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -4904,27 +4741,27 @@
         <v>0.08</v>
       </c>
       <c r="J38" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
         <v>11</v>
       </c>
-      <c r="B39" t="s">
-        <v>12</v>
-      </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D39">
-        <v>0.67944071093000002</v>
+        <v>18.215062095</v>
       </c>
       <c r="E39">
         <v>550</v>
       </c>
       <c r="F39">
-        <v>0.99529161666900001</v>
+        <v>0.74745450105099998</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -4936,27 +4773,27 @@
         <v>0.08</v>
       </c>
       <c r="J39" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D40">
-        <v>0.31084140783399999</v>
+        <v>9.2180719673600002</v>
       </c>
       <c r="E40">
         <v>550</v>
       </c>
       <c r="F40">
-        <v>0.99793675412100002</v>
+        <v>0.82837694938799999</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -4968,27 +4805,27 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J40" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D41">
-        <v>6.4236454604300004</v>
+        <v>10.7066696686</v>
       </c>
       <c r="E41">
         <v>550</v>
       </c>
       <c r="F41">
-        <v>0.78574081339699997</v>
+        <v>0.65096352282600001</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -5000,135 +4837,7 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J41" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42">
-        <v>5</v>
-      </c>
-      <c r="B42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42">
-        <v>0.33534737297400002</v>
-      </c>
-      <c r="E42">
-        <v>550</v>
-      </c>
-      <c r="F42">
-        <v>0.99974357787099999</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0.08</v>
-      </c>
-      <c r="J42" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43">
-        <v>16</v>
-      </c>
-      <c r="B43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43">
-        <v>0.33962121160699998</v>
-      </c>
-      <c r="E43">
-        <v>550</v>
-      </c>
-      <c r="F43">
-        <v>0.99585502143000004</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0.08</v>
-      </c>
-      <c r="J43" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44">
-        <v>27</v>
-      </c>
-      <c r="B44" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44">
-        <v>0.27803169980499998</v>
-      </c>
-      <c r="E44">
-        <v>550</v>
-      </c>
-      <c r="F44">
-        <v>0.99829056548100004</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>4.36363636364E-2</v>
-      </c>
-      <c r="J44" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45">
-        <v>38</v>
-      </c>
-      <c r="B45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45">
-        <v>5.0217662172199997</v>
-      </c>
-      <c r="E45">
-        <v>550</v>
-      </c>
-      <c r="F45">
-        <v>0.78424171825300004</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>4.36363636364E-2</v>
-      </c>
-      <c r="J45" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -5140,7 +4849,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5189,7 +4900,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>1.09543119051</v>
@@ -5210,7 +4921,7 @@
         <v>0.511627906977</v>
       </c>
       <c r="J2" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5218,31 +4929,31 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>14.674265500600001</v>
+        <v>14.0188023991</v>
       </c>
       <c r="E3">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F3">
-        <v>0.80535762341999995</v>
+        <v>0.82241121535499995</v>
       </c>
       <c r="G3">
-        <v>0.68181818181800002</v>
+        <v>0.65909090909099999</v>
       </c>
       <c r="H3">
-        <v>0.91699604743100005</v>
+        <v>0.94664031620599998</v>
       </c>
       <c r="I3">
-        <v>0.41666666666699997</v>
+        <v>0.51785714285700002</v>
       </c>
       <c r="J3" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5250,10 +4961,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>5.3399083446900004</v>
@@ -5274,7 +4985,7 @@
         <v>0.56666666666700005</v>
       </c>
       <c r="J4" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -5282,10 +4993,10 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
       </c>
       <c r="D5">
         <v>4.1737677492499996</v>
@@ -5306,7 +5017,7 @@
         <v>0.25</v>
       </c>
       <c r="J5" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5317,10 +5028,10 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>628.49356452300003</v>
+        <v>628.67378185699999</v>
       </c>
       <c r="E6">
         <v>550</v>
@@ -5338,7 +5049,7 @@
         <v>0.08</v>
       </c>
       <c r="J6" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5346,13 +5057,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>224.88971647400001</v>
+        <v>267.87201670799999</v>
       </c>
       <c r="E7">
         <v>550</v>
@@ -5370,7 +5081,7 @@
         <v>0.08</v>
       </c>
       <c r="J7" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5378,13 +5089,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>247.705282098</v>
+        <v>247.695633141</v>
       </c>
       <c r="E8">
         <v>550</v>
@@ -5402,7 +5113,7 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J8" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5410,13 +5121,13 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>144.97737970200001</v>
+        <v>144.97965451300001</v>
       </c>
       <c r="E9">
         <v>550</v>
@@ -5434,7 +5145,7 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J9" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5445,13 +5156,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>0.40173144167399999</v>
+        <v>0.40173143925799998</v>
       </c>
       <c r="E10">
-        <v>550</v>
+        <v>78</v>
       </c>
       <c r="F10">
         <v>0.99923057909799995</v>
@@ -5460,13 +5171,13 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.93280632411099995</v>
       </c>
       <c r="I10">
-        <v>0.08</v>
+        <v>0.56410256410299997</v>
       </c>
       <c r="J10" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5474,31 +5185,31 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>12.663817033100001</v>
+        <v>12.6638172155</v>
       </c>
       <c r="E11">
-        <v>550</v>
+        <v>52</v>
       </c>
       <c r="F11">
-        <v>0.870026834784</v>
+        <v>0.87002683465099995</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0.68181818181800002</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.95652173913000005</v>
       </c>
       <c r="I11">
-        <v>0.08</v>
+        <v>0.57692307692300004</v>
       </c>
       <c r="J11" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5506,31 +5217,31 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>3.98588507347</v>
+        <v>3.9858850802300001</v>
       </c>
       <c r="E12">
-        <v>550</v>
+        <v>41</v>
       </c>
       <c r="F12">
-        <v>0.94668429935200005</v>
+        <v>0.94668429935099996</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0.95833333333299997</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.96577946768099998</v>
       </c>
       <c r="I12">
-        <v>4.36363636364E-2</v>
+        <v>0.56097560975600003</v>
       </c>
       <c r="J12" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5538,31 +5249,31 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>4.6063338489700003</v>
+        <v>4.6063342244100003</v>
       </c>
       <c r="E13">
-        <v>550</v>
+        <v>30</v>
       </c>
       <c r="F13">
-        <v>0.855000712444</v>
+        <v>0.85500071247200005</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0.54166666666700003</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.96768060836500003</v>
       </c>
       <c r="I13">
-        <v>4.36363636364E-2</v>
+        <v>0.433333333333</v>
       </c>
       <c r="J13" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5573,7 +5284,7 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D14">
         <v>4.6532745401</v>
@@ -5594,7 +5305,7 @@
         <v>0.46236559139799999</v>
       </c>
       <c r="J14" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5602,31 +5313,31 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>15.713207927699999</v>
+        <v>15.6383667983</v>
       </c>
       <c r="E15">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F15">
-        <v>0.79191071825199999</v>
+        <v>0.793522177228</v>
       </c>
       <c r="G15">
         <v>0.63636363636399995</v>
       </c>
       <c r="H15">
-        <v>0.93478260869600005</v>
+        <v>0.93675889328100004</v>
       </c>
       <c r="I15">
-        <v>0.45901639344299999</v>
+        <v>0.46666666666700002</v>
       </c>
       <c r="J15" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5634,10 +5345,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D16">
         <v>0.30217889282400001</v>
@@ -5658,7 +5369,7 @@
         <v>0.433333333333</v>
       </c>
       <c r="J16" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5666,10 +5377,10 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D17">
         <v>3.72726504736</v>
@@ -5690,7 +5401,7 @@
         <v>0.210526315789</v>
       </c>
       <c r="J17" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5701,7 +5412,7 @@
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D18">
         <v>0.93329221339400004</v>
@@ -5722,7 +5433,7 @@
         <v>0.08</v>
       </c>
       <c r="J18" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5730,10 +5441,10 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D19">
         <v>20.146456748599999</v>
@@ -5754,7 +5465,7 @@
         <v>0.08</v>
       </c>
       <c r="J19" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -5762,10 +5473,10 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D20">
         <v>2.6519397060399998</v>
@@ -5786,7 +5497,7 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J20" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -5794,10 +5505,10 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D21">
         <v>8.1861917765999994</v>
@@ -5818,7 +5529,7 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J21" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -5831,7 +5542,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="D20:I20"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5881,7 +5592,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>122.700724804</v>
@@ -5902,7 +5613,7 @@
         <v>0.109181141439</v>
       </c>
       <c r="J2" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5910,10 +5621,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>43.803190845499998</v>
@@ -5934,7 +5645,7 @@
         <v>0.12359550561800001</v>
       </c>
       <c r="J3" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5942,10 +5653,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>28.849100263499999</v>
@@ -5966,7 +5677,7 @@
         <v>7.5709779179799999E-2</v>
       </c>
       <c r="J4" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -5974,10 +5685,10 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
       </c>
       <c r="D5">
         <v>20.3384118295</v>
@@ -5998,7 +5709,7 @@
         <v>6.70926517572E-2</v>
       </c>
       <c r="J5" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6009,10 +5720,10 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>628.473183027</v>
+        <v>628.06545560500001</v>
       </c>
       <c r="E6">
         <v>550</v>
@@ -6030,7 +5741,7 @@
         <v>0.08</v>
       </c>
       <c r="J6" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6038,13 +5749,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>224.68550315600001</v>
+        <v>224.68711120200001</v>
       </c>
       <c r="E7">
         <v>550</v>
@@ -6062,7 +5773,7 @@
         <v>0.08</v>
       </c>
       <c r="J7" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6070,13 +5781,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>247.70438373299999</v>
+        <v>247.695633141</v>
       </c>
       <c r="E8">
         <v>550</v>
@@ -6094,7 +5805,7 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J8" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6102,13 +5813,13 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>144.979623917</v>
+        <v>180.698173021</v>
       </c>
       <c r="E9">
         <v>550</v>
@@ -6126,7 +5837,7 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J9" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6137,28 +5848,28 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>0.33140450417599998</v>
+        <v>0.44565543909400002</v>
       </c>
       <c r="E10">
-        <v>550</v>
+        <v>229</v>
       </c>
       <c r="F10">
-        <v>0.99988324791100003</v>
+        <v>0.99955508000799997</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.63438735177899996</v>
       </c>
       <c r="I10">
-        <v>0.08</v>
+        <v>0.19213973799100001</v>
       </c>
       <c r="J10" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6166,31 +5877,31 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>12.663817033100001</v>
+        <v>30.9107504965</v>
       </c>
       <c r="E11">
-        <v>550</v>
+        <v>440</v>
       </c>
       <c r="F11">
-        <v>0.870026834784</v>
+        <v>0.73121712375400005</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.217391304348</v>
       </c>
       <c r="I11">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="J11" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6198,31 +5909,31 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>1.8165201588</v>
+        <v>1.7322497825200001</v>
       </c>
       <c r="E12">
-        <v>550</v>
+        <v>213</v>
       </c>
       <c r="F12">
-        <v>0.89688843700300003</v>
+        <v>0.87407296595200001</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.64068441064600001</v>
       </c>
       <c r="I12">
-        <v>4.36363636364E-2</v>
+        <v>0.112676056338</v>
       </c>
       <c r="J12" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6230,31 +5941,31 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>6.3066838430000001</v>
+        <v>9.0496229463999995</v>
       </c>
       <c r="E13">
-        <v>550</v>
+        <v>373</v>
       </c>
       <c r="F13">
-        <v>0.77171049489300003</v>
+        <v>0.72324346708700005</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0.95833333333299997</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.33460076045600001</v>
       </c>
       <c r="I13">
-        <v>4.36363636364E-2</v>
+        <v>6.1662198391399997E-2</v>
       </c>
       <c r="J13" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6265,7 +5976,7 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D14">
         <v>4.6532745401</v>
@@ -6286,7 +5997,7 @@
         <v>0.46236559139799999</v>
       </c>
       <c r="J14" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6294,10 +6005,10 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D15">
         <v>16.104446546199998</v>
@@ -6318,7 +6029,7 @@
         <v>0.33750000000000002</v>
       </c>
       <c r="J15" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -6326,10 +6037,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D16">
         <v>0.25390495012100001</v>
@@ -6350,7 +6061,7 @@
         <v>0.16483516483499999</v>
       </c>
       <c r="J16" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6358,31 +6069,31 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>3.7859332061300002</v>
+        <v>4.1277550159800001</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F17">
-        <v>0.84912859077400005</v>
+        <v>0.83887792131799999</v>
       </c>
       <c r="G17">
-        <v>0.5</v>
+        <v>0.54166666666700003</v>
       </c>
       <c r="H17">
-        <v>0.90494296577900002</v>
+        <v>0.89733840304199997</v>
       </c>
       <c r="I17">
-        <v>0.19354838709700001</v>
+        <v>0.19402985074599999</v>
       </c>
       <c r="J17" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6393,16 +6104,16 @@
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D18">
-        <v>2.00141657064</v>
+        <v>0.93329221339400004</v>
       </c>
       <c r="E18">
         <v>550</v>
       </c>
       <c r="F18">
-        <v>0.99721507880799998</v>
+        <v>0.99876079285599995</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -6414,7 +6125,7 @@
         <v>0.08</v>
       </c>
       <c r="J18" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -6422,10 +6133,10 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D19">
         <v>20.146456748599999</v>
@@ -6446,7 +6157,7 @@
         <v>0.08</v>
       </c>
       <c r="J19" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -6454,13 +6165,31 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>2.6519397060399998</v>
+      </c>
+      <c r="E20">
+        <v>550</v>
+      </c>
+      <c r="F20">
+        <v>0.86366972175199996</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>4.36363636364E-2</v>
       </c>
       <c r="J20" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -6468,19 +6197,19 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D21">
-        <v>8.1861917765999994</v>
+        <v>8.1469468881899996</v>
       </c>
       <c r="E21">
         <v>550</v>
       </c>
       <c r="F21">
-        <v>0.68608206003899996</v>
+        <v>0.67994035199799996</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -6492,7 +6221,7 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J21" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/python/results/tuning_summary.xlsx
+++ b/python/results/tuning_summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="cv_mse_p220" sheetId="1" r:id="rId1"/>
@@ -3515,8 +3515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/python/results/tuning_summary.xlsx
+++ b/python/results/tuning_summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="cv_mse_p220" sheetId="1" r:id="rId1"/>
@@ -208,36 +208,9 @@
     <t>ttlp</t>
   </si>
   <si>
-    <t>alpha=0.0345473635982, l1_ratio=0.8</t>
-  </si>
-  <si>
-    <t>alpha=0.511689891439, l1_ratio=0.9</t>
-  </si>
-  <si>
-    <t>alpha=0.369439795992, l1_ratio=0.9</t>
-  </si>
-  <si>
-    <t>alpha=0.223801135944, l1_ratio=0.8</t>
-  </si>
-  <si>
-    <t>lambda 1=10.0, lambda 2=10.0</t>
-  </si>
-  <si>
     <t>lambda 1=10.0, lambda 2=100.0</t>
   </si>
   <si>
-    <t>alpha=0.0301862495166</t>
-  </si>
-  <si>
-    <t>alpha=0.313968172661</t>
-  </si>
-  <si>
-    <t>alpha=0.0145840029776</t>
-  </si>
-  <si>
-    <t>alpha=0.209681233894</t>
-  </si>
-  <si>
     <t>C=35.0</t>
   </si>
   <si>
@@ -253,12 +226,6 @@
     <t>alpha=0.413583525596, l1_ratio=0.1</t>
   </si>
   <si>
-    <t>lambda 1=100.0, lambda 2=10.0</t>
-  </si>
-  <si>
-    <t>alpha=0.192647959425</t>
-  </si>
-  <si>
     <t>alpha=0.254859593892</t>
   </si>
   <si>
@@ -268,24 +235,9 @@
     <t>E=70.0</t>
   </si>
   <si>
-    <t>alpha=0.0215751505702, l1_ratio=0.9</t>
-  </si>
-  <si>
-    <t>alpha=0.635296423133, l1_ratio=0.9</t>
-  </si>
-  <si>
-    <t>alpha=0.263021624619, l1_ratio=0.9</t>
-  </si>
-  <si>
     <t>alpha=0.0181089518682</t>
   </si>
   <si>
-    <t>alpha=0.121263561278</t>
-  </si>
-  <si>
-    <t>alpha=0.159773753657</t>
-  </si>
-  <si>
     <t>alpha=1.04672808601, l1_ratio=0.1</t>
   </si>
   <si>
@@ -307,21 +259,12 @@
     <t>gamma=2.0, lambda=0.01</t>
   </si>
   <si>
-    <t>gamma=3.0, lambda=1.0</t>
-  </si>
-  <si>
     <t>gamma=2.0, lambda=0.1</t>
   </si>
   <si>
     <t>gamma=2.0, lambda=1.0</t>
   </si>
   <si>
-    <t>gamma=2.0, lambda=10.0</t>
-  </si>
-  <si>
-    <t>gamma=3.0, lambda=10.0</t>
-  </si>
-  <si>
     <t>gamma=3.0, lambda=0.01</t>
   </si>
   <si>
@@ -400,15 +343,9 @@
     <t>tau=2.99870761465, delta 1=415.32100463, delta 2=5.99741522931</t>
   </si>
   <si>
-    <t>alpha=0.42205481678, l1_ratio=0.9</t>
-  </si>
-  <si>
     <t>gamma=2.0, lambda=1000.0</t>
   </si>
   <si>
-    <t>alpha=0.256594317455</t>
-  </si>
-  <si>
     <t>gamma=3.0, lambda=100.0</t>
   </si>
   <si>
@@ -424,9 +361,6 @@
     <t>alpha=0.112717224649</t>
   </si>
   <si>
-    <t>C=60.0</t>
-  </si>
-  <si>
     <t>E=15.0</t>
   </si>
   <si>
@@ -478,10 +412,76 @@
     <t>gamma=3.0, lambda=0.1</t>
   </si>
   <si>
-    <t>alpha=0.552963768506, l1_ratio=0.1</t>
-  </si>
-  <si>
-    <t>C=25.0</t>
+    <t>alpha=0.016272215615, l1_ratio=0.7</t>
+  </si>
+  <si>
+    <t>alpha=0.0151010363257, l1_ratio=0.7</t>
+  </si>
+  <si>
+    <t>alpha=0.229693860143, l1_ratio=0.9</t>
+  </si>
+  <si>
+    <t>alpha=0.0130448555261, l1_ratio=0.4</t>
+  </si>
+  <si>
+    <t>lambda 1=10.0, lambda 2=1.0</t>
+  </si>
+  <si>
+    <t>lambda 1=1.0, lambda 2=1.0</t>
+  </si>
+  <si>
+    <t>alpha=0.0161094934588</t>
+  </si>
+  <si>
+    <t>alpha=0.0126749493168</t>
+  </si>
+  <si>
+    <t>alpha=0.012684422044</t>
+  </si>
+  <si>
+    <t>alpha=0.0846486760032</t>
+  </si>
+  <si>
+    <t>C=45.0</t>
+  </si>
+  <si>
+    <t>alpha=0.461163829722, l1_ratio=0.1</t>
+  </si>
+  <si>
+    <t>lambda 1=1.0, lambda 2=0.1</t>
+  </si>
+  <si>
+    <t>alpha=0.0511689891439</t>
+  </si>
+  <si>
+    <t>C=40.0</t>
+  </si>
+  <si>
+    <t>alpha=0.0487681926312, l1_ratio=0.8</t>
+  </si>
+  <si>
+    <t>alpha=0.055714363846, l1_ratio=0.9</t>
+  </si>
+  <si>
+    <t>alpha=0.333754556095, l1_ratio=0.8</t>
+  </si>
+  <si>
+    <t>alpha=0.0213344948893, l1_ratio=0.5</t>
+  </si>
+  <si>
+    <t>alpha=0.0223255622654</t>
+  </si>
+  <si>
+    <t>alpha=0.0840230707421</t>
+  </si>
+  <si>
+    <t>alpha=0.120862985347</t>
+  </si>
+  <si>
+    <t>C=100.0</t>
+  </si>
+  <si>
+    <t>C=65.0</t>
   </si>
 </sst>
 </file>
@@ -911,7 +911,7 @@
         <v>0.63768115942000003</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -943,7 +943,7 @@
         <v>0.448275862069</v>
       </c>
       <c r="J3" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -975,7 +975,7 @@
         <v>0.28301886792499997</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1007,7 +1007,7 @@
         <v>0.26388888888899997</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1021,7 +1021,7 @@
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1053,7 +1053,7 @@
         <v>0.2</v>
       </c>
       <c r="J7" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1085,7 +1085,7 @@
         <v>0.109090909091</v>
       </c>
       <c r="J8" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1117,7 +1117,7 @@
         <v>0.109090909091</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1128,7 +1128,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D10">
         <v>2.8094266887199999</v>
@@ -1149,7 +1149,7 @@
         <v>0.62857142857100001</v>
       </c>
       <c r="J10" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1160,7 +1160,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D11">
         <v>20.879828996200001</v>
@@ -1181,7 +1181,7 @@
         <v>0.35714285714299998</v>
       </c>
       <c r="J11" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1192,7 +1192,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D12">
         <v>0.96556700412499996</v>
@@ -1213,7 +1213,7 @@
         <v>0.28301886792499997</v>
       </c>
       <c r="J12" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1224,7 +1224,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D13">
         <v>10.4076367667</v>
@@ -1245,7 +1245,7 @@
         <v>0.20618556700999999</v>
       </c>
       <c r="J13" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1309,7 +1309,7 @@
         <v>0.39583333333300003</v>
       </c>
       <c r="J15" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1341,7 +1341,7 @@
         <v>0.26315789473700002</v>
       </c>
       <c r="J16" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1387,13 +1387,13 @@
         <v>18</v>
       </c>
       <c r="D18">
-        <v>735.70405802799996</v>
+        <v>381.33024746000001</v>
       </c>
       <c r="E18">
         <v>220</v>
       </c>
       <c r="F18">
-        <v>0.79888431673600002</v>
+        <v>0.84776209211999998</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1405,7 +1405,7 @@
         <v>0.2</v>
       </c>
       <c r="J18" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1419,13 +1419,13 @@
         <v>18</v>
       </c>
       <c r="D19">
-        <v>218.74685539699999</v>
+        <v>126.740249361</v>
       </c>
       <c r="E19">
         <v>220</v>
       </c>
       <c r="F19">
-        <v>0.48853167543499998</v>
+        <v>0.54859258023500002</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1437,7 +1437,7 @@
         <v>0.2</v>
       </c>
       <c r="J19" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1451,13 +1451,13 @@
         <v>18</v>
       </c>
       <c r="D20">
-        <v>259.63641981799998</v>
+        <v>129.28163286</v>
       </c>
       <c r="E20">
         <v>220</v>
       </c>
       <c r="F20">
-        <v>0.60917498607499998</v>
+        <v>0.62010159906700002</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1469,7 +1469,7 @@
         <v>0.109090909091</v>
       </c>
       <c r="J20" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1483,13 +1483,13 @@
         <v>18</v>
       </c>
       <c r="D21">
-        <v>128.12177284800001</v>
+        <v>57.169596288100003</v>
       </c>
       <c r="E21">
         <v>220</v>
       </c>
       <c r="F21">
-        <v>0.45783749396399998</v>
+        <v>0.50335334674599996</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1501,7 +1501,7 @@
         <v>0.109090909091</v>
       </c>
       <c r="J21" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1533,7 +1533,7 @@
         <v>0.29139072847699998</v>
       </c>
       <c r="J22" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1565,7 +1565,7 @@
         <v>0.37623762376199998</v>
       </c>
       <c r="J23" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1597,7 +1597,7 @@
         <v>0.28846153846200001</v>
       </c>
       <c r="J24" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1629,7 +1629,7 @@
         <v>0.26760563380300001</v>
       </c>
       <c r="J25" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1661,7 +1661,7 @@
         <v>0.619718309859</v>
       </c>
       <c r="J26" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1693,7 +1693,7 @@
         <v>0.40625</v>
       </c>
       <c r="J27" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1725,7 +1725,7 @@
         <v>0.25423728813599999</v>
       </c>
       <c r="J28" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1757,7 +1757,7 @@
         <v>0.218390804598</v>
       </c>
       <c r="J29" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1853,7 +1853,7 @@
         <v>0.109090909091</v>
       </c>
       <c r="J32" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1885,7 +1885,7 @@
         <v>0.109090909091</v>
       </c>
       <c r="J33" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1917,7 +1917,7 @@
         <v>0.2</v>
       </c>
       <c r="J34" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1949,7 +1949,7 @@
         <v>0.2</v>
       </c>
       <c r="J35" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1981,7 +1981,7 @@
         <v>0.109090909091</v>
       </c>
       <c r="J36" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2013,7 +2013,7 @@
         <v>0.109090909091</v>
       </c>
       <c r="J37" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2045,7 +2045,7 @@
         <v>0.2</v>
       </c>
       <c r="J38" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2077,7 +2077,7 @@
         <v>0.2</v>
       </c>
       <c r="J39" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2109,7 +2109,7 @@
         <v>0.109090909091</v>
       </c>
       <c r="J40" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2141,7 +2141,7 @@
         <v>0.109090909091</v>
       </c>
       <c r="J41" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2205,25 +2205,25 @@
         <v>15</v>
       </c>
       <c r="D2">
-        <v>2.8078610745999999</v>
+        <v>3.4423618621699998</v>
       </c>
       <c r="E2">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="F2">
-        <v>0.98467214998899999</v>
+        <v>0.97515105106699995</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0.77840909090900001</v>
+        <v>0.6875</v>
       </c>
       <c r="I2">
-        <v>0.53012048192799999</v>
+        <v>0.444444444444</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2237,25 +2237,25 @@
         <v>15</v>
       </c>
       <c r="D3">
-        <v>23.607529756600002</v>
+        <v>18.444014057</v>
       </c>
       <c r="E3">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="F3">
-        <v>0.79776360147699998</v>
+        <v>0.77381993047499997</v>
       </c>
       <c r="G3">
-        <v>0.68181818181800002</v>
+        <v>0.84090909090900001</v>
       </c>
       <c r="H3">
-        <v>0.94318181818199998</v>
+        <v>0.55681818181800002</v>
       </c>
       <c r="I3">
-        <v>0.75</v>
+        <v>0.32173913043500002</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2269,25 +2269,25 @@
         <v>15</v>
       </c>
       <c r="D4">
-        <v>3.52989199754</v>
+        <v>1.9675326366799999</v>
       </c>
       <c r="E4">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F4">
-        <v>0.97621442782500001</v>
+        <v>0.98656096061200005</v>
       </c>
       <c r="G4">
-        <v>0.75</v>
+        <v>0.70833333333299997</v>
       </c>
       <c r="H4">
-        <v>0.92346938775499998</v>
+        <v>0.90306122449000004</v>
       </c>
       <c r="I4">
-        <v>0.54545454545500005</v>
+        <v>0.472222222222</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2301,25 +2301,25 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>5.1694122649500001</v>
+        <v>9.1227559600700001</v>
       </c>
       <c r="E5">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="F5">
-        <v>0.81274229821999999</v>
+        <v>0.717897624904</v>
       </c>
       <c r="G5">
-        <v>0.75</v>
+        <v>0.91666666666700003</v>
       </c>
       <c r="H5">
-        <v>0.80612244897999996</v>
+        <v>0.40306122448999998</v>
       </c>
       <c r="I5">
-        <v>0.321428571429</v>
+        <v>0.15827338129499999</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2333,13 +2333,13 @@
         <v>18</v>
       </c>
       <c r="D6">
-        <v>735.70031429200003</v>
+        <v>291.062271963</v>
       </c>
       <c r="E6">
         <v>220</v>
       </c>
       <c r="F6">
-        <v>0.79888431673600002</v>
+        <v>0.58258507012600003</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -2351,7 +2351,7 @@
         <v>0.2</v>
       </c>
       <c r="J6" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2365,13 +2365,13 @@
         <v>18</v>
       </c>
       <c r="D7">
-        <v>218.74685539699999</v>
+        <v>127.63119459399999</v>
       </c>
       <c r="E7">
         <v>220</v>
       </c>
       <c r="F7">
-        <v>0.48853167543499998</v>
+        <v>0.54776609538400001</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -2383,7 +2383,7 @@
         <v>0.2</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2397,13 +2397,13 @@
         <v>18</v>
       </c>
       <c r="D8">
-        <v>259.93396609799998</v>
+        <v>126.528047704</v>
       </c>
       <c r="E8">
         <v>220</v>
       </c>
       <c r="F8">
-        <v>0.60917498607499998</v>
+        <v>0.468312914011</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -2415,7 +2415,7 @@
         <v>0.109090909091</v>
       </c>
       <c r="J8" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2429,13 +2429,13 @@
         <v>18</v>
       </c>
       <c r="D9">
-        <v>127.707023091</v>
+        <v>53.916244665199997</v>
       </c>
       <c r="E9">
         <v>220</v>
       </c>
       <c r="F9">
-        <v>0.45783749396399998</v>
+        <v>0.49725969477300003</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -2447,7 +2447,7 @@
         <v>0.109090909091</v>
       </c>
       <c r="J9" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2461,25 +2461,25 @@
         <v>19</v>
       </c>
       <c r="D10">
-        <v>1.0411899150499999</v>
+        <v>0.99640395367699996</v>
       </c>
       <c r="E10">
+        <v>165</v>
+      </c>
+      <c r="F10">
+        <v>0.99775422064599995</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0.3125</v>
+      </c>
+      <c r="I10">
+        <v>0.26666666666700001</v>
+      </c>
+      <c r="J10" t="s">
         <v>73</v>
-      </c>
-      <c r="F10">
-        <v>0.99783430678499996</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>0.83522727272700004</v>
-      </c>
-      <c r="I10">
-        <v>0.60273972602699999</v>
-      </c>
-      <c r="J10" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2493,25 +2493,25 @@
         <v>19</v>
       </c>
       <c r="D11">
-        <v>20.883530251700002</v>
+        <v>13.824991992199999</v>
       </c>
       <c r="E11">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="F11">
-        <v>0.85788632559099998</v>
+        <v>0.87048882788000004</v>
       </c>
       <c r="G11">
-        <v>0.68181818181800002</v>
+        <v>0.86363636363600005</v>
       </c>
       <c r="H11">
-        <v>0.94886363636399995</v>
+        <v>0.65909090909099999</v>
       </c>
       <c r="I11">
-        <v>0.76923076923099998</v>
+        <v>0.387755102041</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2525,25 +2525,25 @@
         <v>19</v>
       </c>
       <c r="D12">
-        <v>5.6610269002600004</v>
+        <v>3.5570468120699998</v>
       </c>
       <c r="E12">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="F12">
-        <v>0.932509941826</v>
+        <v>0.89899513665300002</v>
       </c>
       <c r="G12">
-        <v>0.91666666666700003</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0.92346938775499998</v>
+        <v>0.46938775510199998</v>
       </c>
       <c r="I12">
-        <v>0.59459459459499997</v>
+        <v>0.1875</v>
       </c>
       <c r="J12" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2557,25 +2557,25 @@
         <v>19</v>
       </c>
       <c r="D13">
-        <v>6.4996438538600003</v>
+        <v>6.8742040207199997</v>
       </c>
       <c r="E13">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="F13">
-        <v>0.79555144054600002</v>
+        <v>0.76542797706700005</v>
       </c>
       <c r="G13">
-        <v>0.70833333333299997</v>
+        <v>0.91666666666700003</v>
       </c>
       <c r="H13">
-        <v>0.92857142857099995</v>
+        <v>0.41326530612200002</v>
       </c>
       <c r="I13">
-        <v>0.54838709677399999</v>
+        <v>0.16058394160600001</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2589,25 +2589,25 @@
         <v>20</v>
       </c>
       <c r="D14">
-        <v>2.4226923936000002</v>
+        <v>3.14108498528</v>
       </c>
       <c r="E14">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F14">
-        <v>0.98876556649900005</v>
+        <v>0.98419767352400001</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>0.79545454545500005</v>
+        <v>0.73863636363600005</v>
       </c>
       <c r="I14">
-        <v>0.55000000000000004</v>
+        <v>0.48888888888900001</v>
       </c>
       <c r="J14" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2621,25 +2621,25 @@
         <v>20</v>
       </c>
       <c r="D15">
-        <v>23.848641473099999</v>
+        <v>15.2047464685</v>
       </c>
       <c r="E15">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="F15">
-        <v>0.76681852188800004</v>
+        <v>0.846159682503</v>
       </c>
       <c r="G15">
-        <v>0.65909090909099999</v>
+        <v>0.88636363636399995</v>
       </c>
       <c r="H15">
-        <v>0.89204545454499995</v>
+        <v>0.67045454545500005</v>
       </c>
       <c r="I15">
-        <v>0.60416666666700003</v>
+        <v>0.40206185567000002</v>
       </c>
       <c r="J15" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2653,25 +2653,25 @@
         <v>20</v>
       </c>
       <c r="D16">
-        <v>1.01686023535</v>
+        <v>1.0401728343000001</v>
       </c>
       <c r="E16">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F16">
-        <v>0.99611942424800004</v>
+        <v>0.995908775084</v>
       </c>
       <c r="G16">
         <v>0.70833333333299997</v>
       </c>
       <c r="H16">
-        <v>0.63775510204100005</v>
+        <v>0.617346938776</v>
       </c>
       <c r="I16">
-        <v>0.193181818182</v>
+        <v>0.18478260869599999</v>
       </c>
       <c r="J16" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2685,25 +2685,25 @@
         <v>20</v>
       </c>
       <c r="D17">
-        <v>5.8846780675700003</v>
+        <v>4.6328581183699997</v>
       </c>
       <c r="E17">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="F17">
-        <v>0.80662708194199995</v>
+        <v>0.87306609334200003</v>
       </c>
       <c r="G17">
-        <v>0.58333333333299997</v>
+        <v>0.79166666666700003</v>
       </c>
       <c r="H17">
-        <v>0.87244897959199996</v>
+        <v>0.76020408163300002</v>
       </c>
       <c r="I17">
-        <v>0.35897435897399999</v>
+        <v>0.28787878787900001</v>
       </c>
       <c r="J17" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2717,13 +2717,13 @@
         <v>21</v>
       </c>
       <c r="D18">
-        <v>1.6491242512299999</v>
+        <v>1.5740420695799999</v>
       </c>
       <c r="E18">
         <v>220</v>
       </c>
       <c r="F18">
-        <v>0.99212458743700005</v>
+        <v>0.99294789023100005</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2735,7 +2735,7 @@
         <v>0.2</v>
       </c>
       <c r="J18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2749,13 +2749,13 @@
         <v>21</v>
       </c>
       <c r="D19">
-        <v>21.281859357399998</v>
+        <v>5.6666493811900001</v>
       </c>
       <c r="E19">
         <v>220</v>
       </c>
       <c r="F19">
-        <v>0.80239214160899996</v>
+        <v>0.95797877475500004</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2767,7 +2767,7 @@
         <v>0.2</v>
       </c>
       <c r="J19" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2813,13 +2813,13 @@
         <v>21</v>
       </c>
       <c r="D21">
-        <v>7.0504797826000001</v>
+        <v>7.6474174601299998</v>
       </c>
       <c r="E21">
         <v>220</v>
       </c>
       <c r="F21">
-        <v>0.74547686476399999</v>
+        <v>0.74835916254199997</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2831,7 +2831,7 @@
         <v>0.109090909091</v>
       </c>
       <c r="J21" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2913,7 +2913,7 @@
         <v>0.25730994151999997</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2927,25 +2927,25 @@
         <v>15</v>
       </c>
       <c r="D3">
-        <v>39.496961729399999</v>
+        <v>38.0288181998</v>
       </c>
       <c r="E3">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F3">
-        <v>0.67368349458800003</v>
+        <v>0.675958504367</v>
       </c>
       <c r="G3">
-        <v>0.90909090909099999</v>
+        <v>0.93181818181800002</v>
       </c>
       <c r="H3">
-        <v>0.26704545454500001</v>
+        <v>0.26136363636400001</v>
       </c>
       <c r="I3">
-        <v>0.236686390533</v>
+        <v>0.23976608187099999</v>
       </c>
       <c r="J3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2977,7 +2977,7 @@
         <v>0.15894039735099999</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3009,7 +3009,7 @@
         <v>0.14012738853500001</v>
       </c>
       <c r="J5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3023,13 +3023,13 @@
         <v>18</v>
       </c>
       <c r="D6">
-        <v>735.70076644599999</v>
+        <v>291.062271963</v>
       </c>
       <c r="E6">
         <v>220</v>
       </c>
       <c r="F6">
-        <v>0.79888431673600002</v>
+        <v>0.58258507012600003</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -3041,7 +3041,7 @@
         <v>0.2</v>
       </c>
       <c r="J6" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3055,13 +3055,13 @@
         <v>18</v>
       </c>
       <c r="D7">
-        <v>218.74685539699999</v>
+        <v>127.63119459399999</v>
       </c>
       <c r="E7">
         <v>220</v>
       </c>
       <c r="F7">
-        <v>0.48853167543499998</v>
+        <v>0.54776609538400001</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -3073,7 +3073,7 @@
         <v>0.2</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3087,13 +3087,13 @@
         <v>18</v>
       </c>
       <c r="D8">
-        <v>259.93431759200001</v>
+        <v>126.528047704</v>
       </c>
       <c r="E8">
         <v>220</v>
       </c>
       <c r="F8">
-        <v>0.60917498607499998</v>
+        <v>0.468312914011</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -3105,7 +3105,7 @@
         <v>0.109090909091</v>
       </c>
       <c r="J8" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3119,13 +3119,13 @@
         <v>18</v>
       </c>
       <c r="D9">
-        <v>127.707023091</v>
+        <v>53.916244665199997</v>
       </c>
       <c r="E9">
         <v>220</v>
       </c>
       <c r="F9">
-        <v>0.45783749396399998</v>
+        <v>0.49725969477300003</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -3137,7 +3137,7 @@
         <v>0.109090909091</v>
       </c>
       <c r="J9" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3169,7 +3169,7 @@
         <v>0.44</v>
       </c>
       <c r="J10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3183,25 +3183,25 @@
         <v>19</v>
       </c>
       <c r="D11">
-        <v>17.869583560300001</v>
+        <v>13.5056305839</v>
       </c>
       <c r="E11">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="F11">
-        <v>0.85773751188900005</v>
+        <v>0.86125926927100005</v>
       </c>
       <c r="G11">
-        <v>0.86363636363600005</v>
+        <v>0.88636363636399995</v>
       </c>
       <c r="H11">
-        <v>0.48863636363599999</v>
+        <v>0.61363636363600005</v>
       </c>
       <c r="I11">
-        <v>0.296875</v>
+        <v>0.36448598130799997</v>
       </c>
       <c r="J11" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3233,7 +3233,7 @@
         <v>0.19672131147499999</v>
       </c>
       <c r="J12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3265,7 +3265,7 @@
         <v>0.14285714285699999</v>
       </c>
       <c r="J13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3279,25 +3279,25 @@
         <v>20</v>
       </c>
       <c r="D14">
-        <v>2.4226923936000002</v>
+        <v>3.14108498528</v>
       </c>
       <c r="E14">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F14">
-        <v>0.98876556649900005</v>
+        <v>0.98419767352400001</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>0.79545454545500005</v>
+        <v>0.73863636363600005</v>
       </c>
       <c r="I14">
-        <v>0.55000000000000004</v>
+        <v>0.48888888888900001</v>
       </c>
       <c r="J14" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3311,25 +3311,25 @@
         <v>20</v>
       </c>
       <c r="D15">
-        <v>22.8064829602</v>
+        <v>14.883793239399999</v>
       </c>
       <c r="E15">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="F15">
-        <v>0.77357433533700004</v>
+        <v>0.83932749020599995</v>
       </c>
       <c r="G15">
-        <v>0.70454545454499995</v>
+        <v>0.88636363636399995</v>
       </c>
       <c r="H15">
-        <v>0.85227272727299996</v>
+        <v>0.71590909090900001</v>
       </c>
       <c r="I15">
-        <v>0.543859649123</v>
+        <v>0.43820224719099998</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3361,7 +3361,7 @@
         <v>0.53846153846199996</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3393,7 +3393,7 @@
         <v>0.34042553191500002</v>
       </c>
       <c r="J17" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3406,8 +3406,26 @@
       <c r="C18" t="s">
         <v>21</v>
       </c>
+      <c r="D18">
+        <v>1.6491242512299999</v>
+      </c>
+      <c r="E18">
+        <v>220</v>
+      </c>
+      <c r="F18">
+        <v>0.99212458743700005</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0.2</v>
+      </c>
       <c r="J18" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3421,13 +3439,13 @@
         <v>21</v>
       </c>
       <c r="D19">
-        <v>21.281859357399998</v>
+        <v>8.5503789009800002</v>
       </c>
       <c r="E19">
         <v>220</v>
       </c>
       <c r="F19">
-        <v>0.80239214160899996</v>
+        <v>0.92766278073800001</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -3439,7 +3457,7 @@
         <v>0.2</v>
       </c>
       <c r="J19" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3453,13 +3471,13 @@
         <v>21</v>
       </c>
       <c r="D20">
-        <v>4.76501979861</v>
+        <v>4.7854142521399998</v>
       </c>
       <c r="E20">
         <v>220</v>
       </c>
       <c r="F20">
-        <v>0.83706254160899995</v>
+        <v>0.83563938396199999</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -3471,7 +3489,7 @@
         <v>0.109090909091</v>
       </c>
       <c r="J20" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3485,13 +3503,13 @@
         <v>21</v>
       </c>
       <c r="D21">
-        <v>6.0136016397200001</v>
+        <v>7.0504797826000001</v>
       </c>
       <c r="E21">
         <v>220</v>
       </c>
       <c r="F21">
-        <v>0.72165248646199998</v>
+        <v>0.74547686476399999</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -3503,7 +3521,7 @@
         <v>0.109090909091</v>
       </c>
       <c r="J21" t="s">
-        <v>117</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3515,7 +3533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
@@ -3589,7 +3607,7 @@
         <v>0.56410256410299997</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3621,7 +3639,7 @@
         <v>0.31868131868100003</v>
       </c>
       <c r="J3" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3653,7 +3671,7 @@
         <v>0.3</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3685,7 +3703,7 @@
         <v>0.156626506024</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3717,7 +3735,7 @@
         <v>0.08</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3749,7 +3767,7 @@
         <v>0.08</v>
       </c>
       <c r="J7" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3781,7 +3799,7 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J8" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3813,7 +3831,7 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J9" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3824,7 +3842,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D10">
         <v>0.86377309511599998</v>
@@ -3845,7 +3863,7 @@
         <v>0.69841269841300002</v>
       </c>
       <c r="J10" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3856,7 +3874,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D11">
         <v>18.189474905000001</v>
@@ -3877,7 +3895,7 @@
         <v>0.32954545454500001</v>
       </c>
       <c r="J11" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3888,7 +3906,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D12">
         <v>0.28926720307100001</v>
@@ -3909,7 +3927,7 @@
         <v>0.3</v>
       </c>
       <c r="J12" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3920,7 +3938,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D13">
         <v>6.2246364431299996</v>
@@ -3941,7 +3959,7 @@
         <v>0.139784946237</v>
       </c>
       <c r="J13" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3973,7 +3991,7 @@
         <v>0.58666666666699996</v>
       </c>
       <c r="J14" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4005,7 +4023,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="J15" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4037,7 +4055,7 @@
         <v>0.245901639344</v>
       </c>
       <c r="J16" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4069,7 +4087,7 @@
         <v>0.13402061855700001</v>
       </c>
       <c r="J17" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4083,13 +4101,13 @@
         <v>18</v>
       </c>
       <c r="D18">
-        <v>628.473183027</v>
+        <v>341.85845749399999</v>
       </c>
       <c r="E18">
         <v>550</v>
       </c>
       <c r="F18">
-        <v>0.66857624268500004</v>
+        <v>0.58803433362500002</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -4101,7 +4119,7 @@
         <v>0.08</v>
       </c>
       <c r="J18" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4115,13 +4133,13 @@
         <v>18</v>
       </c>
       <c r="D19">
-        <v>224.88971647400001</v>
+        <v>102.903923116</v>
       </c>
       <c r="E19">
         <v>550</v>
       </c>
       <c r="F19">
-        <v>0.45698462269599999</v>
+        <v>0.401475686635</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -4133,7 +4151,7 @@
         <v>0.08</v>
       </c>
       <c r="J19" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -4147,13 +4165,13 @@
         <v>18</v>
       </c>
       <c r="D20">
-        <v>247.62656841399999</v>
+        <v>139.59971904400001</v>
       </c>
       <c r="E20">
         <v>550</v>
       </c>
       <c r="F20">
-        <v>0.53759075755700003</v>
+        <v>0.48500251585600002</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -4165,7 +4183,7 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J20" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -4179,13 +4197,13 @@
         <v>18</v>
       </c>
       <c r="D21">
-        <v>144.73425902</v>
+        <v>95.458197283499999</v>
       </c>
       <c r="E21">
         <v>550</v>
       </c>
       <c r="F21">
-        <v>0.43070704542400001</v>
+        <v>0.40716759877300002</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -4197,7 +4215,7 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J21" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -4229,7 +4247,7 @@
         <v>0.196428571429</v>
       </c>
       <c r="J22" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -4261,7 +4279,7 @@
         <v>0.31868131868100003</v>
       </c>
       <c r="J23" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -4293,7 +4311,7 @@
         <v>0.26415094339599998</v>
       </c>
       <c r="J24" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -4325,7 +4343,7 @@
         <v>0.14141414141399999</v>
       </c>
       <c r="J25" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -4357,7 +4375,7 @@
         <v>0.51764705882399997</v>
       </c>
       <c r="J26" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -4389,7 +4407,7 @@
         <v>0.292929292929</v>
       </c>
       <c r="J27" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -4421,7 +4439,7 @@
         <v>0.25423728813599999</v>
       </c>
       <c r="J28" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -4453,7 +4471,7 @@
         <v>0.135416666667</v>
       </c>
       <c r="J29" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -4549,7 +4567,7 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J32" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -4581,7 +4599,7 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J33" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -4613,7 +4631,7 @@
         <v>0.08</v>
       </c>
       <c r="J34" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -4645,7 +4663,7 @@
         <v>0.08</v>
       </c>
       <c r="J35" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -4677,7 +4695,7 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J36" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -4709,7 +4727,7 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J37" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -4741,7 +4759,7 @@
         <v>0.08</v>
       </c>
       <c r="J38" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -4773,7 +4791,7 @@
         <v>0.08</v>
       </c>
       <c r="J39" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -4805,7 +4823,7 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J40" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -4837,7 +4855,7 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J41" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -4903,25 +4921,25 @@
         <v>15</v>
       </c>
       <c r="D2">
-        <v>1.09543119051</v>
+        <v>1.4219133989299999</v>
       </c>
       <c r="E2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F2">
-        <v>0.99360905096399998</v>
+        <v>0.990287828303</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0.91699604743100005</v>
+        <v>0.92094861660100003</v>
       </c>
       <c r="I2">
-        <v>0.511627906977</v>
+        <v>0.52380952381000001</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4935,25 +4953,25 @@
         <v>15</v>
       </c>
       <c r="D3">
-        <v>14.0188023991</v>
+        <v>15.7943687469</v>
       </c>
       <c r="E3">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="F3">
-        <v>0.82241121535499995</v>
+        <v>0.77417539301500005</v>
       </c>
       <c r="G3">
         <v>0.65909090909099999</v>
       </c>
       <c r="H3">
-        <v>0.94664031620599998</v>
+        <v>0.871541501976</v>
       </c>
       <c r="I3">
-        <v>0.51785714285700002</v>
+        <v>0.30851063829800002</v>
       </c>
       <c r="J3" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4967,25 +4985,25 @@
         <v>15</v>
       </c>
       <c r="D4">
-        <v>5.3399083446900004</v>
+        <v>2.8377520608000002</v>
       </c>
       <c r="E4">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F4">
-        <v>0.97024120869800001</v>
+        <v>0.95119039878099998</v>
       </c>
       <c r="G4">
-        <v>0.70833333333299997</v>
+        <v>0.95833333333299997</v>
       </c>
       <c r="H4">
-        <v>0.97528517110299995</v>
+        <v>0.95247148289000005</v>
       </c>
       <c r="I4">
-        <v>0.56666666666700005</v>
+        <v>0.47916666666699997</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4999,25 +5017,25 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>4.1737677492499996</v>
+        <v>9.3995017672400003</v>
       </c>
       <c r="E5">
-        <v>48</v>
+        <v>137</v>
       </c>
       <c r="F5">
-        <v>0.86932222829000005</v>
+        <v>0.71554028327200003</v>
       </c>
       <c r="G5">
-        <v>0.5</v>
+        <v>0.70833333333299997</v>
       </c>
       <c r="H5">
-        <v>0.93155893536099998</v>
+        <v>0.77186311787100004</v>
       </c>
       <c r="I5">
-        <v>0.25</v>
+        <v>0.12408759124099999</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5031,13 +5049,13 @@
         <v>18</v>
       </c>
       <c r="D6">
-        <v>628.67378185699999</v>
+        <v>343.82449292199999</v>
       </c>
       <c r="E6">
         <v>550</v>
       </c>
       <c r="F6">
-        <v>0.66857624268500004</v>
+        <v>0.58823110544500001</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -5049,7 +5067,7 @@
         <v>0.08</v>
       </c>
       <c r="J6" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5063,13 +5081,13 @@
         <v>18</v>
       </c>
       <c r="D7">
-        <v>267.87201670799999</v>
+        <v>132.271365008</v>
       </c>
       <c r="E7">
         <v>550</v>
       </c>
       <c r="F7">
-        <v>0.45698462269599999</v>
+        <v>0.46056804825199998</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -5081,7 +5099,7 @@
         <v>0.08</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5095,13 +5113,13 @@
         <v>18</v>
       </c>
       <c r="D8">
-        <v>247.695633141</v>
+        <v>139.59971904400001</v>
       </c>
       <c r="E8">
         <v>550</v>
       </c>
       <c r="F8">
-        <v>0.53759075755700003</v>
+        <v>0.48500251585600002</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -5113,7 +5131,7 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J8" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5127,13 +5145,13 @@
         <v>18</v>
       </c>
       <c r="D9">
-        <v>144.97965451300001</v>
+        <v>95.458197283499999</v>
       </c>
       <c r="E9">
         <v>550</v>
       </c>
       <c r="F9">
-        <v>0.43070704542400001</v>
+        <v>0.40716759877300002</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -5145,7 +5163,7 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5159,25 +5177,25 @@
         <v>19</v>
       </c>
       <c r="D10">
-        <v>0.40173143925799998</v>
+        <v>0.331404494499</v>
       </c>
       <c r="E10">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="F10">
-        <v>0.99923057909799995</v>
+        <v>0.99988324791100003</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>0.93280632411099995</v>
+        <v>0.86363636363600005</v>
       </c>
       <c r="I10">
-        <v>0.56410256410299997</v>
+        <v>0.38938053097300002</v>
       </c>
       <c r="J10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5191,25 +5209,25 @@
         <v>19</v>
       </c>
       <c r="D11">
-        <v>12.6638172155</v>
+        <v>13.9135547624</v>
       </c>
       <c r="E11">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="F11">
-        <v>0.87002683465099995</v>
+        <v>0.82236670105599996</v>
       </c>
       <c r="G11">
-        <v>0.68181818181800002</v>
+        <v>0.70454545454499995</v>
       </c>
       <c r="H11">
-        <v>0.95652173913000005</v>
+        <v>0.85968379446599996</v>
       </c>
       <c r="I11">
-        <v>0.57692307692300004</v>
+        <v>0.30392156862699998</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5223,25 +5241,25 @@
         <v>19</v>
       </c>
       <c r="D12">
-        <v>3.9858850802300001</v>
+        <v>2.2362303237900001</v>
       </c>
       <c r="E12">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="F12">
-        <v>0.94668429935099996</v>
+        <v>0.89629574742600004</v>
       </c>
       <c r="G12">
-        <v>0.95833333333299997</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0.96577946768099998</v>
+        <v>0.75665399239499997</v>
       </c>
       <c r="I12">
-        <v>0.56097560975600003</v>
+        <v>0.15789473684200001</v>
       </c>
       <c r="J12" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5255,25 +5273,25 @@
         <v>19</v>
       </c>
       <c r="D13">
-        <v>4.6063342244100003</v>
+        <v>7.2083433832599999</v>
       </c>
       <c r="E13">
-        <v>30</v>
+        <v>161</v>
       </c>
       <c r="F13">
-        <v>0.85500071247200005</v>
+        <v>0.76443512238199995</v>
       </c>
       <c r="G13">
-        <v>0.54166666666700003</v>
+        <v>0.83333333333299997</v>
       </c>
       <c r="H13">
-        <v>0.96768060836500003</v>
+        <v>0.73193916349800003</v>
       </c>
       <c r="I13">
-        <v>0.433333333333</v>
+        <v>0.124223602484</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5287,25 +5305,25 @@
         <v>20</v>
       </c>
       <c r="D14">
-        <v>4.6532745401</v>
+        <v>4.5772820532600003</v>
       </c>
       <c r="E14">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F14">
-        <v>0.94449381349100003</v>
+        <v>0.94484409285100002</v>
       </c>
       <c r="G14">
         <v>0.97727272727299996</v>
       </c>
       <c r="H14">
-        <v>0.90118577075100004</v>
+        <v>0.90909090909099999</v>
       </c>
       <c r="I14">
-        <v>0.46236559139799999</v>
+        <v>0.48314606741600002</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5319,25 +5337,25 @@
         <v>20</v>
       </c>
       <c r="D15">
-        <v>15.6383667983</v>
+        <v>15.9619817951</v>
       </c>
       <c r="E15">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="F15">
-        <v>0.793522177228</v>
+        <v>0.78022953131299999</v>
       </c>
       <c r="G15">
         <v>0.63636363636399995</v>
       </c>
       <c r="H15">
-        <v>0.93675889328100004</v>
+        <v>0.889328063241</v>
       </c>
       <c r="I15">
-        <v>0.46666666666700002</v>
+        <v>0.33333333333300003</v>
       </c>
       <c r="J15" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5351,25 +5369,25 @@
         <v>20</v>
       </c>
       <c r="D16">
-        <v>0.30217889282400001</v>
+        <v>0.25390495012100001</v>
       </c>
       <c r="E16">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="F16">
-        <v>0.99704048822699998</v>
+        <v>0.99867041197700002</v>
       </c>
       <c r="G16">
-        <v>0.54166666666700003</v>
+        <v>0.625</v>
       </c>
       <c r="H16">
-        <v>0.96768060836500003</v>
+        <v>0.85551330798500003</v>
       </c>
       <c r="I16">
-        <v>0.433333333333</v>
+        <v>0.16483516483499999</v>
       </c>
       <c r="J16" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5383,25 +5401,25 @@
         <v>20</v>
       </c>
       <c r="D17">
-        <v>3.72726504736</v>
+        <v>4.0546967159999996</v>
       </c>
       <c r="E17">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F17">
-        <v>0.85064292984000001</v>
+        <v>0.84242043688099999</v>
       </c>
       <c r="G17">
-        <v>0.5</v>
+        <v>0.54166666666700003</v>
       </c>
       <c r="H17">
-        <v>0.91444866920199996</v>
+        <v>0.89923954372600001</v>
       </c>
       <c r="I17">
-        <v>0.210526315789</v>
+        <v>0.19696969697</v>
       </c>
       <c r="J17" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5415,13 +5433,13 @@
         <v>21</v>
       </c>
       <c r="D18">
-        <v>0.93329221339400004</v>
+        <v>2.00141657064</v>
       </c>
       <c r="E18">
         <v>550</v>
       </c>
       <c r="F18">
-        <v>0.99876079285599995</v>
+        <v>0.99721507880799998</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -5433,7 +5451,7 @@
         <v>0.08</v>
       </c>
       <c r="J18" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5447,13 +5465,13 @@
         <v>21</v>
       </c>
       <c r="D19">
-        <v>20.146456748599999</v>
+        <v>13.2865290005</v>
       </c>
       <c r="E19">
         <v>550</v>
       </c>
       <c r="F19">
-        <v>0.74971456451100005</v>
+        <v>0.85926904874800003</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -5465,7 +5483,7 @@
         <v>0.08</v>
       </c>
       <c r="J19" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -5479,13 +5497,13 @@
         <v>21</v>
       </c>
       <c r="D20">
-        <v>2.6519397060399998</v>
+        <v>2.70607684856</v>
       </c>
       <c r="E20">
         <v>550</v>
       </c>
       <c r="F20">
-        <v>0.86366972175199996</v>
+        <v>0.86276800140300003</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -5497,7 +5515,7 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J20" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -5511,13 +5529,13 @@
         <v>21</v>
       </c>
       <c r="D21">
-        <v>8.1861917765999994</v>
+        <v>8.0425591602799997</v>
       </c>
       <c r="E21">
         <v>550</v>
       </c>
       <c r="F21">
-        <v>0.68608206003899996</v>
+        <v>0.68123775520700003</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -5529,7 +5547,7 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J21" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -5613,7 +5631,7 @@
         <v>0.109181141439</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5645,7 +5663,7 @@
         <v>0.12359550561800001</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5677,7 +5695,7 @@
         <v>7.5709779179799999E-2</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -5709,7 +5727,7 @@
         <v>6.70926517572E-2</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5723,13 +5741,13 @@
         <v>18</v>
       </c>
       <c r="D6">
-        <v>628.06545560500001</v>
+        <v>344.430984244</v>
       </c>
       <c r="E6">
         <v>550</v>
       </c>
       <c r="F6">
-        <v>0.66857624268500004</v>
+        <v>0.58760368463799995</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -5755,13 +5773,13 @@
         <v>18</v>
       </c>
       <c r="D7">
-        <v>224.68711120200001</v>
+        <v>132.271365008</v>
       </c>
       <c r="E7">
         <v>550</v>
       </c>
       <c r="F7">
-        <v>0.45698462269599999</v>
+        <v>0.46056804825199998</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -5773,7 +5791,7 @@
         <v>0.08</v>
       </c>
       <c r="J7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5787,13 +5805,13 @@
         <v>18</v>
       </c>
       <c r="D8">
-        <v>247.695633141</v>
+        <v>139.59971904400001</v>
       </c>
       <c r="E8">
         <v>550</v>
       </c>
       <c r="F8">
-        <v>0.53759075755700003</v>
+        <v>0.48500251585600002</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -5805,7 +5823,7 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J8" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5819,13 +5837,13 @@
         <v>18</v>
       </c>
       <c r="D9">
-        <v>180.698173021</v>
+        <v>95.458197283499999</v>
       </c>
       <c r="E9">
         <v>550</v>
       </c>
       <c r="F9">
-        <v>0.43070704542400001</v>
+        <v>0.40716759877300002</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -5837,7 +5855,7 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J9" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5869,7 +5887,7 @@
         <v>0.19213973799100001</v>
       </c>
       <c r="J10" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5901,7 +5919,7 @@
         <v>0.1</v>
       </c>
       <c r="J11" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5933,7 +5951,7 @@
         <v>0.112676056338</v>
       </c>
       <c r="J12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5965,7 +5983,7 @@
         <v>6.1662198391399997E-2</v>
       </c>
       <c r="J13" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5997,7 +6015,7 @@
         <v>0.46236559139799999</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6029,7 +6047,7 @@
         <v>0.33750000000000002</v>
       </c>
       <c r="J15" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -6061,7 +6079,7 @@
         <v>0.16483516483499999</v>
       </c>
       <c r="J16" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6093,7 +6111,7 @@
         <v>0.19402985074599999</v>
       </c>
       <c r="J17" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6157,7 +6175,7 @@
         <v>0.08</v>
       </c>
       <c r="J19" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -6171,13 +6189,13 @@
         <v>21</v>
       </c>
       <c r="D20">
-        <v>2.6519397060399998</v>
+        <v>3.3304666763099999</v>
       </c>
       <c r="E20">
         <v>550</v>
       </c>
       <c r="F20">
-        <v>0.86366972175199996</v>
+        <v>0.85513146749699998</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -6189,7 +6207,7 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J20" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -6203,13 +6221,13 @@
         <v>21</v>
       </c>
       <c r="D21">
-        <v>8.1469468881899996</v>
+        <v>8.2199576186099996</v>
       </c>
       <c r="E21">
         <v>550</v>
       </c>
       <c r="F21">
-        <v>0.67994035199799996</v>
+        <v>0.67922379697299995</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -6221,7 +6239,7 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J21" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/python/results/tuning_summary.xlsx
+++ b/python/results/tuning_summary.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="cv_mse_p220" sheetId="1" r:id="rId1"/>
-    <sheet name="coef_corr_p220" sheetId="2" r:id="rId2"/>
-    <sheet name="n_pred_p220" sheetId="3" r:id="rId3"/>
-    <sheet name="cv_mse_p550" sheetId="4" r:id="rId4"/>
-    <sheet name="coef_corr_p550" sheetId="5" r:id="rId5"/>
-    <sheet name="n_pred_p550" sheetId="6" r:id="rId6"/>
+    <sheet name="summary" sheetId="7" r:id="rId1"/>
+    <sheet name="cv_mse_p550" sheetId="4" r:id="rId2"/>
+    <sheet name="coef_corr_p550" sheetId="5" r:id="rId3"/>
+    <sheet name="n_pred_p550" sheetId="6" r:id="rId4"/>
+    <sheet name="cv_mse_p220" sheetId="1" r:id="rId5"/>
+    <sheet name="coef_corr_p220" sheetId="2" r:id="rId6"/>
+    <sheet name="n_pred_p220" sheetId="3" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="orctun_results_coef_correlation_p220" localSheetId="1">coef_corr_p220!$A$1:$J$21</definedName>
-    <definedName name="orctun_results_coef_correlation_p550" localSheetId="4">coef_corr_p550!$A$1:$J$21</definedName>
-    <definedName name="orctun_results_n_predictors_p220" localSheetId="2">n_pred_p220!$A$1:$J$21</definedName>
-    <definedName name="orctun_results_n_predictors_p550" localSheetId="5">n_pred_p550!$A$1:$J$21</definedName>
-    <definedName name="p220_" localSheetId="0">cv_mse_p220!$A$1:$J$41</definedName>
-    <definedName name="p550_" localSheetId="3">cv_mse_p550!$A$1:$J$41</definedName>
+    <definedName name="orctun_results_coef_correlation_p220" localSheetId="5">coef_corr_p220!$A$1:$J$21</definedName>
+    <definedName name="orctun_results_coef_correlation_p550" localSheetId="2">coef_corr_p550!$A$1:$J$21</definedName>
+    <definedName name="orctun_results_n_predictors_p220" localSheetId="6">n_pred_p220!$A$1:$J$21</definedName>
+    <definedName name="orctun_results_n_predictors_p550" localSheetId="3">n_pred_p550!$A$1:$J$21</definedName>
+    <definedName name="p220_" localSheetId="4">cv_mse_p220!$A$1:$J$41</definedName>
+    <definedName name="p550_" localSheetId="1">cv_mse_p550!$A$1:$J$41</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -529,27 +530,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="p550" refreshOnLoad="1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="orctun_results_coef_correlation_p550" refreshOnLoad="1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="orctun_results_n_predictors_p550" refreshOnLoad="1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="p220" refreshOnLoad="1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="orctun_results_coef_correlation_p220" refreshOnLoad="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="orctun_results_n_predictors_p220" refreshOnLoad="1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="p550" refreshOnLoad="1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="orctun_results_coef_correlation_p550" refreshOnLoad="1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="orctun_results_n_predictors_p550" refreshOnLoad="1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -837,2704 +838,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="62.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>1.92342303886</v>
-      </c>
-      <c r="E2">
-        <v>69</v>
-      </c>
-      <c r="F2">
-        <v>0.99149632383800002</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0.85795454545500005</v>
-      </c>
-      <c r="I2">
-        <v>0.63768115942000003</v>
-      </c>
-      <c r="J2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>14.612980673999999</v>
-      </c>
-      <c r="E3">
-        <v>87</v>
-      </c>
-      <c r="F3">
-        <v>0.84142813863099997</v>
-      </c>
-      <c r="G3">
-        <v>0.88636363636399995</v>
-      </c>
-      <c r="H3">
-        <v>0.72727272727299996</v>
-      </c>
-      <c r="I3">
-        <v>0.448275862069</v>
-      </c>
-      <c r="J3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>0.77870490857399999</v>
-      </c>
-      <c r="E4">
-        <v>53</v>
-      </c>
-      <c r="F4">
-        <v>0.99735850978700002</v>
-      </c>
-      <c r="G4">
-        <v>0.625</v>
-      </c>
-      <c r="H4">
-        <v>0.80612244897999996</v>
-      </c>
-      <c r="I4">
-        <v>0.28301886792499997</v>
-      </c>
-      <c r="J4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>4.3964644269199997</v>
-      </c>
-      <c r="E5">
-        <v>72</v>
-      </c>
-      <c r="F5">
-        <v>0.89544750953300001</v>
-      </c>
-      <c r="G5">
-        <v>0.79166666666700003</v>
-      </c>
-      <c r="H5">
-        <v>0.72959183673500005</v>
-      </c>
-      <c r="I5">
-        <v>0.26388888888899997</v>
-      </c>
-      <c r="J5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7">
-        <v>24.3726245573</v>
-      </c>
-      <c r="E7">
-        <v>220</v>
-      </c>
-      <c r="F7">
-        <v>0.49593143362300002</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0.2</v>
-      </c>
-      <c r="J7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>33.095036262400001</v>
-      </c>
-      <c r="E8">
-        <v>220</v>
-      </c>
-      <c r="F8">
-        <v>1.3307397368999999E-2</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0.109090909091</v>
-      </c>
-      <c r="J8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
-        <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>23.552268926499998</v>
-      </c>
-      <c r="E9">
-        <v>220</v>
-      </c>
-      <c r="F9">
-        <v>-5.4186258799599998E-2</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0.109090909091</v>
-      </c>
-      <c r="J9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10">
-        <v>2.8094266887199999</v>
-      </c>
-      <c r="E10">
-        <v>70</v>
-      </c>
-      <c r="F10">
-        <v>0.98643867279599995</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>0.85227272727299996</v>
-      </c>
-      <c r="I10">
-        <v>0.62857142857100001</v>
-      </c>
-      <c r="J10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11">
-        <v>20.879828996200001</v>
-      </c>
-      <c r="E11">
-        <v>112</v>
-      </c>
-      <c r="F11">
-        <v>0.76170764988200002</v>
-      </c>
-      <c r="G11">
-        <v>0.90909090909099999</v>
-      </c>
-      <c r="H11">
-        <v>0.59090909090900001</v>
-      </c>
-      <c r="I11">
-        <v>0.35714285714299998</v>
-      </c>
-      <c r="J11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12">
-        <v>0.96556700412499996</v>
-      </c>
-      <c r="E12">
-        <v>53</v>
-      </c>
-      <c r="F12">
-        <v>0.99654188227200002</v>
-      </c>
-      <c r="G12">
-        <v>0.625</v>
-      </c>
-      <c r="H12">
-        <v>0.80612244897999996</v>
-      </c>
-      <c r="I12">
-        <v>0.28301886792499997</v>
-      </c>
-      <c r="J12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13">
-        <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13">
-        <v>10.4076367667</v>
-      </c>
-      <c r="E13">
-        <v>97</v>
-      </c>
-      <c r="F13">
-        <v>0.77614255965400003</v>
-      </c>
-      <c r="G13">
-        <v>0.83333333333299997</v>
-      </c>
-      <c r="H13">
-        <v>0.60714285714299998</v>
-      </c>
-      <c r="I13">
-        <v>0.20618556700999999</v>
-      </c>
-      <c r="J13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14">
-        <v>1.9391142107299999</v>
-      </c>
-      <c r="E14">
-        <v>70</v>
-      </c>
-      <c r="F14">
-        <v>0.99209442967600003</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>0.85227272727299996</v>
-      </c>
-      <c r="I14">
-        <v>0.62857142857100001</v>
-      </c>
-      <c r="J14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15">
-        <v>14.698286409</v>
-      </c>
-      <c r="E15">
-        <v>96</v>
-      </c>
-      <c r="F15">
-        <v>0.84697380531099997</v>
-      </c>
-      <c r="G15">
-        <v>0.86363636363600005</v>
-      </c>
-      <c r="H15">
-        <v>0.67045454545500005</v>
-      </c>
-      <c r="I15">
-        <v>0.39583333333300003</v>
-      </c>
-      <c r="J15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16">
-        <v>0.78664556506299999</v>
-      </c>
-      <c r="E16">
-        <v>57</v>
-      </c>
-      <c r="F16">
-        <v>0.99753613309</v>
-      </c>
-      <c r="G16">
-        <v>0.625</v>
-      </c>
-      <c r="H16">
-        <v>0.78571428571400004</v>
-      </c>
-      <c r="I16">
-        <v>0.26315789473700002</v>
-      </c>
-      <c r="J16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17">
-        <v>4.5341559739599999</v>
-      </c>
-      <c r="E17">
-        <v>89</v>
-      </c>
-      <c r="F17">
-        <v>0.89885410918800002</v>
-      </c>
-      <c r="G17">
-        <v>0.83333333333299997</v>
-      </c>
-      <c r="H17">
-        <v>0.64795918367299998</v>
-      </c>
-      <c r="I17">
-        <v>0.22471910112400001</v>
-      </c>
-      <c r="J17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18">
-        <v>381.33024746000001</v>
-      </c>
-      <c r="E18">
-        <v>220</v>
-      </c>
-      <c r="F18">
-        <v>0.84776209211999998</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0.2</v>
-      </c>
-      <c r="J18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19">
-        <v>126.740249361</v>
-      </c>
-      <c r="E19">
-        <v>220</v>
-      </c>
-      <c r="F19">
-        <v>0.54859258023500002</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0.2</v>
-      </c>
-      <c r="J19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20">
-        <v>129.28163286</v>
-      </c>
-      <c r="E20">
-        <v>220</v>
-      </c>
-      <c r="F20">
-        <v>0.62010159906700002</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0.109090909091</v>
-      </c>
-      <c r="J20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21">
-        <v>32</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21">
-        <v>57.169596288100003</v>
-      </c>
-      <c r="E21">
-        <v>220</v>
-      </c>
-      <c r="F21">
-        <v>0.50335334674599996</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0.109090909091</v>
-      </c>
-      <c r="J21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22">
-        <v>8</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22">
-        <v>0.67756258895400001</v>
-      </c>
-      <c r="E22">
-        <v>151</v>
-      </c>
-      <c r="F22">
-        <v>0.99995483598000001</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>0.39204545454500001</v>
-      </c>
-      <c r="I22">
-        <v>0.29139072847699998</v>
-      </c>
-      <c r="J22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23">
-        <v>18</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23">
-        <v>15.1201847994</v>
-      </c>
-      <c r="E23">
-        <v>101</v>
-      </c>
-      <c r="F23">
-        <v>0.84509127482699997</v>
-      </c>
-      <c r="G23">
-        <v>0.86363636363600005</v>
-      </c>
-      <c r="H23">
-        <v>0.64204545454499995</v>
-      </c>
-      <c r="I23">
-        <v>0.37623762376199998</v>
-      </c>
-      <c r="J23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24">
-        <v>28</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24">
-        <v>0.76090057177299997</v>
-      </c>
-      <c r="E24">
-        <v>52</v>
-      </c>
-      <c r="F24">
-        <v>0.99761894081199998</v>
-      </c>
-      <c r="G24">
-        <v>0.625</v>
-      </c>
-      <c r="H24">
-        <v>0.81122448979600004</v>
-      </c>
-      <c r="I24">
-        <v>0.28846153846200001</v>
-      </c>
-      <c r="J24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25">
-        <v>38</v>
-      </c>
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25">
-        <v>4.4127939439299997</v>
-      </c>
-      <c r="E25">
-        <v>71</v>
-      </c>
-      <c r="F25">
-        <v>0.89484330240400001</v>
-      </c>
-      <c r="G25">
-        <v>0.79166666666700003</v>
-      </c>
-      <c r="H25">
-        <v>0.73469387755100002</v>
-      </c>
-      <c r="I25">
-        <v>0.26760563380300001</v>
-      </c>
-      <c r="J25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26">
-        <v>9</v>
-      </c>
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26">
-        <v>2.0343988526599999</v>
-      </c>
-      <c r="E26">
-        <v>71</v>
-      </c>
-      <c r="F26">
-        <v>0.99095780060399996</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>0.84659090909099999</v>
-      </c>
-      <c r="I26">
-        <v>0.619718309859</v>
-      </c>
-      <c r="J26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27">
-        <v>19</v>
-      </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27">
-        <v>15.092321953900001</v>
-      </c>
-      <c r="E27">
-        <v>96</v>
-      </c>
-      <c r="F27">
-        <v>0.84607084553099998</v>
-      </c>
-      <c r="G27">
-        <v>0.88636363636399995</v>
-      </c>
-      <c r="H27">
-        <v>0.67613636363600005</v>
-      </c>
-      <c r="I27">
-        <v>0.40625</v>
-      </c>
-      <c r="J27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28">
-        <v>0.78056182514899997</v>
-      </c>
-      <c r="E28">
-        <v>59</v>
-      </c>
-      <c r="F28">
-        <v>0.99762265772400005</v>
-      </c>
-      <c r="G28">
-        <v>0.625</v>
-      </c>
-      <c r="H28">
-        <v>0.775510204082</v>
-      </c>
-      <c r="I28">
-        <v>0.25423728813599999</v>
-      </c>
-      <c r="J28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29">
-        <v>39</v>
-      </c>
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29">
-        <v>4.5366884562000003</v>
-      </c>
-      <c r="E29">
-        <v>87</v>
-      </c>
-      <c r="F29">
-        <v>0.89900766305500002</v>
-      </c>
-      <c r="G29">
-        <v>0.79166666666700003</v>
-      </c>
-      <c r="H29">
-        <v>0.65306122449000004</v>
-      </c>
-      <c r="I29">
-        <v>0.218390804598</v>
-      </c>
-      <c r="J29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30">
-        <v>7</v>
-      </c>
-      <c r="B30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30">
-        <v>1.6491242512299999</v>
-      </c>
-      <c r="E30">
-        <v>220</v>
-      </c>
-      <c r="F30">
-        <v>0.99212458743700005</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0.2</v>
-      </c>
-      <c r="J30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31">
-        <v>17</v>
-      </c>
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31">
-        <v>4.1658572007299997</v>
-      </c>
-      <c r="E31">
-        <v>220</v>
-      </c>
-      <c r="F31">
-        <v>0.97390446874400005</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0.2</v>
-      </c>
-      <c r="J31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32">
-        <v>27</v>
-      </c>
-      <c r="B32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32">
-        <v>4.8022585500600004</v>
-      </c>
-      <c r="E32">
-        <v>220</v>
-      </c>
-      <c r="F32">
-        <v>0.83585870495500003</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0.109090909091</v>
-      </c>
-      <c r="J32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33">
-        <v>37</v>
-      </c>
-      <c r="B33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33">
-        <v>6.7564863584800001</v>
-      </c>
-      <c r="E33">
-        <v>220</v>
-      </c>
-      <c r="F33">
-        <v>0.75673550131300005</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0.109090909091</v>
-      </c>
-      <c r="J33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34">
-        <v>0</v>
-      </c>
-      <c r="B34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34">
-        <v>1321.22138563</v>
-      </c>
-      <c r="E34">
-        <v>220</v>
-      </c>
-      <c r="F34">
-        <v>0.25654068936399999</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0.2</v>
-      </c>
-      <c r="J34" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35">
-        <v>10</v>
-      </c>
-      <c r="B35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35">
-        <v>896.53110212599995</v>
-      </c>
-      <c r="E35">
-        <v>220</v>
-      </c>
-      <c r="F35">
-        <v>0.25240262356400001</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0.2</v>
-      </c>
-      <c r="J35" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36">
-        <v>20</v>
-      </c>
-      <c r="B36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36">
-        <v>747.97872486999995</v>
-      </c>
-      <c r="E36">
-        <v>220</v>
-      </c>
-      <c r="F36">
-        <v>0.225111441311</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0.109090909091</v>
-      </c>
-      <c r="J36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37">
-        <v>30</v>
-      </c>
-      <c r="B37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37">
-        <v>412.20373545799998</v>
-      </c>
-      <c r="E37">
-        <v>220</v>
-      </c>
-      <c r="F37">
-        <v>0.20775544515399999</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0.109090909091</v>
-      </c>
-      <c r="J37" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38">
-        <v>4</v>
-      </c>
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38">
-        <v>20.378001587699998</v>
-      </c>
-      <c r="E38">
-        <v>220</v>
-      </c>
-      <c r="F38">
-        <v>0.81812093660700003</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0.2</v>
-      </c>
-      <c r="J38" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39">
-        <v>14</v>
-      </c>
-      <c r="B39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39">
-        <v>29.9959302402</v>
-      </c>
-      <c r="E39">
-        <v>220</v>
-      </c>
-      <c r="F39">
-        <v>0.76757371842</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0.2</v>
-      </c>
-      <c r="J39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40">
-        <v>24</v>
-      </c>
-      <c r="B40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40">
-        <v>6.4329428364299996</v>
-      </c>
-      <c r="E40">
-        <v>220</v>
-      </c>
-      <c r="F40">
-        <v>0.88087264096200002</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0.109090909091</v>
-      </c>
-      <c r="J40" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41">
-        <v>34</v>
-      </c>
-      <c r="B41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41">
-        <v>6.6956207328500001</v>
-      </c>
-      <c r="E41">
-        <v>220</v>
-      </c>
-      <c r="F41">
-        <v>0.80279324419300002</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0.109090909091</v>
-      </c>
-      <c r="J41" t="s">
-        <v>92</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2">
-        <v>3.4423618621699998</v>
-      </c>
-      <c r="E2">
-        <v>99</v>
-      </c>
-      <c r="F2">
-        <v>0.97515105106699995</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0.6875</v>
-      </c>
-      <c r="I2">
-        <v>0.444444444444</v>
-      </c>
-      <c r="J2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>18.444014057</v>
-      </c>
-      <c r="E3">
-        <v>115</v>
-      </c>
-      <c r="F3">
-        <v>0.77381993047499997</v>
-      </c>
-      <c r="G3">
-        <v>0.84090909090900001</v>
-      </c>
-      <c r="H3">
-        <v>0.55681818181800002</v>
-      </c>
-      <c r="I3">
-        <v>0.32173913043500002</v>
-      </c>
-      <c r="J3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>1.9675326366799999</v>
-      </c>
-      <c r="E4">
-        <v>36</v>
-      </c>
-      <c r="F4">
-        <v>0.98656096061200005</v>
-      </c>
-      <c r="G4">
-        <v>0.70833333333299997</v>
-      </c>
-      <c r="H4">
-        <v>0.90306122449000004</v>
-      </c>
-      <c r="I4">
-        <v>0.472222222222</v>
-      </c>
-      <c r="J4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>9.1227559600700001</v>
-      </c>
-      <c r="E5">
-        <v>139</v>
-      </c>
-      <c r="F5">
-        <v>0.717897624904</v>
-      </c>
-      <c r="G5">
-        <v>0.91666666666700003</v>
-      </c>
-      <c r="H5">
-        <v>0.40306122448999998</v>
-      </c>
-      <c r="I5">
-        <v>0.15827338129499999</v>
-      </c>
-      <c r="J5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>291.062271963</v>
-      </c>
-      <c r="E6">
-        <v>220</v>
-      </c>
-      <c r="F6">
-        <v>0.58258507012600003</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0.2</v>
-      </c>
-      <c r="J6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7">
-        <v>127.63119459399999</v>
-      </c>
-      <c r="E7">
-        <v>220</v>
-      </c>
-      <c r="F7">
-        <v>0.54776609538400001</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0.2</v>
-      </c>
-      <c r="J7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8">
-        <v>126.528047704</v>
-      </c>
-      <c r="E8">
-        <v>220</v>
-      </c>
-      <c r="F8">
-        <v>0.468312914011</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0.109090909091</v>
-      </c>
-      <c r="J8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9">
-        <v>53.916244665199997</v>
-      </c>
-      <c r="E9">
-        <v>220</v>
-      </c>
-      <c r="F9">
-        <v>0.49725969477300003</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0.109090909091</v>
-      </c>
-      <c r="J9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10">
-        <v>0.99640395367699996</v>
-      </c>
-      <c r="E10">
-        <v>165</v>
-      </c>
-      <c r="F10">
-        <v>0.99775422064599995</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>0.3125</v>
-      </c>
-      <c r="I10">
-        <v>0.26666666666700001</v>
-      </c>
-      <c r="J10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11">
-        <v>13.824991992199999</v>
-      </c>
-      <c r="E11">
-        <v>98</v>
-      </c>
-      <c r="F11">
-        <v>0.87048882788000004</v>
-      </c>
-      <c r="G11">
-        <v>0.86363636363600005</v>
-      </c>
-      <c r="H11">
-        <v>0.65909090909099999</v>
-      </c>
-      <c r="I11">
-        <v>0.387755102041</v>
-      </c>
-      <c r="J11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12">
-        <v>3.5570468120699998</v>
-      </c>
-      <c r="E12">
-        <v>128</v>
-      </c>
-      <c r="F12">
-        <v>0.89899513665300002</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>0.46938775510199998</v>
-      </c>
-      <c r="I12">
-        <v>0.1875</v>
-      </c>
-      <c r="J12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13">
-        <v>6.8742040207199997</v>
-      </c>
-      <c r="E13">
-        <v>137</v>
-      </c>
-      <c r="F13">
-        <v>0.76542797706700005</v>
-      </c>
-      <c r="G13">
-        <v>0.91666666666700003</v>
-      </c>
-      <c r="H13">
-        <v>0.41326530612200002</v>
-      </c>
-      <c r="I13">
-        <v>0.16058394160600001</v>
-      </c>
-      <c r="J13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14">
-        <v>3.14108498528</v>
-      </c>
-      <c r="E14">
-        <v>90</v>
-      </c>
-      <c r="F14">
-        <v>0.98419767352400001</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>0.73863636363600005</v>
-      </c>
-      <c r="I14">
-        <v>0.48888888888900001</v>
-      </c>
-      <c r="J14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15">
-        <v>15.2047464685</v>
-      </c>
-      <c r="E15">
-        <v>97</v>
-      </c>
-      <c r="F15">
-        <v>0.846159682503</v>
-      </c>
-      <c r="G15">
-        <v>0.88636363636399995</v>
-      </c>
-      <c r="H15">
-        <v>0.67045454545500005</v>
-      </c>
-      <c r="I15">
-        <v>0.40206185567000002</v>
-      </c>
-      <c r="J15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16">
-        <v>1.0401728343000001</v>
-      </c>
-      <c r="E16">
-        <v>92</v>
-      </c>
-      <c r="F16">
-        <v>0.995908775084</v>
-      </c>
-      <c r="G16">
-        <v>0.70833333333299997</v>
-      </c>
-      <c r="H16">
-        <v>0.617346938776</v>
-      </c>
-      <c r="I16">
-        <v>0.18478260869599999</v>
-      </c>
-      <c r="J16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17">
-        <v>4.6328581183699997</v>
-      </c>
-      <c r="E17">
-        <v>66</v>
-      </c>
-      <c r="F17">
-        <v>0.87306609334200003</v>
-      </c>
-      <c r="G17">
-        <v>0.79166666666700003</v>
-      </c>
-      <c r="H17">
-        <v>0.76020408163300002</v>
-      </c>
-      <c r="I17">
-        <v>0.28787878787900001</v>
-      </c>
-      <c r="J17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18">
-        <v>1.5740420695799999</v>
-      </c>
-      <c r="E18">
-        <v>220</v>
-      </c>
-      <c r="F18">
-        <v>0.99294789023100005</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0.2</v>
-      </c>
-      <c r="J18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19">
-        <v>5.6666493811900001</v>
-      </c>
-      <c r="E19">
-        <v>220</v>
-      </c>
-      <c r="F19">
-        <v>0.95797877475500004</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0.2</v>
-      </c>
-      <c r="J19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20">
-        <v>4.8524257479699999</v>
-      </c>
-      <c r="E20">
-        <v>220</v>
-      </c>
-      <c r="F20">
-        <v>0.83362410220700001</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0.109090909091</v>
-      </c>
-      <c r="J20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21">
-        <v>15</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21">
-        <v>7.6474174601299998</v>
-      </c>
-      <c r="E21">
-        <v>220</v>
-      </c>
-      <c r="F21">
-        <v>0.74835916254199997</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0.109090909091</v>
-      </c>
-      <c r="J21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2">
-        <v>32.664328990500003</v>
-      </c>
-      <c r="E2">
-        <v>171</v>
-      </c>
-      <c r="F2">
-        <v>0.89067525162600003</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0.27840909090900001</v>
-      </c>
-      <c r="I2">
-        <v>0.25730994151999997</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>38.0288181998</v>
-      </c>
-      <c r="E3">
-        <v>171</v>
-      </c>
-      <c r="F3">
-        <v>0.675958504367</v>
-      </c>
-      <c r="G3">
-        <v>0.93181818181800002</v>
-      </c>
-      <c r="H3">
-        <v>0.26136363636400001</v>
-      </c>
-      <c r="I3">
-        <v>0.23976608187099999</v>
-      </c>
-      <c r="J3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>10.604569893500001</v>
-      </c>
-      <c r="E4">
-        <v>151</v>
-      </c>
-      <c r="F4">
-        <v>0.72001354207699997</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0.35204081632700002</v>
-      </c>
-      <c r="I4">
-        <v>0.15894039735099999</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>11.9658798903</v>
-      </c>
-      <c r="E5">
-        <v>157</v>
-      </c>
-      <c r="F5">
-        <v>0.604901947592</v>
-      </c>
-      <c r="G5">
-        <v>0.91666666666700003</v>
-      </c>
-      <c r="H5">
-        <v>0.31122448979599998</v>
-      </c>
-      <c r="I5">
-        <v>0.14012738853500001</v>
-      </c>
-      <c r="J5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>291.062271963</v>
-      </c>
-      <c r="E6">
-        <v>220</v>
-      </c>
-      <c r="F6">
-        <v>0.58258507012600003</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0.2</v>
-      </c>
-      <c r="J6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7">
-        <v>127.63119459399999</v>
-      </c>
-      <c r="E7">
-        <v>220</v>
-      </c>
-      <c r="F7">
-        <v>0.54776609538400001</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0.2</v>
-      </c>
-      <c r="J7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8">
-        <v>126.528047704</v>
-      </c>
-      <c r="E8">
-        <v>220</v>
-      </c>
-      <c r="F8">
-        <v>0.468312914011</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0.109090909091</v>
-      </c>
-      <c r="J8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9">
-        <v>53.916244665199997</v>
-      </c>
-      <c r="E9">
-        <v>220</v>
-      </c>
-      <c r="F9">
-        <v>0.49725969477300003</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0.109090909091</v>
-      </c>
-      <c r="J9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10">
-        <v>0.71469295952</v>
-      </c>
-      <c r="E10">
-        <v>100</v>
-      </c>
-      <c r="F10">
-        <v>0.999726466353</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>0.68181818181800002</v>
-      </c>
-      <c r="I10">
-        <v>0.44</v>
-      </c>
-      <c r="J10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11">
-        <v>13.5056305839</v>
-      </c>
-      <c r="E11">
-        <v>107</v>
-      </c>
-      <c r="F11">
-        <v>0.86125926927100005</v>
-      </c>
-      <c r="G11">
-        <v>0.88636363636399995</v>
-      </c>
-      <c r="H11">
-        <v>0.61363636363600005</v>
-      </c>
-      <c r="I11">
-        <v>0.36448598130799997</v>
-      </c>
-      <c r="J11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12">
-        <v>2.60771279643</v>
-      </c>
-      <c r="E12">
-        <v>122</v>
-      </c>
-      <c r="F12">
-        <v>0.87230977006499999</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>0.5</v>
-      </c>
-      <c r="I12">
-        <v>0.19672131147499999</v>
-      </c>
-      <c r="J12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13">
-        <v>5.2833062799499997</v>
-      </c>
-      <c r="E13">
-        <v>154</v>
-      </c>
-      <c r="F13">
-        <v>0.73884561143399996</v>
-      </c>
-      <c r="G13">
-        <v>0.91666666666700003</v>
-      </c>
-      <c r="H13">
-        <v>0.32653061224500002</v>
-      </c>
-      <c r="I13">
-        <v>0.14285714285699999</v>
-      </c>
-      <c r="J13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14">
-        <v>3.14108498528</v>
-      </c>
-      <c r="E14">
-        <v>90</v>
-      </c>
-      <c r="F14">
-        <v>0.98419767352400001</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>0.73863636363600005</v>
-      </c>
-      <c r="I14">
-        <v>0.48888888888900001</v>
-      </c>
-      <c r="J14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15">
-        <v>14.883793239399999</v>
-      </c>
-      <c r="E15">
-        <v>89</v>
-      </c>
-      <c r="F15">
-        <v>0.83932749020599995</v>
-      </c>
-      <c r="G15">
-        <v>0.88636363636399995</v>
-      </c>
-      <c r="H15">
-        <v>0.71590909090900001</v>
-      </c>
-      <c r="I15">
-        <v>0.43820224719099998</v>
-      </c>
-      <c r="J15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16">
-        <v>1.67326012323</v>
-      </c>
-      <c r="E16">
-        <v>26</v>
-      </c>
-      <c r="F16">
-        <v>0.98587483528599995</v>
-      </c>
-      <c r="G16">
-        <v>0.58333333333299997</v>
-      </c>
-      <c r="H16">
-        <v>0.93877551020399996</v>
-      </c>
-      <c r="I16">
-        <v>0.53846153846199996</v>
-      </c>
-      <c r="J16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17">
-        <v>5.8150171659299996</v>
-      </c>
-      <c r="E17">
-        <v>47</v>
-      </c>
-      <c r="F17">
-        <v>0.81187134943100003</v>
-      </c>
-      <c r="G17">
-        <v>0.66666666666700003</v>
-      </c>
-      <c r="H17">
-        <v>0.841836734694</v>
-      </c>
-      <c r="I17">
-        <v>0.34042553191500002</v>
-      </c>
-      <c r="J17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18">
-        <v>1.6491242512299999</v>
-      </c>
-      <c r="E18">
-        <v>220</v>
-      </c>
-      <c r="F18">
-        <v>0.99212458743700005</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0.2</v>
-      </c>
-      <c r="J18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19">
-        <v>8.5503789009800002</v>
-      </c>
-      <c r="E19">
-        <v>220</v>
-      </c>
-      <c r="F19">
-        <v>0.92766278073800001</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0.2</v>
-      </c>
-      <c r="J19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20">
-        <v>4.7854142521399998</v>
-      </c>
-      <c r="E20">
-        <v>220</v>
-      </c>
-      <c r="F20">
-        <v>0.83563938396199999</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0.109090909091</v>
-      </c>
-      <c r="J20" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21">
-        <v>15</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21">
-        <v>7.0504797826000001</v>
-      </c>
-      <c r="E21">
-        <v>220</v>
-      </c>
-      <c r="F21">
-        <v>0.74547686476399999</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0.109090909091</v>
-      </c>
-      <c r="J21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4863,12 +2182,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5555,7 +2874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J21"/>
   <sheetViews>
@@ -6245,4 +3564,2700 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="62.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>1.92342303886</v>
+      </c>
+      <c r="E2">
+        <v>69</v>
+      </c>
+      <c r="F2">
+        <v>0.99149632383800002</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0.85795454545500005</v>
+      </c>
+      <c r="I2">
+        <v>0.63768115942000003</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>14.612980673999999</v>
+      </c>
+      <c r="E3">
+        <v>87</v>
+      </c>
+      <c r="F3">
+        <v>0.84142813863099997</v>
+      </c>
+      <c r="G3">
+        <v>0.88636363636399995</v>
+      </c>
+      <c r="H3">
+        <v>0.72727272727299996</v>
+      </c>
+      <c r="I3">
+        <v>0.448275862069</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>0.77870490857399999</v>
+      </c>
+      <c r="E4">
+        <v>53</v>
+      </c>
+      <c r="F4">
+        <v>0.99735850978700002</v>
+      </c>
+      <c r="G4">
+        <v>0.625</v>
+      </c>
+      <c r="H4">
+        <v>0.80612244897999996</v>
+      </c>
+      <c r="I4">
+        <v>0.28301886792499997</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>4.3964644269199997</v>
+      </c>
+      <c r="E5">
+        <v>72</v>
+      </c>
+      <c r="F5">
+        <v>0.89544750953300001</v>
+      </c>
+      <c r="G5">
+        <v>0.79166666666700003</v>
+      </c>
+      <c r="H5">
+        <v>0.72959183673500005</v>
+      </c>
+      <c r="I5">
+        <v>0.26388888888899997</v>
+      </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>24.3726245573</v>
+      </c>
+      <c r="E7">
+        <v>220</v>
+      </c>
+      <c r="F7">
+        <v>0.49593143362300002</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0.2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>33.095036262400001</v>
+      </c>
+      <c r="E8">
+        <v>220</v>
+      </c>
+      <c r="F8">
+        <v>1.3307397368999999E-2</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0.109090909091</v>
+      </c>
+      <c r="J8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>23.552268926499998</v>
+      </c>
+      <c r="E9">
+        <v>220</v>
+      </c>
+      <c r="F9">
+        <v>-5.4186258799599998E-2</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0.109090909091</v>
+      </c>
+      <c r="J9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10">
+        <v>2.8094266887199999</v>
+      </c>
+      <c r="E10">
+        <v>70</v>
+      </c>
+      <c r="F10">
+        <v>0.98643867279599995</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0.85227272727299996</v>
+      </c>
+      <c r="I10">
+        <v>0.62857142857100001</v>
+      </c>
+      <c r="J10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11">
+        <v>20.879828996200001</v>
+      </c>
+      <c r="E11">
+        <v>112</v>
+      </c>
+      <c r="F11">
+        <v>0.76170764988200002</v>
+      </c>
+      <c r="G11">
+        <v>0.90909090909099999</v>
+      </c>
+      <c r="H11">
+        <v>0.59090909090900001</v>
+      </c>
+      <c r="I11">
+        <v>0.35714285714299998</v>
+      </c>
+      <c r="J11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12">
+        <v>0.96556700412499996</v>
+      </c>
+      <c r="E12">
+        <v>53</v>
+      </c>
+      <c r="F12">
+        <v>0.99654188227200002</v>
+      </c>
+      <c r="G12">
+        <v>0.625</v>
+      </c>
+      <c r="H12">
+        <v>0.80612244897999996</v>
+      </c>
+      <c r="I12">
+        <v>0.28301886792499997</v>
+      </c>
+      <c r="J12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13">
+        <v>10.4076367667</v>
+      </c>
+      <c r="E13">
+        <v>97</v>
+      </c>
+      <c r="F13">
+        <v>0.77614255965400003</v>
+      </c>
+      <c r="G13">
+        <v>0.83333333333299997</v>
+      </c>
+      <c r="H13">
+        <v>0.60714285714299998</v>
+      </c>
+      <c r="I13">
+        <v>0.20618556700999999</v>
+      </c>
+      <c r="J13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>1.9391142107299999</v>
+      </c>
+      <c r="E14">
+        <v>70</v>
+      </c>
+      <c r="F14">
+        <v>0.99209442967600003</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0.85227272727299996</v>
+      </c>
+      <c r="I14">
+        <v>0.62857142857100001</v>
+      </c>
+      <c r="J14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>14.698286409</v>
+      </c>
+      <c r="E15">
+        <v>96</v>
+      </c>
+      <c r="F15">
+        <v>0.84697380531099997</v>
+      </c>
+      <c r="G15">
+        <v>0.86363636363600005</v>
+      </c>
+      <c r="H15">
+        <v>0.67045454545500005</v>
+      </c>
+      <c r="I15">
+        <v>0.39583333333300003</v>
+      </c>
+      <c r="J15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>0.78664556506299999</v>
+      </c>
+      <c r="E16">
+        <v>57</v>
+      </c>
+      <c r="F16">
+        <v>0.99753613309</v>
+      </c>
+      <c r="G16">
+        <v>0.625</v>
+      </c>
+      <c r="H16">
+        <v>0.78571428571400004</v>
+      </c>
+      <c r="I16">
+        <v>0.26315789473700002</v>
+      </c>
+      <c r="J16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>4.5341559739599999</v>
+      </c>
+      <c r="E17">
+        <v>89</v>
+      </c>
+      <c r="F17">
+        <v>0.89885410918800002</v>
+      </c>
+      <c r="G17">
+        <v>0.83333333333299997</v>
+      </c>
+      <c r="H17">
+        <v>0.64795918367299998</v>
+      </c>
+      <c r="I17">
+        <v>0.22471910112400001</v>
+      </c>
+      <c r="J17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>381.33024746000001</v>
+      </c>
+      <c r="E18">
+        <v>220</v>
+      </c>
+      <c r="F18">
+        <v>0.84776209211999998</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0.2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>126.740249361</v>
+      </c>
+      <c r="E19">
+        <v>220</v>
+      </c>
+      <c r="F19">
+        <v>0.54859258023500002</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0.2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>129.28163286</v>
+      </c>
+      <c r="E20">
+        <v>220</v>
+      </c>
+      <c r="F20">
+        <v>0.62010159906700002</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0.109090909091</v>
+      </c>
+      <c r="J20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <v>57.169596288100003</v>
+      </c>
+      <c r="E21">
+        <v>220</v>
+      </c>
+      <c r="F21">
+        <v>0.50335334674599996</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0.109090909091</v>
+      </c>
+      <c r="J21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>0.67756258895400001</v>
+      </c>
+      <c r="E22">
+        <v>151</v>
+      </c>
+      <c r="F22">
+        <v>0.99995483598000001</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0.39204545454500001</v>
+      </c>
+      <c r="I22">
+        <v>0.29139072847699998</v>
+      </c>
+      <c r="J22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23">
+        <v>15.1201847994</v>
+      </c>
+      <c r="E23">
+        <v>101</v>
+      </c>
+      <c r="F23">
+        <v>0.84509127482699997</v>
+      </c>
+      <c r="G23">
+        <v>0.86363636363600005</v>
+      </c>
+      <c r="H23">
+        <v>0.64204545454499995</v>
+      </c>
+      <c r="I23">
+        <v>0.37623762376199998</v>
+      </c>
+      <c r="J23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24">
+        <v>0.76090057177299997</v>
+      </c>
+      <c r="E24">
+        <v>52</v>
+      </c>
+      <c r="F24">
+        <v>0.99761894081199998</v>
+      </c>
+      <c r="G24">
+        <v>0.625</v>
+      </c>
+      <c r="H24">
+        <v>0.81122448979600004</v>
+      </c>
+      <c r="I24">
+        <v>0.28846153846200001</v>
+      </c>
+      <c r="J24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25">
+        <v>4.4127939439299997</v>
+      </c>
+      <c r="E25">
+        <v>71</v>
+      </c>
+      <c r="F25">
+        <v>0.89484330240400001</v>
+      </c>
+      <c r="G25">
+        <v>0.79166666666700003</v>
+      </c>
+      <c r="H25">
+        <v>0.73469387755100002</v>
+      </c>
+      <c r="I25">
+        <v>0.26760563380300001</v>
+      </c>
+      <c r="J25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <v>2.0343988526599999</v>
+      </c>
+      <c r="E26">
+        <v>71</v>
+      </c>
+      <c r="F26">
+        <v>0.99095780060399996</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>0.84659090909099999</v>
+      </c>
+      <c r="I26">
+        <v>0.619718309859</v>
+      </c>
+      <c r="J26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>15.092321953900001</v>
+      </c>
+      <c r="E27">
+        <v>96</v>
+      </c>
+      <c r="F27">
+        <v>0.84607084553099998</v>
+      </c>
+      <c r="G27">
+        <v>0.88636363636399995</v>
+      </c>
+      <c r="H27">
+        <v>0.67613636363600005</v>
+      </c>
+      <c r="I27">
+        <v>0.40625</v>
+      </c>
+      <c r="J27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28">
+        <v>0.78056182514899997</v>
+      </c>
+      <c r="E28">
+        <v>59</v>
+      </c>
+      <c r="F28">
+        <v>0.99762265772400005</v>
+      </c>
+      <c r="G28">
+        <v>0.625</v>
+      </c>
+      <c r="H28">
+        <v>0.775510204082</v>
+      </c>
+      <c r="I28">
+        <v>0.25423728813599999</v>
+      </c>
+      <c r="J28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29">
+        <v>4.5366884562000003</v>
+      </c>
+      <c r="E29">
+        <v>87</v>
+      </c>
+      <c r="F29">
+        <v>0.89900766305500002</v>
+      </c>
+      <c r="G29">
+        <v>0.79166666666700003</v>
+      </c>
+      <c r="H29">
+        <v>0.65306122449000004</v>
+      </c>
+      <c r="I29">
+        <v>0.218390804598</v>
+      </c>
+      <c r="J29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30">
+        <v>1.6491242512299999</v>
+      </c>
+      <c r="E30">
+        <v>220</v>
+      </c>
+      <c r="F30">
+        <v>0.99212458743700005</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0.2</v>
+      </c>
+      <c r="J30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31">
+        <v>4.1658572007299997</v>
+      </c>
+      <c r="E31">
+        <v>220</v>
+      </c>
+      <c r="F31">
+        <v>0.97390446874400005</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0.2</v>
+      </c>
+      <c r="J31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32">
+        <v>4.8022585500600004</v>
+      </c>
+      <c r="E32">
+        <v>220</v>
+      </c>
+      <c r="F32">
+        <v>0.83585870495500003</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0.109090909091</v>
+      </c>
+      <c r="J32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33">
+        <v>6.7564863584800001</v>
+      </c>
+      <c r="E33">
+        <v>220</v>
+      </c>
+      <c r="F33">
+        <v>0.75673550131300005</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0.109090909091</v>
+      </c>
+      <c r="J33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34">
+        <v>1321.22138563</v>
+      </c>
+      <c r="E34">
+        <v>220</v>
+      </c>
+      <c r="F34">
+        <v>0.25654068936399999</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0.2</v>
+      </c>
+      <c r="J34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35">
+        <v>896.53110212599995</v>
+      </c>
+      <c r="E35">
+        <v>220</v>
+      </c>
+      <c r="F35">
+        <v>0.25240262356400001</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0.2</v>
+      </c>
+      <c r="J35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36">
+        <v>747.97872486999995</v>
+      </c>
+      <c r="E36">
+        <v>220</v>
+      </c>
+      <c r="F36">
+        <v>0.225111441311</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0.109090909091</v>
+      </c>
+      <c r="J36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37">
+        <v>412.20373545799998</v>
+      </c>
+      <c r="E37">
+        <v>220</v>
+      </c>
+      <c r="F37">
+        <v>0.20775544515399999</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0.109090909091</v>
+      </c>
+      <c r="J37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38">
+        <v>20.378001587699998</v>
+      </c>
+      <c r="E38">
+        <v>220</v>
+      </c>
+      <c r="F38">
+        <v>0.81812093660700003</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0.2</v>
+      </c>
+      <c r="J38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39">
+        <v>29.9959302402</v>
+      </c>
+      <c r="E39">
+        <v>220</v>
+      </c>
+      <c r="F39">
+        <v>0.76757371842</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0.2</v>
+      </c>
+      <c r="J39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40">
+        <v>24</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40">
+        <v>6.4329428364299996</v>
+      </c>
+      <c r="E40">
+        <v>220</v>
+      </c>
+      <c r="F40">
+        <v>0.88087264096200002</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0.109090909091</v>
+      </c>
+      <c r="J40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41">
+        <v>34</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41">
+        <v>6.6956207328500001</v>
+      </c>
+      <c r="E41">
+        <v>220</v>
+      </c>
+      <c r="F41">
+        <v>0.80279324419300002</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0.109090909091</v>
+      </c>
+      <c r="J41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>3.4423618621699998</v>
+      </c>
+      <c r="E2">
+        <v>99</v>
+      </c>
+      <c r="F2">
+        <v>0.97515105106699995</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0.6875</v>
+      </c>
+      <c r="I2">
+        <v>0.444444444444</v>
+      </c>
+      <c r="J2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>18.444014057</v>
+      </c>
+      <c r="E3">
+        <v>115</v>
+      </c>
+      <c r="F3">
+        <v>0.77381993047499997</v>
+      </c>
+      <c r="G3">
+        <v>0.84090909090900001</v>
+      </c>
+      <c r="H3">
+        <v>0.55681818181800002</v>
+      </c>
+      <c r="I3">
+        <v>0.32173913043500002</v>
+      </c>
+      <c r="J3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>1.9675326366799999</v>
+      </c>
+      <c r="E4">
+        <v>36</v>
+      </c>
+      <c r="F4">
+        <v>0.98656096061200005</v>
+      </c>
+      <c r="G4">
+        <v>0.70833333333299997</v>
+      </c>
+      <c r="H4">
+        <v>0.90306122449000004</v>
+      </c>
+      <c r="I4">
+        <v>0.472222222222</v>
+      </c>
+      <c r="J4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>9.1227559600700001</v>
+      </c>
+      <c r="E5">
+        <v>139</v>
+      </c>
+      <c r="F5">
+        <v>0.717897624904</v>
+      </c>
+      <c r="G5">
+        <v>0.91666666666700003</v>
+      </c>
+      <c r="H5">
+        <v>0.40306122448999998</v>
+      </c>
+      <c r="I5">
+        <v>0.15827338129499999</v>
+      </c>
+      <c r="J5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>291.062271963</v>
+      </c>
+      <c r="E6">
+        <v>220</v>
+      </c>
+      <c r="F6">
+        <v>0.58258507012600003</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0.2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>127.63119459399999</v>
+      </c>
+      <c r="E7">
+        <v>220</v>
+      </c>
+      <c r="F7">
+        <v>0.54776609538400001</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0.2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>126.528047704</v>
+      </c>
+      <c r="E8">
+        <v>220</v>
+      </c>
+      <c r="F8">
+        <v>0.468312914011</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0.109090909091</v>
+      </c>
+      <c r="J8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>53.916244665199997</v>
+      </c>
+      <c r="E9">
+        <v>220</v>
+      </c>
+      <c r="F9">
+        <v>0.49725969477300003</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0.109090909091</v>
+      </c>
+      <c r="J9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>0.99640395367699996</v>
+      </c>
+      <c r="E10">
+        <v>165</v>
+      </c>
+      <c r="F10">
+        <v>0.99775422064599995</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0.3125</v>
+      </c>
+      <c r="I10">
+        <v>0.26666666666700001</v>
+      </c>
+      <c r="J10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>13.824991992199999</v>
+      </c>
+      <c r="E11">
+        <v>98</v>
+      </c>
+      <c r="F11">
+        <v>0.87048882788000004</v>
+      </c>
+      <c r="G11">
+        <v>0.86363636363600005</v>
+      </c>
+      <c r="H11">
+        <v>0.65909090909099999</v>
+      </c>
+      <c r="I11">
+        <v>0.387755102041</v>
+      </c>
+      <c r="J11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>3.5570468120699998</v>
+      </c>
+      <c r="E12">
+        <v>128</v>
+      </c>
+      <c r="F12">
+        <v>0.89899513665300002</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0.46938775510199998</v>
+      </c>
+      <c r="I12">
+        <v>0.1875</v>
+      </c>
+      <c r="J12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13">
+        <v>6.8742040207199997</v>
+      </c>
+      <c r="E13">
+        <v>137</v>
+      </c>
+      <c r="F13">
+        <v>0.76542797706700005</v>
+      </c>
+      <c r="G13">
+        <v>0.91666666666700003</v>
+      </c>
+      <c r="H13">
+        <v>0.41326530612200002</v>
+      </c>
+      <c r="I13">
+        <v>0.16058394160600001</v>
+      </c>
+      <c r="J13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>3.14108498528</v>
+      </c>
+      <c r="E14">
+        <v>90</v>
+      </c>
+      <c r="F14">
+        <v>0.98419767352400001</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0.73863636363600005</v>
+      </c>
+      <c r="I14">
+        <v>0.48888888888900001</v>
+      </c>
+      <c r="J14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>15.2047464685</v>
+      </c>
+      <c r="E15">
+        <v>97</v>
+      </c>
+      <c r="F15">
+        <v>0.846159682503</v>
+      </c>
+      <c r="G15">
+        <v>0.88636363636399995</v>
+      </c>
+      <c r="H15">
+        <v>0.67045454545500005</v>
+      </c>
+      <c r="I15">
+        <v>0.40206185567000002</v>
+      </c>
+      <c r="J15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>1.0401728343000001</v>
+      </c>
+      <c r="E16">
+        <v>92</v>
+      </c>
+      <c r="F16">
+        <v>0.995908775084</v>
+      </c>
+      <c r="G16">
+        <v>0.70833333333299997</v>
+      </c>
+      <c r="H16">
+        <v>0.617346938776</v>
+      </c>
+      <c r="I16">
+        <v>0.18478260869599999</v>
+      </c>
+      <c r="J16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>4.6328581183699997</v>
+      </c>
+      <c r="E17">
+        <v>66</v>
+      </c>
+      <c r="F17">
+        <v>0.87306609334200003</v>
+      </c>
+      <c r="G17">
+        <v>0.79166666666700003</v>
+      </c>
+      <c r="H17">
+        <v>0.76020408163300002</v>
+      </c>
+      <c r="I17">
+        <v>0.28787878787900001</v>
+      </c>
+      <c r="J17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>1.5740420695799999</v>
+      </c>
+      <c r="E18">
+        <v>220</v>
+      </c>
+      <c r="F18">
+        <v>0.99294789023100005</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0.2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>5.6666493811900001</v>
+      </c>
+      <c r="E19">
+        <v>220</v>
+      </c>
+      <c r="F19">
+        <v>0.95797877475500004</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0.2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>4.8524257479699999</v>
+      </c>
+      <c r="E20">
+        <v>220</v>
+      </c>
+      <c r="F20">
+        <v>0.83362410220700001</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0.109090909091</v>
+      </c>
+      <c r="J20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>7.6474174601299998</v>
+      </c>
+      <c r="E21">
+        <v>220</v>
+      </c>
+      <c r="F21">
+        <v>0.74835916254199997</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0.109090909091</v>
+      </c>
+      <c r="J21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>32.664328990500003</v>
+      </c>
+      <c r="E2">
+        <v>171</v>
+      </c>
+      <c r="F2">
+        <v>0.89067525162600003</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0.27840909090900001</v>
+      </c>
+      <c r="I2">
+        <v>0.25730994151999997</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>38.0288181998</v>
+      </c>
+      <c r="E3">
+        <v>171</v>
+      </c>
+      <c r="F3">
+        <v>0.675958504367</v>
+      </c>
+      <c r="G3">
+        <v>0.93181818181800002</v>
+      </c>
+      <c r="H3">
+        <v>0.26136363636400001</v>
+      </c>
+      <c r="I3">
+        <v>0.23976608187099999</v>
+      </c>
+      <c r="J3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>10.604569893500001</v>
+      </c>
+      <c r="E4">
+        <v>151</v>
+      </c>
+      <c r="F4">
+        <v>0.72001354207699997</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0.35204081632700002</v>
+      </c>
+      <c r="I4">
+        <v>0.15894039735099999</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>11.9658798903</v>
+      </c>
+      <c r="E5">
+        <v>157</v>
+      </c>
+      <c r="F5">
+        <v>0.604901947592</v>
+      </c>
+      <c r="G5">
+        <v>0.91666666666700003</v>
+      </c>
+      <c r="H5">
+        <v>0.31122448979599998</v>
+      </c>
+      <c r="I5">
+        <v>0.14012738853500001</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>291.062271963</v>
+      </c>
+      <c r="E6">
+        <v>220</v>
+      </c>
+      <c r="F6">
+        <v>0.58258507012600003</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0.2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>127.63119459399999</v>
+      </c>
+      <c r="E7">
+        <v>220</v>
+      </c>
+      <c r="F7">
+        <v>0.54776609538400001</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0.2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>126.528047704</v>
+      </c>
+      <c r="E8">
+        <v>220</v>
+      </c>
+      <c r="F8">
+        <v>0.468312914011</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0.109090909091</v>
+      </c>
+      <c r="J8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>53.916244665199997</v>
+      </c>
+      <c r="E9">
+        <v>220</v>
+      </c>
+      <c r="F9">
+        <v>0.49725969477300003</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0.109090909091</v>
+      </c>
+      <c r="J9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>0.71469295952</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>0.999726466353</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0.68181818181800002</v>
+      </c>
+      <c r="I10">
+        <v>0.44</v>
+      </c>
+      <c r="J10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>13.5056305839</v>
+      </c>
+      <c r="E11">
+        <v>107</v>
+      </c>
+      <c r="F11">
+        <v>0.86125926927100005</v>
+      </c>
+      <c r="G11">
+        <v>0.88636363636399995</v>
+      </c>
+      <c r="H11">
+        <v>0.61363636363600005</v>
+      </c>
+      <c r="I11">
+        <v>0.36448598130799997</v>
+      </c>
+      <c r="J11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>2.60771279643</v>
+      </c>
+      <c r="E12">
+        <v>122</v>
+      </c>
+      <c r="F12">
+        <v>0.87230977006499999</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0.5</v>
+      </c>
+      <c r="I12">
+        <v>0.19672131147499999</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13">
+        <v>5.2833062799499997</v>
+      </c>
+      <c r="E13">
+        <v>154</v>
+      </c>
+      <c r="F13">
+        <v>0.73884561143399996</v>
+      </c>
+      <c r="G13">
+        <v>0.91666666666700003</v>
+      </c>
+      <c r="H13">
+        <v>0.32653061224500002</v>
+      </c>
+      <c r="I13">
+        <v>0.14285714285699999</v>
+      </c>
+      <c r="J13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>3.14108498528</v>
+      </c>
+      <c r="E14">
+        <v>90</v>
+      </c>
+      <c r="F14">
+        <v>0.98419767352400001</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0.73863636363600005</v>
+      </c>
+      <c r="I14">
+        <v>0.48888888888900001</v>
+      </c>
+      <c r="J14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>14.883793239399999</v>
+      </c>
+      <c r="E15">
+        <v>89</v>
+      </c>
+      <c r="F15">
+        <v>0.83932749020599995</v>
+      </c>
+      <c r="G15">
+        <v>0.88636363636399995</v>
+      </c>
+      <c r="H15">
+        <v>0.71590909090900001</v>
+      </c>
+      <c r="I15">
+        <v>0.43820224719099998</v>
+      </c>
+      <c r="J15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>1.67326012323</v>
+      </c>
+      <c r="E16">
+        <v>26</v>
+      </c>
+      <c r="F16">
+        <v>0.98587483528599995</v>
+      </c>
+      <c r="G16">
+        <v>0.58333333333299997</v>
+      </c>
+      <c r="H16">
+        <v>0.93877551020399996</v>
+      </c>
+      <c r="I16">
+        <v>0.53846153846199996</v>
+      </c>
+      <c r="J16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>5.8150171659299996</v>
+      </c>
+      <c r="E17">
+        <v>47</v>
+      </c>
+      <c r="F17">
+        <v>0.81187134943100003</v>
+      </c>
+      <c r="G17">
+        <v>0.66666666666700003</v>
+      </c>
+      <c r="H17">
+        <v>0.841836734694</v>
+      </c>
+      <c r="I17">
+        <v>0.34042553191500002</v>
+      </c>
+      <c r="J17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>1.6491242512299999</v>
+      </c>
+      <c r="E18">
+        <v>220</v>
+      </c>
+      <c r="F18">
+        <v>0.99212458743700005</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0.2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>8.5503789009800002</v>
+      </c>
+      <c r="E19">
+        <v>220</v>
+      </c>
+      <c r="F19">
+        <v>0.92766278073800001</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0.2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>4.7854142521399998</v>
+      </c>
+      <c r="E20">
+        <v>220</v>
+      </c>
+      <c r="F20">
+        <v>0.83563938396199999</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0.109090909091</v>
+      </c>
+      <c r="J20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>7.0504797826000001</v>
+      </c>
+      <c r="E21">
+        <v>220</v>
+      </c>
+      <c r="F21">
+        <v>0.74547686476399999</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0.109090909091</v>
+      </c>
+      <c r="J21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/python/results/tuning_summary.xlsx
+++ b/python/results/tuning_summary.xlsx
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="134">
   <si>
     <t>setup</t>
   </si>
@@ -483,12 +483,63 @@
   </si>
   <si>
     <t>C=65.0</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>Mean sensitivity</t>
+  </si>
+  <si>
+    <t>Mean specificity</t>
+  </si>
+  <si>
+    <t>Mean precision</t>
+  </si>
+  <si>
+    <t>Mean predictors</t>
+  </si>
+  <si>
+    <t>Tuning</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>Predictor</t>
+  </si>
+  <si>
+    <t>Mean correlation</t>
+  </si>
+  <si>
+    <t>Correlation with true parameters</t>
+  </si>
+  <si>
+    <t>Correlation tuning</t>
+  </si>
+  <si>
+    <t>MSE tuning</t>
+  </si>
+  <si>
+    <t>Feature selection sensitivity</t>
+  </si>
+  <si>
+    <t>Feature selection specificity</t>
+  </si>
+  <si>
+    <t>Feature selection precision</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -518,8 +569,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,6 +583,923 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Correlation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$B$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSE tuning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>summary!$A$36:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>enet</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>gblasso</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>grace</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>lasso</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>linf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>summary!$B$36:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.88586138991200003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47042003372225005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88945332539824995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87439025467025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86421408121175003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$C$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Correlation tuning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>summary!$A$36:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>enet</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>gblasso</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>grace</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>lasso</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>linf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>summary!$C$36:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.85779847584275004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48524231708150001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87074520469374994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89154111825550009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85012247104149996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="85533056"/>
+        <c:axId val="85934080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="85533056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85934080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="85934080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85533056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sensitivity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$D$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSE tuning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>summary!$A$36:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>enet</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>gblasso</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>grace</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>lasso</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>linf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>summary!$D$36:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.70643939393949995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70643939393924993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70643939393949995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$E$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Correlation tuning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>summary!$A$36:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>enet</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>gblasso</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>grace</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>lasso</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>linf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>summary!$E$36:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.83143939393924993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88446969696949995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69507575757600004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="69840896"/>
+        <c:axId val="69842432"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="69840896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="69842432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="69842432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="69840896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Specificity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$F$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSE tuning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>summary!$A$36:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>enet</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>gblasso</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>grace</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>lasso</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>linf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>summary!$F$36:$F$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.88781767083975005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82149942139199994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88479688603675</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$G$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Correlation tuning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>summary!$A$36:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>enet</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>gblasso</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>grace</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>lasso</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>linf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>summary!$G$36:$G$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.87920617983450011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80297832849875006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88829295601074998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="110391680"/>
+        <c:axId val="110394752"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110391680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="110394752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110394752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="110391680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Precision</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$H$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSE tuning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>summary!$A$36:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>enet</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>gblasso</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>grace</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>lasso</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>linf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>summary!$H$36:$H$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.31414723114199999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1818181818200001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23016874372999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30005757663900001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1818181818200001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$I$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Correlation tuning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>summary!$A$36:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>enet</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>gblasso</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>grace</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>lasso</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>linf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>summary!$I$36:$I$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.35889360500400003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1818181818200001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24385510973149999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2945710656385</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1818181818200001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="102934016"/>
+        <c:axId val="102935936"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="102934016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="102935936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="102935936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="102934016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -838,13 +1811,1003 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" hidden="1">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2">
+        <f>AVERAGE(cv_mse_p550!D2:D5)</f>
+        <v>5.7488346817814993</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(cv_mse_p550!E2:E5)</f>
+        <v>75.5</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE(cv_mse_p550!F2:F5)</f>
+        <v>0.89172156190925</v>
+      </c>
+      <c r="F2">
+        <f>AVERAGE(cv_mse_p550!G2:G5)</f>
+        <v>0.70643939393949995</v>
+      </c>
+      <c r="G2">
+        <f>AVERAGE(cv_mse_p550!H2:H5)</f>
+        <v>0.90266422699475002</v>
+      </c>
+      <c r="H2">
+        <f>AVERAGE(cv_mse_p550!I2:I5)</f>
+        <v>0.334852597202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" hidden="1">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" hidden="1">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" hidden="1">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5">
+        <f>AVERAGE(cv_mse_p550!D6:D9)</f>
+        <v>48.918005185825002</v>
+      </c>
+      <c r="D5">
+        <f>AVERAGE(cv_mse_p550!E6:E9)</f>
+        <v>550</v>
+      </c>
+      <c r="E5">
+        <f>AVERAGE(cv_mse_p550!F6:F9)</f>
+        <v>0.12016364245780002</v>
+      </c>
+      <c r="F5">
+        <f>AVERAGE(cv_mse_p550!G6:G9)</f>
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f>AVERAGE(cv_mse_p550!H6:H9)</f>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f>AVERAGE(cv_mse_p550!I6:I9)</f>
+        <v>6.1818181818200001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" hidden="1">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" hidden="1">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" hidden="1">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8">
+        <f>AVERAGE(cv_mse_p550!D10:D13)</f>
+        <v>6.3917879115792493</v>
+      </c>
+      <c r="D8">
+        <f>AVERAGE(cv_mse_p550!E10:E13)</f>
+        <v>73.5</v>
+      </c>
+      <c r="E8">
+        <f>AVERAGE(cv_mse_p550!F10:F13)</f>
+        <v>0.8809496878680001</v>
+      </c>
+      <c r="F8">
+        <f>AVERAGE(cv_mse_p550!G10:G13)</f>
+        <v>0.70643939393949995</v>
+      </c>
+      <c r="G8">
+        <f>AVERAGE(cv_mse_p550!H10:H13)</f>
+        <v>0.90680465591600001</v>
+      </c>
+      <c r="H8">
+        <f>AVERAGE(cv_mse_p550!I10:I13)</f>
+        <v>0.36693577479875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" hidden="1">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" hidden="1">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="1">
+        <f>AVERAGE(cv_mse_p550!D14:D17)</f>
+        <v>5.8967247499285005</v>
+      </c>
+      <c r="D11" s="2">
+        <f>AVERAGE(cv_mse_p550!E14:E17)</f>
+        <v>83.25</v>
+      </c>
+      <c r="E11" s="1">
+        <f>AVERAGE(cv_mse_p550!F14:F17)</f>
+        <v>0.88586138991200003</v>
+      </c>
+      <c r="F11" s="1">
+        <f>AVERAGE(cv_mse_p550!G14:G17)</f>
+        <v>0.70643939393949995</v>
+      </c>
+      <c r="G11" s="1">
+        <f>AVERAGE(cv_mse_p550!H14:H17)</f>
+        <v>0.88781767083975005</v>
+      </c>
+      <c r="H11" s="1">
+        <f>AVERAGE(cv_mse_p550!I14:I17)</f>
+        <v>0.31414723114199999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="1">
+        <f>AVERAGE(coef_corr_p550!D2:D5)</f>
+        <v>7.3633839934675001</v>
+      </c>
+      <c r="D12" s="2">
+        <f>AVERAGE(coef_corr_p550!E2:E5)</f>
+        <v>90.75</v>
+      </c>
+      <c r="E12" s="1">
+        <f>AVERAGE(coef_corr_p550!F2:F5)</f>
+        <v>0.85779847584275004</v>
+      </c>
+      <c r="F12" s="1">
+        <f>AVERAGE(coef_corr_p550!G2:G5)</f>
+        <v>0.83143939393924993</v>
+      </c>
+      <c r="G12" s="1">
+        <f>AVERAGE(coef_corr_p550!H2:H5)</f>
+        <v>0.87920617983450011</v>
+      </c>
+      <c r="H12" s="1">
+        <f>AVERAGE(coef_corr_p550!I2:I5)</f>
+        <v>0.35889360500400003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" hidden="1">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="1">
+        <f>AVERAGE(n_pred_p550!D2:D5)</f>
+        <v>53.922856935624999</v>
+      </c>
+      <c r="D13" s="2">
+        <f>AVERAGE(n_pred_p550!E2:E5)</f>
+        <v>347.25</v>
+      </c>
+      <c r="E13" s="1">
+        <f>AVERAGE(n_pred_p550!F2:F5)</f>
+        <v>0.6625158555945001</v>
+      </c>
+      <c r="F13" s="1">
+        <f>AVERAGE(n_pred_p550!G2:G5)</f>
+        <v>0.96875</v>
+      </c>
+      <c r="G13" s="1">
+        <f>AVERAGE(n_pred_p550!H2:H5)</f>
+        <v>0.39043643577450005</v>
+      </c>
+      <c r="H13" s="1">
+        <f>AVERAGE(n_pred_p550!I2:I5)</f>
+        <v>9.3894769498500008E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="1">
+        <f>AVERAGE(cv_mse_p550!D18:D21)</f>
+        <v>169.95507423437499</v>
+      </c>
+      <c r="D14" s="2">
+        <f>AVERAGE(cv_mse_p550!E18:E21)</f>
+        <v>550</v>
+      </c>
+      <c r="E14" s="1">
+        <f>AVERAGE(cv_mse_p550!F18:F21)</f>
+        <v>0.47042003372225005</v>
+      </c>
+      <c r="F14" s="1">
+        <f>AVERAGE(cv_mse_p550!G18:G21)</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <f>AVERAGE(cv_mse_p550!H18:H21)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f>AVERAGE(cv_mse_p550!I18:I21)</f>
+        <v>6.1818181818200001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="1">
+        <f>AVERAGE(coef_corr_p550!D6:D9)</f>
+        <v>177.788443564375</v>
+      </c>
+      <c r="D15" s="2">
+        <f>AVERAGE(coef_corr_p550!E6:E9)</f>
+        <v>550</v>
+      </c>
+      <c r="E15" s="1">
+        <f>AVERAGE(coef_corr_p550!F6:F9)</f>
+        <v>0.48524231708150001</v>
+      </c>
+      <c r="F15" s="1">
+        <f>AVERAGE(coef_corr_p550!G6:G9)</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <f>AVERAGE(coef_corr_p550!H6:H9)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <f>AVERAGE(coef_corr_p550!I6:I9)</f>
+        <v>6.1818181818200001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" hidden="1">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="1">
+        <f>AVERAGE(n_pred_p550!D6:D9)</f>
+        <v>177.940066394875</v>
+      </c>
+      <c r="D16" s="2">
+        <f>AVERAGE(n_pred_p550!E6:E9)</f>
+        <v>550</v>
+      </c>
+      <c r="E16" s="1">
+        <f>AVERAGE(n_pred_p550!F6:F9)</f>
+        <v>0.48508546187974999</v>
+      </c>
+      <c r="F16" s="1">
+        <f>AVERAGE(n_pred_p550!G6:G9)</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <f>AVERAGE(n_pred_p550!H6:H9)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <f>AVERAGE(n_pred_p550!I6:I9)</f>
+        <v>6.1818181818200001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="1">
+        <f>AVERAGE(cv_mse_p550!D22:D25)</f>
+        <v>5.7922747426244996</v>
+      </c>
+      <c r="D17" s="2">
+        <f>AVERAGE(cv_mse_p550!E22:E25)</f>
+        <v>116.75</v>
+      </c>
+      <c r="E17" s="1">
+        <f>AVERAGE(cv_mse_p550!F22:F25)</f>
+        <v>0.88945332539824995</v>
+      </c>
+      <c r="F17" s="1">
+        <f>AVERAGE(cv_mse_p550!G22:G25)</f>
+        <v>0.70643939393924993</v>
+      </c>
+      <c r="G17" s="1">
+        <f>AVERAGE(cv_mse_p550!H22:H25)</f>
+        <v>0.82149942139199994</v>
+      </c>
+      <c r="H17" s="1">
+        <f>AVERAGE(cv_mse_p550!I22:I25)</f>
+        <v>0.23016874372999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="1">
+        <f>AVERAGE(coef_corr_p550!D10:D13)</f>
+        <v>5.9223832409872506</v>
+      </c>
+      <c r="D18" s="2">
+        <f>AVERAGE(coef_corr_p550!E10:E13)</f>
+        <v>132</v>
+      </c>
+      <c r="E18" s="1">
+        <f>AVERAGE(coef_corr_p550!F10:F13)</f>
+        <v>0.87074520469374994</v>
+      </c>
+      <c r="F18" s="1">
+        <f>AVERAGE(coef_corr_p550!G10:G13)</f>
+        <v>0.88446969696949995</v>
+      </c>
+      <c r="G18" s="1">
+        <f>AVERAGE(coef_corr_p550!H10:H13)</f>
+        <v>0.80297832849875006</v>
+      </c>
+      <c r="H18" s="1">
+        <f>AVERAGE(coef_corr_p550!I10:I13)</f>
+        <v>0.24385510973149999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" hidden="1">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="1">
+        <f>AVERAGE(n_pred_p550!D10:D13)</f>
+        <v>10.534569666128499</v>
+      </c>
+      <c r="D19" s="2">
+        <f>AVERAGE(n_pred_p550!E10:E13)</f>
+        <v>313.75</v>
+      </c>
+      <c r="E19" s="1">
+        <f>AVERAGE(n_pred_p550!F10:F13)</f>
+        <v>0.83202215920025013</v>
+      </c>
+      <c r="F19" s="1">
+        <f>AVERAGE(n_pred_p550!G10:G13)</f>
+        <v>0.98958333333324999</v>
+      </c>
+      <c r="G19" s="1">
+        <f>AVERAGE(n_pred_p550!H10:H13)</f>
+        <v>0.45676595680724996</v>
+      </c>
+      <c r="H19" s="1">
+        <f>AVERAGE(n_pred_p550!I10:I13)</f>
+        <v>0.11661949818010001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="1">
+        <f>AVERAGE(cv_mse_p550!D26:D29)</f>
+        <v>6.6337139918219989</v>
+      </c>
+      <c r="D20" s="2">
+        <f>AVERAGE(cv_mse_p550!E26:E29)</f>
+        <v>84.75</v>
+      </c>
+      <c r="E20" s="1">
+        <f>AVERAGE(cv_mse_p550!F26:F29)</f>
+        <v>0.87439025467025</v>
+      </c>
+      <c r="F20" s="1">
+        <f>AVERAGE(cv_mse_p550!G26:G29)</f>
+        <v>0.70643939393949995</v>
+      </c>
+      <c r="G20" s="1">
+        <f>AVERAGE(cv_mse_p550!H26:H29)</f>
+        <v>0.88479688603675</v>
+      </c>
+      <c r="H20" s="1">
+        <f>AVERAGE(cv_mse_p550!I26:I29)</f>
+        <v>0.30005757663900001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="1">
+        <f>AVERAGE(coef_corr_p550!D14:D17)</f>
+        <v>6.2119663786202501</v>
+      </c>
+      <c r="D21" s="2">
+        <f>AVERAGE(coef_corr_p550!E14:E17)</f>
+        <v>82.5</v>
+      </c>
+      <c r="E21" s="1">
+        <f>AVERAGE(coef_corr_p550!F14:F17)</f>
+        <v>0.89154111825550009</v>
+      </c>
+      <c r="F21" s="1">
+        <f>AVERAGE(coef_corr_p550!G14:G17)</f>
+        <v>0.69507575757600004</v>
+      </c>
+      <c r="G21" s="1">
+        <f>AVERAGE(coef_corr_p550!H14:H17)</f>
+        <v>0.88829295601074998</v>
+      </c>
+      <c r="H21" s="1">
+        <f>AVERAGE(coef_corr_p550!I14:I17)</f>
+        <v>0.2945710656385</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" hidden="1">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="1">
+        <f>AVERAGE(n_pred_p550!D14:D17)</f>
+        <v>6.2848452631002498</v>
+      </c>
+      <c r="D22" s="2">
+        <f>AVERAGE(n_pred_p550!E14:E17)</f>
+        <v>82.75</v>
+      </c>
+      <c r="E22" s="1">
+        <f>AVERAGE(n_pred_p550!F14:F17)</f>
+        <v>0.89064455890200001</v>
+      </c>
+      <c r="F22" s="1">
+        <f>AVERAGE(n_pred_p550!G14:G17)</f>
+        <v>0.68939393939400007</v>
+      </c>
+      <c r="G22" s="1">
+        <f>AVERAGE(n_pred_p550!H14:H17)</f>
+        <v>0.88732359969350005</v>
+      </c>
+      <c r="H22" s="1">
+        <f>AVERAGE(n_pred_p550!I14:I17)</f>
+        <v>0.28968265174474994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="1">
+        <f>AVERAGE(cv_mse_p550!D30:D33)</f>
+        <v>5.4820868909809999</v>
+      </c>
+      <c r="D23" s="2">
+        <f>AVERAGE(cv_mse_p550!E30:E33)</f>
+        <v>550</v>
+      </c>
+      <c r="E23" s="1">
+        <f>AVERAGE(cv_mse_p550!F30:F33)</f>
+        <v>0.86421408121175003</v>
+      </c>
+      <c r="F23" s="1">
+        <f>AVERAGE(cv_mse_p550!G30:G33)</f>
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <f>AVERAGE(cv_mse_p550!H30:H33)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <f>AVERAGE(cv_mse_p550!I30:I33)</f>
+        <v>6.1818181818200001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="1">
+        <f>AVERAGE(coef_corr_p550!D18:D21)</f>
+        <v>6.5091453949949996</v>
+      </c>
+      <c r="D24" s="2">
+        <f>AVERAGE(coef_corr_p550!E18:E21)</f>
+        <v>550</v>
+      </c>
+      <c r="E24" s="1">
+        <f>AVERAGE(coef_corr_p550!F18:F21)</f>
+        <v>0.85012247104149996</v>
+      </c>
+      <c r="F24" s="1">
+        <f>AVERAGE(coef_corr_p550!G18:G21)</f>
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <f>AVERAGE(coef_corr_p550!H18:H21)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <f>AVERAGE(coef_corr_p550!I18:I21)</f>
+        <v>6.1818181818200001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" hidden="1">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="1">
+        <f>AVERAGE(n_pred_p550!D18:D21)</f>
+        <v>8.1575433142284997</v>
+      </c>
+      <c r="D25" s="2">
+        <f>AVERAGE(n_pred_p550!E18:E21)</f>
+        <v>550</v>
+      </c>
+      <c r="E25" s="1">
+        <f>AVERAGE(n_pred_p550!F18:F21)</f>
+        <v>0.82070765545924995</v>
+      </c>
+      <c r="F25" s="1">
+        <f>AVERAGE(n_pred_p550!G18:G21)</f>
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <f>AVERAGE(n_pred_p550!H18:H21)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <f>AVERAGE(n_pred_p550!I18:I21)</f>
+        <v>6.1818181818200001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" hidden="1">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26">
+        <f>AVERAGE(cv_mse_p550!D34:D37)</f>
+        <v>81614.892315172503</v>
+      </c>
+      <c r="D26">
+        <f>AVERAGE(cv_mse_p550!E34:E37)</f>
+        <v>550</v>
+      </c>
+      <c r="E26">
+        <f>AVERAGE(cv_mse_p550!F34:F37)</f>
+        <v>0.20172453232074999</v>
+      </c>
+      <c r="F26">
+        <f>AVERAGE(cv_mse_p550!G34:G37)</f>
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f>AVERAGE(cv_mse_p550!H34:H37)</f>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f>AVERAGE(cv_mse_p550!I34:I37)</f>
+        <v>6.1818181818200001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" hidden="1">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" hidden="1">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" hidden="1">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29">
+        <f>AVERAGE(cv_mse_p550!D38:D41)</f>
+        <v>15.824419772615002</v>
+      </c>
+      <c r="D29">
+        <f>AVERAGE(cv_mse_p550!E38:E41)</f>
+        <v>550</v>
+      </c>
+      <c r="E29">
+        <f>AVERAGE(cv_mse_p550!F38:F41)</f>
+        <v>0.74404340699325</v>
+      </c>
+      <c r="F29">
+        <f>AVERAGE(cv_mse_p550!G38:G41)</f>
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <f>AVERAGE(cv_mse_p550!H38:H41)</f>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f>AVERAGE(cv_mse_p550!I38:I41)</f>
+        <v>6.1818181818200001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" hidden="1">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" hidden="1">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="B34" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="B35" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" t="s">
+        <v>129</v>
+      </c>
+      <c r="F35" t="s">
+        <v>130</v>
+      </c>
+      <c r="G35" t="s">
+        <v>129</v>
+      </c>
+      <c r="H35" t="s">
+        <v>130</v>
+      </c>
+      <c r="I35" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="1">
+        <f>E11</f>
+        <v>0.88586138991200003</v>
+      </c>
+      <c r="C36" s="1">
+        <f>E12</f>
+        <v>0.85779847584275004</v>
+      </c>
+      <c r="D36" s="1">
+        <f>F11</f>
+        <v>0.70643939393949995</v>
+      </c>
+      <c r="E36" s="1">
+        <f>F12</f>
+        <v>0.83143939393924993</v>
+      </c>
+      <c r="F36" s="1">
+        <f>G11</f>
+        <v>0.88781767083975005</v>
+      </c>
+      <c r="G36" s="1">
+        <f>G12</f>
+        <v>0.87920617983450011</v>
+      </c>
+      <c r="H36" s="1">
+        <f>H11</f>
+        <v>0.31414723114199999</v>
+      </c>
+      <c r="I36" s="1">
+        <f>H12</f>
+        <v>0.35889360500400003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="1">
+        <f>E14</f>
+        <v>0.47042003372225005</v>
+      </c>
+      <c r="C37" s="1">
+        <f>E15</f>
+        <v>0.48524231708150001</v>
+      </c>
+      <c r="D37" s="1">
+        <f>F14</f>
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <f>F15</f>
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <f>G14</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <f>G15</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <f>H14</f>
+        <v>6.1818181818200001E-2</v>
+      </c>
+      <c r="I37" s="1">
+        <f>H15</f>
+        <v>6.1818181818200001E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="1">
+        <f>E17</f>
+        <v>0.88945332539824995</v>
+      </c>
+      <c r="C38" s="1">
+        <f>E18</f>
+        <v>0.87074520469374994</v>
+      </c>
+      <c r="D38" s="1">
+        <f>F17</f>
+        <v>0.70643939393924993</v>
+      </c>
+      <c r="E38" s="1">
+        <f>F18</f>
+        <v>0.88446969696949995</v>
+      </c>
+      <c r="F38" s="1">
+        <f>G17</f>
+        <v>0.82149942139199994</v>
+      </c>
+      <c r="G38" s="1">
+        <f>G18</f>
+        <v>0.80297832849875006</v>
+      </c>
+      <c r="H38" s="1">
+        <f>H17</f>
+        <v>0.23016874372999999</v>
+      </c>
+      <c r="I38" s="1">
+        <f>H18</f>
+        <v>0.24385510973149999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="1">
+        <f>E20</f>
+        <v>0.87439025467025</v>
+      </c>
+      <c r="C39" s="1">
+        <f>E21</f>
+        <v>0.89154111825550009</v>
+      </c>
+      <c r="D39" s="1">
+        <f>F20</f>
+        <v>0.70643939393949995</v>
+      </c>
+      <c r="E39" s="1">
+        <f>F21</f>
+        <v>0.69507575757600004</v>
+      </c>
+      <c r="F39" s="1">
+        <f>G20</f>
+        <v>0.88479688603675</v>
+      </c>
+      <c r="G39" s="1">
+        <f>G21</f>
+        <v>0.88829295601074998</v>
+      </c>
+      <c r="H39" s="1">
+        <f>H20</f>
+        <v>0.30005757663900001</v>
+      </c>
+      <c r="I39" s="1">
+        <f>H21</f>
+        <v>0.2945710656385</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="1">
+        <f>E23</f>
+        <v>0.86421408121175003</v>
+      </c>
+      <c r="C40" s="1">
+        <f>E24</f>
+        <v>0.85012247104149996</v>
+      </c>
+      <c r="D40" s="1">
+        <f>F23</f>
+        <v>1</v>
+      </c>
+      <c r="E40" s="1">
+        <f>F24</f>
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <f>G23</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <f>G24</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <f>H23</f>
+        <v>6.1818181818200001E-2</v>
+      </c>
+      <c r="I40" s="1">
+        <f>H24</f>
+        <v>6.1818181818200001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -852,8 +2815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2187,7 +4150,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3571,7 +5534,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:J6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/python/results/tuning_summary.xlsx
+++ b/python/results/tuning_summary.xlsx
@@ -20,8 +20,8 @@
     <definedName name="orctun_results_coef_correlation_p550" localSheetId="2">coef_corr_p550!$A$1:$J$25</definedName>
     <definedName name="orctun_results_n_predictors_p220" localSheetId="6">n_pred_p220!$A$1:$J$25</definedName>
     <definedName name="orctun_results_n_predictors_p550" localSheetId="3">n_pred_p550!$A$1:$J$25</definedName>
-    <definedName name="p220_" localSheetId="4">cv_mse_p220!$A$1:$J$25</definedName>
-    <definedName name="p550_" localSheetId="1">cv_mse_p550!$A$1:$J$25</definedName>
+    <definedName name="p220_" localSheetId="4">cv_mse_p220!$A$1:$J$41</definedName>
+    <definedName name="p550_" localSheetId="1">cv_mse_p550!$A$1:$J$41</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="135">
   <si>
     <t>setup</t>
   </si>
@@ -227,9 +227,6 @@
     <t>gamma=2.0, lambda=0.01</t>
   </si>
   <si>
-    <t>gamma=2.0, lambda=0.1</t>
-  </si>
-  <si>
     <t>gamma=2.0, lambda=1.0</t>
   </si>
   <si>
@@ -254,12 +251,6 @@
     <t>gamma=2.0, lambda=1000.0</t>
   </si>
   <si>
-    <t>lambda 1=1.0, lambda 2=10.0</t>
-  </si>
-  <si>
-    <t>lambda 1=0.01, lambda 2=0.1</t>
-  </si>
-  <si>
     <t>alpha=0.112717224649</t>
   </si>
   <si>
@@ -284,9 +275,6 @@
     <t>lambda 1=1.0, lambda 2=1.0</t>
   </si>
   <si>
-    <t>alpha=0.0161094934588</t>
-  </si>
-  <si>
     <t>alpha=0.012684422044</t>
   </si>
   <si>
@@ -296,15 +284,6 @@
     <t>lambda 1=1.0, lambda 2=0.1</t>
   </si>
   <si>
-    <t>C=40.0</t>
-  </si>
-  <si>
-    <t>C=100.0</t>
-  </si>
-  <si>
-    <t>C=65.0</t>
-  </si>
-  <si>
     <t>Model</t>
   </si>
   <si>
@@ -386,18 +365,6 @@
     <t>tau=2.99870761465, delta 1=5.99741522931, delta 2=5.99741522931</t>
   </si>
   <si>
-    <t>alpha=0.163208101929, l1_ratio=0.8</t>
-  </si>
-  <si>
-    <t>alpha=0.265889688055, l1_ratio=0.9</t>
-  </si>
-  <si>
-    <t>alpha=0.480578446227, l1_ratio=0.8</t>
-  </si>
-  <si>
-    <t>alpha=0.074909502109, l1_ratio=0.5</t>
-  </si>
-  <si>
     <t>gamma=2.0, lambda=100.0</t>
   </si>
   <si>
@@ -407,36 +374,6 @@
     <t>lambda 1=10.0, lambda 2=10.0</t>
   </si>
   <si>
-    <t>alpha=0.23930071925</t>
-  </si>
-  <si>
-    <t>alpha=0.129597417542</t>
-  </si>
-  <si>
-    <t>C=60.0</t>
-  </si>
-  <si>
-    <t>C=70.0</t>
-  </si>
-  <si>
-    <t>alpha=1.1009598658, l1_ratio=0.1</t>
-  </si>
-  <si>
-    <t>alpha=0.623964372237, l1_ratio=0.1</t>
-  </si>
-  <si>
-    <t>alpha=0.681207530786, l1_ratio=0.1</t>
-  </si>
-  <si>
-    <t>alpha=0.471525683471, l1_ratio=0.1</t>
-  </si>
-  <si>
-    <t>lambda 1=0.01, lambda 2=0.01</t>
-  </si>
-  <si>
-    <t>lambda 1=0.1, lambda 2=0.1</t>
-  </si>
-  <si>
     <t>gamma=2.0, lambda=10.0</t>
   </si>
   <si>
@@ -458,33 +395,6 @@
     <t>tau=1e-06, delta 1=286.776546973, delta 2=5.21411903588</t>
   </si>
   <si>
-    <t>alpha=0.016272215615, l1_ratio=0.6</t>
-  </si>
-  <si>
-    <t>alpha=0.515695861214, l1_ratio=0.9</t>
-  </si>
-  <si>
-    <t>alpha=0.136010899879, l1_ratio=0.9</t>
-  </si>
-  <si>
-    <t>alpha=0.00983084923089, l1_ratio=0.4</t>
-  </si>
-  <si>
-    <t>alpha=0.254669264732</t>
-  </si>
-  <si>
-    <t>alpha=0.0907660006648</t>
-  </si>
-  <si>
-    <t>alpha=0.917608303862, l1_ratio=0.1</t>
-  </si>
-  <si>
-    <t>alpha=0.561096300499, l1_ratio=0.1</t>
-  </si>
-  <si>
-    <t>alpha=0.692262726428, l1_ratio=0.1</t>
-  </si>
-  <si>
     <t>alpha=0.586243961745, l1_ratio=0.1</t>
   </si>
   <si>
@@ -495,6 +405,135 @@
   </si>
   <si>
     <t>Vote threshold=0.5</t>
+  </si>
+  <si>
+    <t>agrace</t>
+  </si>
+  <si>
+    <t>lambda 1=10.0, lambda 2=0.1</t>
+  </si>
+  <si>
+    <t>lambda 1=10.0, lambda 2=0.01</t>
+  </si>
+  <si>
+    <t>Vote threshold=0.8</t>
+  </si>
+  <si>
+    <t>Vote threshold=0.4</t>
+  </si>
+  <si>
+    <t>alpha=0.0464822528312, l1_ratio=0.9</t>
+  </si>
+  <si>
+    <t>alpha=0.0210233900902, l1_ratio=0.99</t>
+  </si>
+  <si>
+    <t>alpha=0.0363539970584, l1_ratio=0.95</t>
+  </si>
+  <si>
+    <t>alpha=0.0122083823583, l1_ratio=0.99</t>
+  </si>
+  <si>
+    <t>gamma=3.0, lambda=10.0</t>
+  </si>
+  <si>
+    <t>gamma=3.0, lambda=100.0</t>
+  </si>
+  <si>
+    <t>lambda 1=10.0, lambda 2=10000.0</t>
+  </si>
+  <si>
+    <t>lambda 1=1.0, lambda 2=0.01</t>
+  </si>
+  <si>
+    <t>alpha=0.0377031883559, l1_ratio=0.8</t>
+  </si>
+  <si>
+    <t>alpha=0.635603716849, l1_ratio=0.9</t>
+  </si>
+  <si>
+    <t>alpha=0.635296423133, l1_ratio=0.9</t>
+  </si>
+  <si>
+    <t>alpha=0.0883553041014, l1_ratio=0.7</t>
+  </si>
+  <si>
+    <t>lambda 1=10.0, lambda 2=1.0</t>
+  </si>
+  <si>
+    <t>alpha=0.0223255622654</t>
+  </si>
+  <si>
+    <t>alpha=0.0730789819748</t>
+  </si>
+  <si>
+    <t>alpha=0.0489543089719</t>
+  </si>
+  <si>
+    <t>alpha=0.120862985347</t>
+  </si>
+  <si>
+    <t>alpha=0.738445971989, l1_ratio=0.1</t>
+  </si>
+  <si>
+    <t>alpha=0.487500683653, l1_ratio=0.95</t>
+  </si>
+  <si>
+    <t>alpha=0.454451547762, l1_ratio=0.25</t>
+  </si>
+  <si>
+    <t>alpha=0.422422998808, l1_ratio=0.1</t>
+  </si>
+  <si>
+    <t>gamma=3.0, lambda=0.01</t>
+  </si>
+  <si>
+    <t>Vote threshold=0.6</t>
+  </si>
+  <si>
+    <t>alpha=0.0482951738875, l1_ratio=0.95</t>
+  </si>
+  <si>
+    <t>alpha=0.0137282148415, l1_ratio=0.99</t>
+  </si>
+  <si>
+    <t>alpha=0.0419553167532, l1_ratio=0.99</t>
+  </si>
+  <si>
+    <t>alpha=0.019752466718, l1_ratio=0.99</t>
+  </si>
+  <si>
+    <t>alpha=0.0322189869177, l1_ratio=0.8</t>
+  </si>
+  <si>
+    <t>alpha=0.577545577289, l1_ratio=0.95</t>
+  </si>
+  <si>
+    <t>alpha=0.260632472644, l1_ratio=0.9</t>
+  </si>
+  <si>
+    <t>alpha=0.151276667775, l1_ratio=0.8</t>
+  </si>
+  <si>
+    <t>alpha=0.0588319032157</t>
+  </si>
+  <si>
+    <t>alpha=0.170078913449</t>
+  </si>
+  <si>
+    <t>alpha=0.890859206156, l1_ratio=0.25</t>
+  </si>
+  <si>
+    <t>alpha=0.475010817276, l1_ratio=0.25</t>
+  </si>
+  <si>
+    <t>alpha=0.764051857705, l1_ratio=0.25</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>lambda 1=100.0, lambda 2=1000.0</t>
   </si>
 </sst>
 </file>
@@ -623,22 +662,22 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.89067785787575005</c:v>
+                  <c:v>0.88586138991200003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94482250247099997</c:v>
+                  <c:v>0.79968872517774992</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99799146071300004</c:v>
+                  <c:v>0.92423367661666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.87439025467025</c:v>
+                  <c:v>0.81450128927900001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89067785787575005</c:v>
+                  <c:v>0.88586138991200003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.87439025467025</c:v>
+                  <c:v>0.81450128927900001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -691,46 +730,46 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.863131337858</c:v>
+                  <c:v>0.897194951533</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.59016989296174993</c:v>
+                  <c:v>0.79625363299074992</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88447908120399998</c:v>
+                  <c:v>0.88516118581600001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89505861902024997</c:v>
+                  <c:v>0.89142550598350001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83381209065974993</c:v>
+                  <c:v>0.87810277978649998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.71015946548724995</c:v>
+                  <c:v>0.82703576090099995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="157063424"/>
-        <c:axId val="157077504"/>
+        <c:axId val="90621056"/>
+        <c:axId val="90622592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="157063424"/>
+        <c:axId val="90621056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157077504"/>
+        <c:crossAx val="90622592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157077504"/>
+        <c:axId val="90622592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -739,7 +778,7 @@
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157063424"/>
+        <c:crossAx val="90621056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -752,7 +791,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -832,22 +871,22 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.70643939393949995</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.875</c:v>
+                  <c:v>0.74747474747466658</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.90625</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.70643939393949995</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.70643939393949995</c:v>
+                  <c:v>0.90625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -900,13 +939,13 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.83712121212099999</c:v>
+                  <c:v>0.75852272727274994</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.86837121212125001</c:v>
+                  <c:v>0.86363636363624996</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.68465909090925003</c:v>
@@ -915,31 +954,31 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.87405303030299997</c:v>
+                  <c:v>0.86363636363624996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="157447296"/>
-        <c:axId val="157448832"/>
+        <c:axId val="90779008"/>
+        <c:axId val="90797184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="157447296"/>
+        <c:axId val="90779008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157448832"/>
+        <c:crossAx val="90797184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157448832"/>
+        <c:axId val="90797184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -948,7 +987,7 @@
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157447296"/>
+        <c:crossAx val="90779008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -961,7 +1000,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1041,22 +1080,22 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.89902538360949991</c:v>
+                  <c:v>0.88781767083975005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.46024887659875002</c:v>
+                  <c:v>0.18674386450032499</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57817720935599992</c:v>
+                  <c:v>0.81586488124766665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88479688603675</c:v>
+                  <c:v>0.88544124498425014</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89902538360949991</c:v>
+                  <c:v>0.88781767083975005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.88479688603675</c:v>
+                  <c:v>0.88544124498425014</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1109,46 +1148,46 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.90653601647149995</c:v>
+                  <c:v>0.92375899848224996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.168207742827375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83764408842900007</c:v>
+                  <c:v>0.86571597108450005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89768030778950003</c:v>
+                  <c:v>0.904890365049</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.24555335968375</c:v>
+                  <c:v>0.485671936759</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.77721899938374994</c:v>
+                  <c:v>0.87142690752799989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="157368320"/>
-        <c:axId val="157369856"/>
+        <c:axId val="90826240"/>
+        <c:axId val="90827776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="157368320"/>
+        <c:axId val="90826240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157369856"/>
+        <c:crossAx val="90827776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157369856"/>
+        <c:axId val="90827776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1157,7 +1196,7 @@
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157368320"/>
+        <c:crossAx val="90826240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1170,7 +1209,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1250,22 +1289,22 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.47685050798249995</c:v>
+                  <c:v>0.31414723114199999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12867606600922502</c:v>
+                  <c:v>7.8298817300000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.21925556663366666</c:v>
+                  <c:v>0.25975361116866663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.30005757663900001</c:v>
+                  <c:v>0.48478348688025003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47685050798249995</c:v>
+                  <c:v>0.31414723114199999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.30005757663900001</c:v>
+                  <c:v>0.48478348688025003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1318,46 +1357,46 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.42371092346400002</c:v>
+                  <c:v>0.46427536231899996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.1818181818200001E-2</c:v>
+                  <c:v>7.7336495884649997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.31546987603950005</c:v>
+                  <c:v>0.34798971719400001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31770813357275002</c:v>
+                  <c:v>0.31746202578275007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.24936535162944998</c:v>
+                  <c:v>0.42250311332494994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.24696719031350001</c:v>
+                  <c:v>0.35104430237900003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="157387392"/>
-        <c:axId val="157409664"/>
+        <c:axId val="160386432"/>
+        <c:axId val="160396416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="157387392"/>
+        <c:axId val="160386432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157409664"/>
+        <c:crossAx val="160396416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157409664"/>
+        <c:axId val="160396416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1366,7 +1405,7 @@
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157387392"/>
+        <c:crossAx val="160386432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1379,7 +1418,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1459,22 +1498,22 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.6174637903560001</c:v>
+                  <c:v>5.8967247499285005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9258593279462499</c:v>
+                  <c:v>6.8013895545362502</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33759898760833335</c:v>
+                  <c:v>5.6187815400593335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.6337139918219989</c:v>
+                  <c:v>9.623494581871249</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6174637903560001</c:v>
+                  <c:v>5.8967247499285005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.6337139918219989</c:v>
+                  <c:v>9.623494581871249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1527,46 +1566,46 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7.471546932272501</c:v>
+                  <c:v>7.0446247015500001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66.887515181275006</c:v>
+                  <c:v>7.2588259877912495</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.3845339335097506</c:v>
+                  <c:v>6.1343820183860007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1468940193702499</c:v>
+                  <c:v>6.1753825088095002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0432391591574994</c:v>
+                  <c:v>3.7916602643132498</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.519773842702499</c:v>
+                  <c:v>8.1793780217939993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="90766720"/>
-        <c:axId val="118502528"/>
+        <c:axId val="160433664"/>
+        <c:axId val="160435200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="90766720"/>
+        <c:axId val="160433664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118502528"/>
+        <c:crossAx val="160435200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118502528"/>
+        <c:axId val="160435200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1575,7 +1614,7 @@
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90766720"/>
+        <c:crossAx val="160433664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1588,7 +1627,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2061,7 +2100,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2074,124 +2113,124 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1">
         <f>AVERAGE(cv_mse_p550!D10:D13)</f>
-        <v>6.6337139918219989</v>
+        <v>9.623494581871249</v>
       </c>
       <c r="D2" s="2">
         <f>AVERAGE(cv_mse_p550!E10:E13)</f>
-        <v>84.75</v>
+        <v>91</v>
       </c>
       <c r="E2" s="1">
         <f>AVERAGE(cv_mse_p550!F10:F13)</f>
-        <v>0.87439025467025</v>
+        <v>0.81450128927900001</v>
       </c>
       <c r="F2" s="1">
         <f>AVERAGE(cv_mse_p550!G10:G13)</f>
-        <v>0.70643939393949995</v>
+        <v>0.90625</v>
       </c>
       <c r="G2" s="1">
         <f>AVERAGE(cv_mse_p550!H10:H13)</f>
-        <v>0.88479688603675</v>
+        <v>0.88544124498425014</v>
       </c>
       <c r="H2" s="1">
         <f>AVERAGE(cv_mse_p550!I10:I13)</f>
-        <v>0.30005757663900001</v>
+        <v>0.48478348688025003</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1">
         <f>AVERAGE(coef_corr_p550!D2:D5)</f>
-        <v>13.519773842702499</v>
+        <v>8.1793780217939993</v>
       </c>
       <c r="D3" s="2">
         <f>AVERAGE(coef_corr_p550!E2:E5)</f>
-        <v>145.25</v>
+        <v>96</v>
       </c>
       <c r="E3" s="1">
         <f>AVERAGE(coef_corr_p550!F2:F5)</f>
-        <v>0.71015946548724995</v>
+        <v>0.82703576090099995</v>
       </c>
       <c r="F3" s="1">
         <f>AVERAGE(coef_corr_p550!G2:G5)</f>
-        <v>0.87405303030299997</v>
+        <v>0.86363636363624996</v>
       </c>
       <c r="G3" s="1">
         <f>AVERAGE(coef_corr_p550!H2:H5)</f>
-        <v>0.77721899938374994</v>
+        <v>0.87142690752799989</v>
       </c>
       <c r="H3" s="1">
         <f>AVERAGE(coef_corr_p550!I2:I5)</f>
-        <v>0.24696719031350001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>0.35104430237900003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" hidden="1">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C4" s="1">
         <f>AVERAGE(n_pred_p550!D2:D5)</f>
-        <v>56.682780107749998</v>
+        <v>38.701622598750006</v>
       </c>
       <c r="D4" s="2">
         <f>AVERAGE(n_pred_p550!E2:E5)</f>
-        <v>412.25</v>
+        <v>204.5</v>
       </c>
       <c r="E4" s="1">
         <f>AVERAGE(n_pred_p550!F2:F5)</f>
-        <v>0.59807585077225001</v>
+        <v>0.68540531067525001</v>
       </c>
       <c r="F4" s="1">
         <f>AVERAGE(n_pred_p550!G2:G5)</f>
-        <v>0.98958333333324999</v>
+        <v>0.89488636363624996</v>
       </c>
       <c r="G4" s="1">
         <f>AVERAGE(n_pred_p550!H2:H5)</f>
-        <v>0.26463803183102502</v>
+        <v>0.66045477088625004</v>
       </c>
       <c r="H4" s="1">
         <f>AVERAGE(n_pred_p550!I2:I5)</f>
-        <v>8.0364182926250013E-2</v>
+        <v>0.188105500821</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2199,31 +2238,31 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1">
         <f>AVERAGE(cv_mse_p550!D14:D17)</f>
-        <v>2.6174637903560001</v>
+        <v>5.8967247499285005</v>
       </c>
       <c r="D5" s="2">
         <f>AVERAGE(cv_mse_p550!E14:E17)</f>
-        <v>86.5</v>
+        <v>83.25</v>
       </c>
       <c r="E5" s="1">
         <f>AVERAGE(cv_mse_p550!F14:F17)</f>
-        <v>0.89067785787575005</v>
+        <v>0.88586138991200003</v>
       </c>
       <c r="F5" s="1">
         <f>AVERAGE(cv_mse_p550!G14:G17)</f>
-        <v>1</v>
+        <v>0.70643939393949995</v>
       </c>
       <c r="G5" s="1">
         <f>AVERAGE(cv_mse_p550!H14:H17)</f>
-        <v>0.89902538360949991</v>
+        <v>0.88781767083975005</v>
       </c>
       <c r="H5" s="1">
         <f>AVERAGE(cv_mse_p550!I14:I17)</f>
-        <v>0.47685050798249995</v>
+        <v>0.31414723114199999</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2231,63 +2270,63 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1">
         <f>AVERAGE(coef_corr_p550!D6:D9)</f>
-        <v>7.471546932272501</v>
+        <v>7.0446247015500001</v>
       </c>
       <c r="D6" s="2">
         <f>AVERAGE(coef_corr_p550!E6:E9)</f>
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E6" s="1">
         <f>AVERAGE(coef_corr_p550!F6:F9)</f>
-        <v>0.863131337858</v>
+        <v>0.897194951533</v>
       </c>
       <c r="F6" s="1">
         <f>AVERAGE(coef_corr_p550!G6:G9)</f>
-        <v>0.83712121212099999</v>
+        <v>0.75852272727274994</v>
       </c>
       <c r="G6" s="1">
         <f>AVERAGE(coef_corr_p550!H6:H9)</f>
-        <v>0.90653601647149995</v>
+        <v>0.92375899848224996</v>
       </c>
       <c r="H6" s="1">
         <f>AVERAGE(coef_corr_p550!I6:I9)</f>
-        <v>0.42371092346400002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.46427536231899996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" hidden="1">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C7" s="1">
         <f>AVERAGE(n_pred_p550!D6:D9)</f>
-        <v>54.953393667724995</v>
+        <v>40.076098634874995</v>
       </c>
       <c r="D7" s="2">
         <f>AVERAGE(n_pred_p550!E6:E9)</f>
-        <v>346</v>
+        <v>231.75</v>
       </c>
       <c r="E7" s="1">
         <f>AVERAGE(n_pred_p550!F6:F9)</f>
-        <v>0.66264569380924998</v>
+        <v>0.73212441629199998</v>
       </c>
       <c r="F7" s="1">
         <f>AVERAGE(n_pred_p550!G6:G9)</f>
-        <v>0.97916666666675001</v>
+        <v>0.88825757575775</v>
       </c>
       <c r="G7" s="1">
         <f>AVERAGE(n_pred_p550!H6:H9)</f>
-        <v>0.39332571875150002</v>
+        <v>0.60841198394899998</v>
       </c>
       <c r="H7" s="1">
         <f>AVERAGE(n_pred_p550!I6:I9)</f>
-        <v>9.5006122026824999E-2</v>
+        <v>0.22991238546455001</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2295,19 +2334,19 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1">
         <f>AVERAGE(cv_mse_p550!D18:D21)</f>
-        <v>1.9258593279462499</v>
+        <v>6.8013895545362502</v>
       </c>
       <c r="D8" s="2">
         <f>AVERAGE(cv_mse_p550!E18:E21)</f>
-        <v>309.5</v>
+        <v>454.5</v>
       </c>
       <c r="E8" s="1">
         <f>AVERAGE(cv_mse_p550!F18:F21)</f>
-        <v>0.94482250247099997</v>
+        <v>0.79968872517774992</v>
       </c>
       <c r="F8" s="1">
         <f>AVERAGE(cv_mse_p550!G18:G21)</f>
@@ -2315,11 +2354,11 @@
       </c>
       <c r="G8" s="1">
         <f>AVERAGE(cv_mse_p550!H18:H21)</f>
-        <v>0.46024887659875002</v>
+        <v>0.18674386450032499</v>
       </c>
       <c r="H8" s="1">
         <f>AVERAGE(cv_mse_p550!I18:I21)</f>
-        <v>0.12867606600922502</v>
+        <v>7.8298817300000004E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2327,19 +2366,19 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C9" s="1">
         <f>AVERAGE(coef_corr_p550!D10:D13)</f>
-        <v>66.887515181275006</v>
+        <v>7.2588259877912495</v>
       </c>
       <c r="D9" s="2">
         <f>AVERAGE(coef_corr_p550!E10:E13)</f>
-        <v>550</v>
+        <v>464.25</v>
       </c>
       <c r="E9" s="1">
         <f>AVERAGE(coef_corr_p550!F10:F13)</f>
-        <v>0.59016989296174993</v>
+        <v>0.79625363299074992</v>
       </c>
       <c r="F9" s="1">
         <f>AVERAGE(coef_corr_p550!G10:G13)</f>
@@ -2347,43 +2386,43 @@
       </c>
       <c r="G9" s="1">
         <f>AVERAGE(coef_corr_p550!H10:H13)</f>
-        <v>0</v>
+        <v>0.168207742827375</v>
       </c>
       <c r="H9" s="1">
         <f>AVERAGE(coef_corr_p550!I10:I13)</f>
-        <v>6.1818181818200001E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>7.7336495884649997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" hidden="1">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1">
         <f>AVERAGE(n_pred_p550!D10:D13)</f>
-        <v>62.633230190925005</v>
+        <v>9.9146062767374996</v>
       </c>
       <c r="D10" s="2">
         <f>AVERAGE(n_pred_p550!E10:E13)</f>
-        <v>550</v>
+        <v>315.5</v>
       </c>
       <c r="E10" s="1">
         <f>AVERAGE(n_pred_p550!F10:F13)</f>
-        <v>0.59166417494574997</v>
+        <v>0.75681388638449998</v>
       </c>
       <c r="F10" s="1">
         <f>AVERAGE(n_pred_p550!G10:G13)</f>
-        <v>1</v>
+        <v>0.98958333333324999</v>
       </c>
       <c r="G10" s="1">
         <f>AVERAGE(n_pred_p550!H10:H13)</f>
-        <v>0</v>
+        <v>0.44893032657542503</v>
       </c>
       <c r="H10" s="1">
         <f>AVERAGE(n_pred_p550!I10:I13)</f>
-        <v>6.1818181818200001E-2</v>
+        <v>0.11670220692244999</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2391,31 +2430,31 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C11" s="1">
         <f>AVERAGE(cv_mse_p550!D22:D24)</f>
-        <v>0.33759898760833335</v>
+        <v>5.6187815400593335</v>
       </c>
       <c r="D11" s="2">
         <f>AVERAGE(cv_mse_p550!E22:E24)</f>
-        <v>248.33333333333334</v>
+        <v>122.66666666666667</v>
       </c>
       <c r="E11" s="1">
         <f>AVERAGE(cv_mse_p550!F22:F24)</f>
-        <v>0.99799146071300004</v>
+        <v>0.92423367661666667</v>
       </c>
       <c r="F11" s="1">
         <f>AVERAGE(cv_mse_p550!G22:G24)</f>
-        <v>0.875</v>
+        <v>0.74747474747466658</v>
       </c>
       <c r="G11" s="1">
         <f>AVERAGE(cv_mse_p550!H22:H24)</f>
-        <v>0.57817720935599992</v>
+        <v>0.81586488124766665</v>
       </c>
       <c r="H11" s="1">
         <f>AVERAGE(cv_mse_p550!I22:I24)</f>
-        <v>0.21925556663366666</v>
+        <v>0.25975361116866663</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2423,63 +2462,63 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C12" s="1">
         <f>AVERAGE(coef_corr_p550!D14:D17)</f>
-        <v>5.3845339335097506</v>
+        <v>6.1343820183860007</v>
       </c>
       <c r="D12" s="2">
         <f>AVERAGE(coef_corr_p550!E14:E17)</f>
-        <v>113.75</v>
+        <v>98.5</v>
       </c>
       <c r="E12" s="1">
         <f>AVERAGE(coef_corr_p550!F14:F17)</f>
-        <v>0.88447908120399998</v>
+        <v>0.88516118581600001</v>
       </c>
       <c r="F12" s="1">
         <f>AVERAGE(coef_corr_p550!G14:G17)</f>
-        <v>0.86837121212125001</v>
+        <v>0.86363636363624996</v>
       </c>
       <c r="G12" s="1">
         <f>AVERAGE(coef_corr_p550!H14:H17)</f>
-        <v>0.83764408842900007</v>
+        <v>0.86571597108450005</v>
       </c>
       <c r="H12" s="1">
         <f>AVERAGE(coef_corr_p550!I14:I17)</f>
-        <v>0.31546987603950005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.34798971719400001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" hidden="1">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(n_pred_p550!D14:D17)</f>
-        <v>10.223551469989751</v>
+        <v>5.6804533816842504</v>
       </c>
       <c r="D13" s="2">
         <f>AVERAGE(n_pred_p550!E14:E17)</f>
-        <v>217.75</v>
+        <v>111</v>
       </c>
       <c r="E13" s="1">
         <f>AVERAGE(n_pred_p550!F14:F17)</f>
-        <v>0.84760458692150009</v>
+        <v>0.88316159392275007</v>
       </c>
       <c r="F13" s="1">
         <f>AVERAGE(n_pred_p550!G14:G17)</f>
-        <v>0.95833333333324999</v>
+        <v>0.81155303030299997</v>
       </c>
       <c r="G13" s="1">
         <f>AVERAGE(n_pred_p550!H14:H17)</f>
-        <v>0.64002878011375008</v>
+        <v>0.83983829032574997</v>
       </c>
       <c r="H13" s="1">
         <f>AVERAGE(n_pred_p550!I14:I17)</f>
-        <v>0.19172965678824999</v>
+        <v>0.2622794731925</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2487,31 +2526,31 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C14" s="1">
         <f>AVERAGE(cv_mse_p550!D10:D13)</f>
-        <v>6.6337139918219989</v>
+        <v>9.623494581871249</v>
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(cv_mse_p550!E10:E13)</f>
-        <v>84.75</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1">
         <f>AVERAGE(cv_mse_p550!F10:F13)</f>
-        <v>0.87439025467025</v>
+        <v>0.81450128927900001</v>
       </c>
       <c r="F14" s="1">
         <f>AVERAGE(cv_mse_p550!G10:G13)</f>
-        <v>0.70643939393949995</v>
+        <v>0.90625</v>
       </c>
       <c r="G14" s="1">
         <f>AVERAGE(cv_mse_p550!H10:H13)</f>
-        <v>0.88479688603675</v>
+        <v>0.88544124498425014</v>
       </c>
       <c r="H14" s="1">
         <f>AVERAGE(cv_mse_p550!I10:I13)</f>
-        <v>0.30005757663900001</v>
+        <v>0.48478348688025003</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2519,19 +2558,19 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C15" s="1">
         <f>AVERAGE(coef_corr_p550!D18:D21)</f>
-        <v>6.1468940193702499</v>
+        <v>6.1753825088095002</v>
       </c>
       <c r="D15" s="2">
         <f>AVERAGE(coef_corr_p550!E18:E21)</f>
-        <v>77.5</v>
+        <v>73.5</v>
       </c>
       <c r="E15" s="1">
         <f>AVERAGE(coef_corr_p550!F18:F21)</f>
-        <v>0.89505861902024997</v>
+        <v>0.89142550598350001</v>
       </c>
       <c r="F15" s="1">
         <f>AVERAGE(coef_corr_p550!G18:G21)</f>
@@ -2539,19 +2578,19 @@
       </c>
       <c r="G15" s="1">
         <f>AVERAGE(coef_corr_p550!H18:H21)</f>
-        <v>0.89768030778950003</v>
+        <v>0.904890365049</v>
       </c>
       <c r="H15" s="1">
         <f>AVERAGE(coef_corr_p550!I18:I21)</f>
-        <v>0.31770813357275002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.31746202578275007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" hidden="1">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C16" s="1">
         <f>AVERAGE(n_pred_p550!D18:D21)</f>
@@ -2583,31 +2622,31 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C17" s="1">
         <f>AVERAGE(cv_mse_p550!D14:D17)</f>
-        <v>2.6174637903560001</v>
+        <v>5.8967247499285005</v>
       </c>
       <c r="D17" s="2">
         <f>AVERAGE(cv_mse_p550!E14:E17)</f>
-        <v>86.5</v>
+        <v>83.25</v>
       </c>
       <c r="E17" s="1">
         <f>AVERAGE(cv_mse_p550!F14:F17)</f>
-        <v>0.89067785787575005</v>
+        <v>0.88586138991200003</v>
       </c>
       <c r="F17" s="1">
         <f>AVERAGE(cv_mse_p550!G14:G17)</f>
-        <v>1</v>
+        <v>0.70643939393949995</v>
       </c>
       <c r="G17" s="1">
         <f>AVERAGE(cv_mse_p550!H14:H17)</f>
-        <v>0.89902538360949991</v>
+        <v>0.88781767083975005</v>
       </c>
       <c r="H17" s="1">
         <f>AVERAGE(cv_mse_p550!I14:I17)</f>
-        <v>0.47685050798249995</v>
+        <v>0.31414723114199999</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2615,19 +2654,19 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C18" s="1">
         <f>AVERAGE(coef_corr_p550!D22:D25)</f>
-        <v>7.0432391591574994</v>
+        <v>3.7916602643132498</v>
       </c>
       <c r="D18" s="2">
         <f>AVERAGE(coef_corr_p550!E22:E25)</f>
-        <v>425.75</v>
+        <v>304.25</v>
       </c>
       <c r="E18" s="1">
         <f>AVERAGE(coef_corr_p550!F22:F25)</f>
-        <v>0.83381209065974993</v>
+        <v>0.87810277978649998</v>
       </c>
       <c r="F18" s="1">
         <f>AVERAGE(coef_corr_p550!G22:G25)</f>
@@ -2635,31 +2674,31 @@
       </c>
       <c r="G18" s="1">
         <f>AVERAGE(coef_corr_p550!H22:H25)</f>
-        <v>0.24555335968375</v>
+        <v>0.485671936759</v>
       </c>
       <c r="H18" s="1">
         <f>AVERAGE(coef_corr_p550!I22:I25)</f>
-        <v>0.24936535162944998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>0.42250311332494994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" hidden="1">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C19" s="1">
         <f>AVERAGE(n_pred_p550!D22:D25)</f>
-        <v>3.4014042494170003</v>
+        <v>3.249344381107</v>
       </c>
       <c r="D19" s="2">
         <f>AVERAGE(n_pred_p550!E22:E25)</f>
-        <v>549.75</v>
+        <v>438.75</v>
       </c>
       <c r="E19" s="1">
         <f>AVERAGE(n_pred_p550!F22:F25)</f>
-        <v>0.8826516487187499</v>
+        <v>0.8809742197972501</v>
       </c>
       <c r="F19" s="1">
         <f>AVERAGE(n_pred_p550!G22:G25)</f>
@@ -2667,65 +2706,65 @@
       </c>
       <c r="G19" s="1">
         <f>AVERAGE(n_pred_p550!H22:H25)</f>
-        <v>4.9407114624499995E-4</v>
+        <v>0.21986166007899499</v>
       </c>
       <c r="H19" s="1">
         <f>AVERAGE(n_pred_p550!I22:I25)</f>
-        <v>6.1854611690700001E-2</v>
+        <v>0.14562819659645002</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="B21" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11">
       <c r="B22" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F22" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G22" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H22" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="I22" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J22" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K22" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2734,43 +2773,43 @@
       </c>
       <c r="B23" s="1">
         <f>C5</f>
-        <v>2.6174637903560001</v>
+        <v>5.8967247499285005</v>
       </c>
       <c r="C23" s="1">
         <f>C6</f>
-        <v>7.471546932272501</v>
+        <v>7.0446247015500001</v>
       </c>
       <c r="D23" s="1">
         <f>E5</f>
-        <v>0.89067785787575005</v>
+        <v>0.88586138991200003</v>
       </c>
       <c r="E23" s="1">
         <f>E6</f>
-        <v>0.863131337858</v>
+        <v>0.897194951533</v>
       </c>
       <c r="F23" s="1">
         <f>F5</f>
-        <v>1</v>
+        <v>0.70643939393949995</v>
       </c>
       <c r="G23" s="1">
         <f>F6</f>
-        <v>0.83712121212099999</v>
+        <v>0.75852272727274994</v>
       </c>
       <c r="H23" s="1">
         <f>G5</f>
-        <v>0.89902538360949991</v>
+        <v>0.88781767083975005</v>
       </c>
       <c r="I23" s="1">
         <f>G6</f>
-        <v>0.90653601647149995</v>
+        <v>0.92375899848224996</v>
       </c>
       <c r="J23" s="1">
         <f>H5</f>
-        <v>0.47685050798249995</v>
+        <v>0.31414723114199999</v>
       </c>
       <c r="K23" s="1">
         <f>H6</f>
-        <v>0.42371092346400002</v>
+        <v>0.46427536231899996</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2779,19 +2818,19 @@
       </c>
       <c r="B24" s="1">
         <f>C8</f>
-        <v>1.9258593279462499</v>
+        <v>6.8013895545362502</v>
       </c>
       <c r="C24" s="1">
         <f>C9</f>
-        <v>66.887515181275006</v>
+        <v>7.2588259877912495</v>
       </c>
       <c r="D24" s="1">
         <f>E8</f>
-        <v>0.94482250247099997</v>
+        <v>0.79968872517774992</v>
       </c>
       <c r="E24" s="1">
         <f>E9</f>
-        <v>0.59016989296174993</v>
+        <v>0.79625363299074992</v>
       </c>
       <c r="F24" s="1">
         <f>F8</f>
@@ -2803,19 +2842,19 @@
       </c>
       <c r="H24" s="1">
         <f>G8</f>
-        <v>0.46024887659875002</v>
+        <v>0.18674386450032499</v>
       </c>
       <c r="I24" s="1">
         <f>G9</f>
-        <v>0</v>
+        <v>0.168207742827375</v>
       </c>
       <c r="J24" s="1">
         <f>H8</f>
-        <v>0.12867606600922502</v>
+        <v>7.8298817300000004E-2</v>
       </c>
       <c r="K24" s="1">
         <f>H9</f>
-        <v>6.1818181818200001E-2</v>
+        <v>7.7336495884649997E-2</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2824,43 +2863,43 @@
       </c>
       <c r="B25" s="1">
         <f>C11</f>
-        <v>0.33759898760833335</v>
+        <v>5.6187815400593335</v>
       </c>
       <c r="C25" s="1">
         <f>C12</f>
-        <v>5.3845339335097506</v>
+        <v>6.1343820183860007</v>
       </c>
       <c r="D25" s="1">
         <f>E11</f>
-        <v>0.99799146071300004</v>
+        <v>0.92423367661666667</v>
       </c>
       <c r="E25" s="1">
         <f>E12</f>
-        <v>0.88447908120399998</v>
+        <v>0.88516118581600001</v>
       </c>
       <c r="F25" s="1">
         <f>F11</f>
-        <v>0.875</v>
+        <v>0.74747474747466658</v>
       </c>
       <c r="G25" s="1">
         <f>F12</f>
-        <v>0.86837121212125001</v>
+        <v>0.86363636363624996</v>
       </c>
       <c r="H25" s="1">
         <f>G11</f>
-        <v>0.57817720935599992</v>
+        <v>0.81586488124766665</v>
       </c>
       <c r="I25" s="1">
         <f>G12</f>
-        <v>0.83764408842900007</v>
+        <v>0.86571597108450005</v>
       </c>
       <c r="J25" s="1">
         <f>H11</f>
-        <v>0.21925556663366666</v>
+        <v>0.25975361116866663</v>
       </c>
       <c r="K25" s="1">
         <f>H12</f>
-        <v>0.31546987603950005</v>
+        <v>0.34798971719400001</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2869,23 +2908,23 @@
       </c>
       <c r="B26" s="1">
         <f>C14</f>
-        <v>6.6337139918219989</v>
+        <v>9.623494581871249</v>
       </c>
       <c r="C26" s="1">
         <f>C15</f>
-        <v>6.1468940193702499</v>
+        <v>6.1753825088095002</v>
       </c>
       <c r="D26" s="1">
         <f>E14</f>
-        <v>0.87439025467025</v>
+        <v>0.81450128927900001</v>
       </c>
       <c r="E26" s="1">
         <f>E15</f>
-        <v>0.89505861902024997</v>
+        <v>0.89142550598350001</v>
       </c>
       <c r="F26" s="1">
         <f>F14</f>
-        <v>0.70643939393949995</v>
+        <v>0.90625</v>
       </c>
       <c r="G26" s="1">
         <f>F15</f>
@@ -2893,19 +2932,19 @@
       </c>
       <c r="H26" s="1">
         <f>G14</f>
-        <v>0.88479688603675</v>
+        <v>0.88544124498425014</v>
       </c>
       <c r="I26" s="1">
         <f>G15</f>
-        <v>0.89768030778950003</v>
+        <v>0.904890365049</v>
       </c>
       <c r="J26" s="1">
         <f>H14</f>
-        <v>0.30005757663900001</v>
+        <v>0.48478348688025003</v>
       </c>
       <c r="K26" s="1">
         <f>H15</f>
-        <v>0.31770813357275002</v>
+        <v>0.31746202578275007</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2914,23 +2953,23 @@
       </c>
       <c r="B27" s="1">
         <f>C17</f>
-        <v>2.6174637903560001</v>
+        <v>5.8967247499285005</v>
       </c>
       <c r="C27" s="1">
         <f>C18</f>
-        <v>7.0432391591574994</v>
+        <v>3.7916602643132498</v>
       </c>
       <c r="D27" s="1">
         <f>E17</f>
-        <v>0.89067785787575005</v>
+        <v>0.88586138991200003</v>
       </c>
       <c r="E27" s="1">
         <f>E18</f>
-        <v>0.83381209065974993</v>
+        <v>0.87810277978649998</v>
       </c>
       <c r="F27" s="1">
         <f>F17</f>
-        <v>1</v>
+        <v>0.70643939393949995</v>
       </c>
       <c r="G27" s="1">
         <f>F18</f>
@@ -2938,64 +2977,64 @@
       </c>
       <c r="H27" s="1">
         <f>G17</f>
-        <v>0.89902538360949991</v>
+        <v>0.88781767083975005</v>
       </c>
       <c r="I27" s="1">
         <f>G18</f>
-        <v>0.24555335968375</v>
+        <v>0.485671936759</v>
       </c>
       <c r="J27" s="1">
         <f>H17</f>
-        <v>0.47685050798249995</v>
+        <v>0.31414723114199999</v>
       </c>
       <c r="K27" s="1">
         <f>H18</f>
-        <v>0.24936535162944998</v>
+        <v>0.42250311332494994</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="1">
         <f>C2</f>
-        <v>6.6337139918219989</v>
+        <v>9.623494581871249</v>
       </c>
       <c r="C28" s="1">
         <f>C3</f>
-        <v>13.519773842702499</v>
+        <v>8.1793780217939993</v>
       </c>
       <c r="D28" s="1">
         <f>E2</f>
-        <v>0.87439025467025</v>
+        <v>0.81450128927900001</v>
       </c>
       <c r="E28" s="1">
         <f>E3</f>
-        <v>0.71015946548724995</v>
+        <v>0.82703576090099995</v>
       </c>
       <c r="F28" s="1">
         <f>F2</f>
-        <v>0.70643939393949995</v>
+        <v>0.90625</v>
       </c>
       <c r="G28" s="1">
         <f>F3</f>
-        <v>0.87405303030299997</v>
+        <v>0.86363636363624996</v>
       </c>
       <c r="H28" s="1">
         <f>G2</f>
-        <v>0.88479688603675</v>
+        <v>0.88544124498425014</v>
       </c>
       <c r="I28" s="1">
         <f>G3</f>
-        <v>0.77721899938374994</v>
+        <v>0.87142690752799989</v>
       </c>
       <c r="J28" s="1">
         <f>H2</f>
-        <v>0.30005757663900001</v>
+        <v>0.48478348688025003</v>
       </c>
       <c r="K28" s="1">
         <f>H3</f>
-        <v>0.24696719031350001</v>
+        <v>0.35104430237900003</v>
       </c>
     </row>
   </sheetData>
@@ -3014,17 +3053,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D13"/>
+      <selection activeCell="A18" sqref="A18:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
@@ -3063,258 +3102,258 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="D2">
-        <v>2.4110449749299998</v>
+        <v>1.3508563917900001</v>
       </c>
       <c r="E2">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F2">
-        <v>0.95635711267099999</v>
+        <v>0.98498985471599998</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0.93280632411099995</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.56410256410299997</v>
       </c>
       <c r="J2" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="D3">
-        <v>4.2385698059900001</v>
+        <v>16.412046992099999</v>
       </c>
       <c r="E3">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="F3">
-        <v>0.96157839190600003</v>
+        <v>0.77240259873200001</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0.65909090909099999</v>
       </c>
       <c r="H3">
         <v>0.87747035573099996</v>
       </c>
       <c r="I3">
-        <v>0.41509433962300002</v>
+        <v>0.31868131868100003</v>
       </c>
       <c r="J3" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="D4">
-        <v>19.184145621999999</v>
+        <v>0.19301668483600001</v>
       </c>
       <c r="E4">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="F4">
-        <v>0.53214553176199997</v>
+        <v>0.99920281877999995</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="H4">
-        <v>0.84600760456299995</v>
+        <v>0.93346007604600001</v>
       </c>
       <c r="I4">
-        <v>0.22857142857099999</v>
+        <v>0.3</v>
       </c>
       <c r="J4" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="D5">
-        <v>2.7927317113600001</v>
+        <v>5.0394186583999998</v>
       </c>
       <c r="E5">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F5">
-        <v>0.95690343435500003</v>
+        <v>0.81029097540899997</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0.54166666666700003</v>
       </c>
       <c r="H5">
-        <v>0.87262357414400005</v>
+        <v>0.86692015209100004</v>
       </c>
       <c r="I5">
-        <v>0.26373626373600001</v>
+        <v>0.156626506024</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>125.394535015</v>
+        <v>2.4110449749299998</v>
       </c>
       <c r="E6">
-        <v>550</v>
+        <v>44</v>
       </c>
       <c r="F6">
-        <v>0.75962030470599995</v>
+        <v>0.95635711267099999</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0.08</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>49.706148578899999</v>
+        <v>4.2385698059900001</v>
       </c>
       <c r="E7">
-        <v>550</v>
+        <v>106</v>
       </c>
       <c r="F7">
-        <v>0.52890493403000005</v>
+        <v>0.96157839190600003</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.87747035573099996</v>
       </c>
       <c r="I7">
-        <v>0.08</v>
+        <v>0.41509433962300002</v>
       </c>
       <c r="J7" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>35.586745192199999</v>
+        <v>19.184145621999999</v>
       </c>
       <c r="E8">
-        <v>550</v>
+        <v>105</v>
       </c>
       <c r="F8">
-        <v>0.59816862354599998</v>
+        <v>0.53214553176199997</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.84600760456299995</v>
       </c>
       <c r="I8">
-        <v>4.36363636364E-2</v>
+        <v>0.22857142857099999</v>
       </c>
       <c r="J8" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>31.065573648499999</v>
+        <v>2.7927317113600001</v>
       </c>
       <c r="E9">
-        <v>550</v>
+        <v>91</v>
       </c>
       <c r="F9">
-        <v>0.48040378283200003</v>
+        <v>0.95690343435500003</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.87262357414400005</v>
       </c>
       <c r="I9">
-        <v>4.36363636364E-2</v>
+        <v>0.26373626373600001</v>
       </c>
       <c r="J9" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3325,508 +3364,1020 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>4.0995340844200001</v>
+        <v>0.32782424822099998</v>
       </c>
       <c r="E10">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="F10">
-        <v>0.94846109737200002</v>
+        <v>0.99903227312099996</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>0.91897233201600004</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0.51764705882399997</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>16.437790415999999</v>
+        <v>24.388142224399999</v>
       </c>
       <c r="E11">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="F11">
-        <v>0.76030484297300005</v>
+        <v>0.65439063613299997</v>
       </c>
       <c r="G11">
-        <v>0.65909090909099999</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0.86166007905099995</v>
+        <v>0.79841897233199999</v>
       </c>
       <c r="I11">
-        <v>0.292929292929</v>
+        <v>0.30136986301399998</v>
       </c>
       <c r="J11" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D12">
-        <v>0.19317779509800001</v>
+        <v>0.19830136276400001</v>
       </c>
       <c r="E12">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="F12">
-        <v>0.99924710721999999</v>
+        <v>0.99764887958000004</v>
       </c>
       <c r="G12">
         <v>0.625</v>
       </c>
       <c r="H12">
-        <v>0.91634980988600001</v>
+        <v>0.96768060836500003</v>
       </c>
       <c r="I12">
-        <v>0.25423728813599999</v>
+        <v>0.46875</v>
       </c>
       <c r="J12" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>5.8043536717700004</v>
+        <v>13.5797104921</v>
       </c>
       <c r="E13">
+        <v>142</v>
+      </c>
+      <c r="F13">
+        <v>0.60693336828199995</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0.77566539924</v>
+      </c>
+      <c r="I13">
+        <v>0.16901408450700001</v>
+      </c>
+      <c r="J13" t="s">
         <v>96</v>
-      </c>
-      <c r="F13">
-        <v>0.78954797111599995</v>
-      </c>
-      <c r="G13">
-        <v>0.54166666666700003</v>
-      </c>
-      <c r="H13">
-        <v>0.84220532319399999</v>
-      </c>
-      <c r="I13">
-        <v>0.135416666667</v>
-      </c>
-      <c r="J13" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>0.42066450455400001</v>
+        <v>0.96372407213300004</v>
       </c>
       <c r="E14">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="F14">
-        <v>0.99987094385099995</v>
+        <v>0.99514219310499996</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0.93873517786600003</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0.58666666666699996</v>
       </c>
       <c r="J14" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>1.22863233379</v>
+        <v>16.442988547599999</v>
       </c>
       <c r="E15">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F15">
-        <v>0.99244158771299995</v>
+        <v>0.76016886270200001</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0.65909090909099999</v>
       </c>
       <c r="H15">
-        <v>0.87747035573099996</v>
+        <v>0.85968379446599996</v>
       </c>
       <c r="I15">
-        <v>0.41509433962300002</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J15" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>1.9187604113000001</v>
+        <v>0.21871281235100001</v>
       </c>
       <c r="E16">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="F16">
-        <v>0.86879025781499997</v>
+        <v>0.99859150064400004</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="H16">
-        <v>0.84600760456299995</v>
+        <v>0.91254752851700005</v>
       </c>
       <c r="I16">
-        <v>0.22857142857099999</v>
+        <v>0.245901639344</v>
       </c>
       <c r="J16" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>6.9017979117800001</v>
+        <v>5.9614735676299997</v>
       </c>
       <c r="E17">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F17">
-        <v>0.70160864212399998</v>
+        <v>0.78954300319699999</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0.54166666666700003</v>
       </c>
       <c r="H17">
-        <v>0.87262357414400005</v>
+        <v>0.84030418251000005</v>
       </c>
       <c r="I17">
-        <v>0.26373626373600001</v>
+        <v>0.13402061855700001</v>
       </c>
       <c r="J17" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>0.50734860157899997</v>
+        <v>0.88713305099499995</v>
       </c>
       <c r="E18">
-        <v>462</v>
+        <v>365</v>
       </c>
       <c r="F18">
-        <v>0.99945328370999997</v>
+        <v>0.98442467646599996</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>0.17391304347799999</v>
+        <v>0.36561264822099998</v>
       </c>
       <c r="I18">
-        <v>9.5238095238100007E-2</v>
+        <v>0.12054794520500001</v>
       </c>
       <c r="J18" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>0.67293110845299997</v>
+        <v>16.299756353799999</v>
       </c>
       <c r="E19">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="F19">
-        <v>0.99541860119699999</v>
+        <v>0.75232241364499997</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>0.14426877470400001</v>
+        <v>0.17984189723300001</v>
       </c>
       <c r="I19">
-        <v>9.2243186582799994E-2</v>
+        <v>9.5860566448800005E-2</v>
       </c>
       <c r="J19" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D20">
-        <v>0.34544763841300002</v>
+        <v>3.2648462895699999</v>
       </c>
       <c r="E20">
-        <v>129</v>
+        <v>520</v>
       </c>
       <c r="F20">
-        <v>0.998208578229</v>
+        <v>0.82339652080600001</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>0.80038022813700005</v>
+        <v>5.7034220532299999E-2</v>
       </c>
       <c r="I20">
-        <v>0.18604651162800001</v>
+        <v>4.6153846153799999E-2</v>
       </c>
       <c r="J20" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D21">
-        <v>6.1777099633399999</v>
+        <v>6.7538225237800003</v>
       </c>
       <c r="E21">
-        <v>170</v>
+        <v>474</v>
       </c>
       <c r="F21">
-        <v>0.78620954674800003</v>
+        <v>0.63861128979399995</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>0.72243346007599996</v>
+        <v>0.144486692015</v>
       </c>
       <c r="I21">
-        <v>0.14117647058800001</v>
+        <v>5.0632911392399997E-2</v>
       </c>
       <c r="J21" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D22">
-        <v>0.34136266777199997</v>
+        <v>0.33150372368300002</v>
       </c>
       <c r="E22">
-        <v>136</v>
+        <v>224</v>
       </c>
       <c r="F22">
-        <v>0.9999780251</v>
+        <v>0.99997705778900003</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>0.81818181818199998</v>
+        <v>0.64426877470400001</v>
       </c>
       <c r="I22">
-        <v>0.323529411765</v>
+        <v>0.196428571429</v>
       </c>
       <c r="J22" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D23">
-        <v>0.35076096538000001</v>
+        <v>16.340459614899999</v>
       </c>
       <c r="E23">
-        <v>550</v>
+        <v>91</v>
       </c>
       <c r="F23">
-        <v>0.99558420571299999</v>
+        <v>0.77341458180599998</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0.65909090909099999</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.87747035573099996</v>
       </c>
       <c r="I23">
-        <v>0.08</v>
+        <v>0.31868131868100003</v>
       </c>
       <c r="J23" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D24">
-        <v>0.320673329673</v>
+        <v>0.184381281595</v>
       </c>
       <c r="E24">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F24">
-        <v>0.99841215132600003</v>
+        <v>0.99930939025499999</v>
       </c>
       <c r="G24">
-        <v>0.625</v>
+        <v>0.58333333333299997</v>
       </c>
       <c r="H24">
-        <v>0.91634980988600001</v>
+        <v>0.92585551330799998</v>
       </c>
       <c r="I24">
-        <v>0.25423728813599999</v>
+        <v>0.26415094339599998</v>
       </c>
       <c r="J24" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
       </c>
       <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <v>6.3127543503199997</v>
+      </c>
+      <c r="E25">
+        <v>99</v>
+      </c>
+      <c r="F25">
+        <v>0.78511227174300002</v>
+      </c>
+      <c r="G25">
+        <v>0.58333333333299997</v>
+      </c>
+      <c r="H25">
+        <v>0.83840304182500003</v>
+      </c>
+      <c r="I25">
+        <v>0.14141414141399999</v>
+      </c>
+      <c r="J25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>4.0995340844200001</v>
+      </c>
+      <c r="E26">
+        <v>85</v>
+      </c>
+      <c r="F26">
+        <v>0.94846109737200002</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>0.91897233201600004</v>
+      </c>
+      <c r="I26">
+        <v>0.51764705882399997</v>
+      </c>
+      <c r="J26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27">
+        <v>16.437790415999999</v>
+      </c>
+      <c r="E27">
+        <v>99</v>
+      </c>
+      <c r="F27">
+        <v>0.76030484297300005</v>
+      </c>
+      <c r="G27">
+        <v>0.65909090909099999</v>
+      </c>
+      <c r="H27">
+        <v>0.86166007905099995</v>
+      </c>
+      <c r="I27">
+        <v>0.292929292929</v>
+      </c>
+      <c r="J27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28">
+        <v>0.19317779509800001</v>
+      </c>
+      <c r="E28">
+        <v>59</v>
+      </c>
+      <c r="F28">
+        <v>0.99924710721999999</v>
+      </c>
+      <c r="G28">
+        <v>0.625</v>
+      </c>
+      <c r="H28">
+        <v>0.91634980988600001</v>
+      </c>
+      <c r="I28">
+        <v>0.25423728813599999</v>
+      </c>
+      <c r="J28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29">
+        <v>5.8043536717700004</v>
+      </c>
+      <c r="E29">
+        <v>96</v>
+      </c>
+      <c r="F29">
+        <v>0.78954797111599995</v>
+      </c>
+      <c r="G29">
+        <v>0.54166666666700003</v>
+      </c>
+      <c r="H29">
+        <v>0.84220532319399999</v>
+      </c>
+      <c r="I29">
+        <v>0.135416666667</v>
+      </c>
+      <c r="J29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30">
+        <v>0.42066450455400001</v>
+      </c>
+      <c r="E30">
+        <v>44</v>
+      </c>
+      <c r="F30">
+        <v>0.99987094385099995</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31">
+        <v>1.22863233379</v>
+      </c>
+      <c r="E31">
+        <v>106</v>
+      </c>
+      <c r="F31">
+        <v>0.99244158771299995</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0.87747035573099996</v>
+      </c>
+      <c r="I31">
+        <v>0.41509433962300002</v>
+      </c>
+      <c r="J31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32">
+        <v>1.9187604113000001</v>
+      </c>
+      <c r="E32">
+        <v>105</v>
+      </c>
+      <c r="F32">
+        <v>0.86879025781499997</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>0.84600760456299995</v>
+      </c>
+      <c r="I32">
+        <v>0.22857142857099999</v>
+      </c>
+      <c r="J32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33">
+        <v>6.9017979117800001</v>
+      </c>
+      <c r="E33">
+        <v>91</v>
+      </c>
+      <c r="F33">
+        <v>0.70160864212399998</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>0.87262357414400005</v>
+      </c>
+      <c r="I33">
+        <v>0.26373626373600001</v>
+      </c>
+      <c r="J33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34">
+        <v>0.50734860157899997</v>
+      </c>
+      <c r="E34">
+        <v>462</v>
+      </c>
+      <c r="F34">
+        <v>0.99945328370999997</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>0.17391304347799999</v>
+      </c>
+      <c r="I34">
+        <v>9.5238095238100007E-2</v>
+      </c>
+      <c r="J34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35">
+        <v>0.67293110845299997</v>
+      </c>
+      <c r="E35">
+        <v>477</v>
+      </c>
+      <c r="F35">
+        <v>0.99541860119699999</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>0.14426877470400001</v>
+      </c>
+      <c r="I35">
+        <v>9.2243186582799994E-2</v>
+      </c>
+      <c r="J35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36">
+        <v>0.34544763841300002</v>
+      </c>
+      <c r="E36">
+        <v>129</v>
+      </c>
+      <c r="F36">
+        <v>0.998208578229</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>0.80038022813700005</v>
+      </c>
+      <c r="I36">
+        <v>0.18604651162800001</v>
+      </c>
+      <c r="J36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37">
+        <v>6.1777099633399999</v>
+      </c>
+      <c r="E37">
+        <v>170</v>
+      </c>
+      <c r="F37">
+        <v>0.78620954674800003</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>0.72243346007599996</v>
+      </c>
+      <c r="I37">
+        <v>0.14117647058800001</v>
+      </c>
+      <c r="J37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
         <v>22</v>
       </c>
-      <c r="D25">
+      <c r="D38">
+        <v>0.34136266777199997</v>
+      </c>
+      <c r="E38">
+        <v>136</v>
+      </c>
+      <c r="F38">
+        <v>0.9999780251</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>0.81818181818199998</v>
+      </c>
+      <c r="I38">
+        <v>0.323529411765</v>
+      </c>
+      <c r="J38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39">
+        <v>0.35076096538000001</v>
+      </c>
+      <c r="E39">
+        <v>550</v>
+      </c>
+      <c r="F39">
+        <v>0.99558420571299999</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0.08</v>
+      </c>
+      <c r="J39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40">
+        <v>24</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40">
+        <v>0.320673329673</v>
+      </c>
+      <c r="E40">
+        <v>59</v>
+      </c>
+      <c r="F40">
+        <v>0.99841215132600003</v>
+      </c>
+      <c r="G40">
+        <v>0.625</v>
+      </c>
+      <c r="H40">
+        <v>0.91634980988600001</v>
+      </c>
+      <c r="I40">
+        <v>0.25423728813599999</v>
+      </c>
+      <c r="J40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41">
+        <v>34</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41">
         <v>4.8678219445600002</v>
       </c>
-      <c r="E25">
+      <c r="E41">
         <v>256</v>
       </c>
-      <c r="F25">
+      <c r="F41">
         <v>0.79889291872299995</v>
       </c>
-      <c r="G25">
+      <c r="G41">
         <v>0.95833333333299997</v>
       </c>
-      <c r="H25">
+      <c r="H41">
         <v>0.55703422053200002</v>
       </c>
-      <c r="I25">
+      <c r="I41">
         <v>8.984375E-2</v>
       </c>
-      <c r="J25" t="s">
-        <v>84</v>
+      <c r="J41" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3839,7 +4390,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3850,7 +4401,7 @@
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -3890,28 +4441,28 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2">
-        <v>11.5494409758</v>
+        <v>0.90846866668500004</v>
       </c>
       <c r="E2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="F2">
-        <v>0.89550833629899995</v>
+        <v>0.994068216078</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0.78458498023699996</v>
+        <v>0.93478260869600005</v>
       </c>
       <c r="I2">
-        <v>0.28758169934599997</v>
+        <v>0.57142857142900005</v>
       </c>
       <c r="J2" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3922,28 +4473,28 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>20.084886970700001</v>
+        <v>17.216431515499998</v>
       </c>
       <c r="E3">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="F3">
-        <v>0.70753783465599995</v>
+        <v>0.76088157791900002</v>
       </c>
       <c r="G3">
         <v>0.70454545454499995</v>
       </c>
       <c r="H3">
-        <v>0.92885375494099998</v>
+        <v>0.889328063241</v>
       </c>
       <c r="I3">
-        <v>0.46268656716399997</v>
+        <v>0.35632183907999998</v>
       </c>
       <c r="J3" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3954,28 +4505,28 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>9.3698338234099996</v>
+        <v>0.33853161709099999</v>
       </c>
       <c r="E4">
-        <v>196</v>
+        <v>65</v>
       </c>
       <c r="F4">
-        <v>0.68032262778700003</v>
+        <v>0.99743250886199997</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0.95833333333299997</v>
       </c>
       <c r="H4">
-        <v>0.67300380228099999</v>
+        <v>0.92015209125499997</v>
       </c>
       <c r="I4">
-        <v>0.122448979592</v>
+        <v>0.35384615384599999</v>
       </c>
       <c r="J4" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3986,28 +4537,28 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5">
-        <v>13.0749336009</v>
+        <v>14.254080287900001</v>
       </c>
       <c r="E5">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="F5">
-        <v>0.55726906320699998</v>
+        <v>0.55576074074500004</v>
       </c>
       <c r="G5">
         <v>0.79166666666700003</v>
       </c>
       <c r="H5">
-        <v>0.72243346007599996</v>
+        <v>0.74144486692</v>
       </c>
       <c r="I5">
-        <v>0.11515151515200001</v>
+        <v>0.12258064516099999</v>
       </c>
       <c r="J5" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4021,25 +4572,25 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>1.9726180792400001</v>
+        <v>1.4226669600199999</v>
       </c>
       <c r="E6">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="F6">
-        <v>0.98854587480099998</v>
+        <v>0.99026378611800003</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0.95059288537499997</v>
+        <v>0.91304347826099996</v>
       </c>
       <c r="I6">
-        <v>0.63768115942000003</v>
+        <v>0.5</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4053,25 +4604,25 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>14.674265500600001</v>
+        <v>14.338917661</v>
       </c>
       <c r="E7">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="F7">
-        <v>0.80535762341999995</v>
+        <v>0.83167451829100003</v>
       </c>
       <c r="G7">
-        <v>0.68181818181800002</v>
+        <v>0.65909090909099999</v>
       </c>
       <c r="H7">
-        <v>0.91699604743100005</v>
+        <v>0.96640316205499999</v>
       </c>
       <c r="I7">
-        <v>0.41666666666699997</v>
+        <v>0.63043478260899999</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4085,25 +4636,25 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>4.3551268250200001</v>
+        <v>5.3399083446900004</v>
       </c>
       <c r="E8">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F8">
-        <v>0.93863115016599996</v>
+        <v>0.97024120869800001</v>
       </c>
       <c r="G8">
-        <v>0.95833333333299997</v>
+        <v>0.70833333333299997</v>
       </c>
       <c r="H8">
-        <v>0.95627376425900001</v>
+        <v>0.97528517110299995</v>
       </c>
       <c r="I8">
-        <v>0.5</v>
+        <v>0.56666666666700005</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4117,25 +4668,25 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>8.8841773242300004</v>
+        <v>7.07700584049</v>
       </c>
       <c r="E9">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="F9">
-        <v>0.71999070304500001</v>
+        <v>0.79660029302500002</v>
       </c>
       <c r="G9">
-        <v>0.70833333333299997</v>
+        <v>0.66666666666700003</v>
       </c>
       <c r="H9">
-        <v>0.80228136882099998</v>
+        <v>0.84030418251000005</v>
       </c>
       <c r="I9">
-        <v>0.140495867769</v>
+        <v>0.16</v>
       </c>
       <c r="J9" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4149,25 +4700,25 @@
         <v>15</v>
       </c>
       <c r="D10">
-        <v>129.317251763</v>
+        <v>0.88713305099499995</v>
       </c>
       <c r="E10">
-        <v>550</v>
+        <v>365</v>
       </c>
       <c r="F10">
-        <v>0.75954883700599995</v>
+        <v>0.98442467646599996</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.36561264822099998</v>
       </c>
       <c r="I10">
-        <v>0.08</v>
+        <v>0.12054794520500001</v>
       </c>
       <c r="J10" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4181,25 +4732,25 @@
         <v>15</v>
       </c>
       <c r="D11">
-        <v>68.174551292700002</v>
+        <v>16.299756353799999</v>
       </c>
       <c r="E11">
-        <v>550</v>
+        <v>459</v>
       </c>
       <c r="F11">
-        <v>0.52277990628500004</v>
+        <v>0.75232241364499997</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.17984189723300001</v>
       </c>
       <c r="I11">
-        <v>0.08</v>
+        <v>9.5860566448800005E-2</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4213,25 +4764,25 @@
         <v>15</v>
       </c>
       <c r="D12">
-        <v>37.650426646699998</v>
+        <v>3.2648462895699999</v>
       </c>
       <c r="E12">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="F12">
-        <v>0.59812273357500001</v>
+        <v>0.82339652080600001</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5.7034220532299999E-2</v>
       </c>
       <c r="I12">
-        <v>4.36363636364E-2</v>
+        <v>4.6153846153799999E-2</v>
       </c>
       <c r="J12" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4245,25 +4796,25 @@
         <v>15</v>
       </c>
       <c r="D13">
-        <v>32.407831022700002</v>
+        <v>8.5835682567999996</v>
       </c>
       <c r="E13">
-        <v>550</v>
+        <v>513</v>
       </c>
       <c r="F13">
-        <v>0.480228094981</v>
+        <v>0.62487092104599995</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>7.0342205323199999E-2</v>
       </c>
       <c r="I13">
-        <v>4.36363636364E-2</v>
+        <v>4.6783625730999999E-2</v>
       </c>
       <c r="J13" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4277,7 +4828,7 @@
         <v>16</v>
       </c>
       <c r="D14">
-        <v>0.331404494499</v>
+        <v>0.33140449441399999</v>
       </c>
       <c r="E14">
         <v>113</v>
@@ -4309,25 +4860,25 @@
         <v>16</v>
       </c>
       <c r="D15">
-        <v>12.6638172155</v>
+        <v>13.913554767300001</v>
       </c>
       <c r="E15">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="F15">
-        <v>0.87002683465099995</v>
+        <v>0.82236670146299995</v>
       </c>
       <c r="G15">
-        <v>0.68181818181800002</v>
+        <v>0.70454545454499995</v>
       </c>
       <c r="H15">
-        <v>0.95652173913000005</v>
+        <v>0.85968379446599996</v>
       </c>
       <c r="I15">
-        <v>0.57692307692300004</v>
+        <v>0.30392156862699998</v>
       </c>
       <c r="J15" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4341,25 +4892,25 @@
         <v>16</v>
       </c>
       <c r="D16">
-        <v>2.2362303237900001</v>
+        <v>3.98588511156</v>
       </c>
       <c r="E16">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="F16">
-        <v>0.89629574742600004</v>
+        <v>0.94668429906200002</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0.95833333333299997</v>
       </c>
       <c r="H16">
-        <v>0.75665399239499997</v>
+        <v>0.96577946768099998</v>
       </c>
       <c r="I16">
-        <v>0.15789473684200001</v>
+        <v>0.56097560975600003</v>
       </c>
       <c r="J16" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4373,7 +4924,7 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <v>6.3066837002499998</v>
+        <v>6.3066837002699998</v>
       </c>
       <c r="E17">
         <v>138</v>
@@ -4391,7 +4942,7 @@
         <v>0.13768115942</v>
       </c>
       <c r="J17" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4405,25 +4956,25 @@
         <v>17</v>
       </c>
       <c r="D18">
-        <v>4.6532745401</v>
+        <v>4.5772820532600003</v>
       </c>
       <c r="E18">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F18">
-        <v>0.94449381349100003</v>
+        <v>0.94484409285100002</v>
       </c>
       <c r="G18">
         <v>0.97727272727299996</v>
       </c>
       <c r="H18">
-        <v>0.90118577075100004</v>
+        <v>0.90909090909099999</v>
       </c>
       <c r="I18">
-        <v>0.46236559139799999</v>
+        <v>0.48314606741600002</v>
       </c>
       <c r="J18" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4437,25 +4988,25 @@
         <v>17</v>
       </c>
       <c r="D19">
-        <v>15.713207927699999</v>
+        <v>15.886509806499999</v>
       </c>
       <c r="E19">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="F19">
-        <v>0.79191071825199999</v>
+        <v>0.77909575274800003</v>
       </c>
       <c r="G19">
         <v>0.63636363636399995</v>
       </c>
       <c r="H19">
-        <v>0.93478260869600005</v>
+        <v>0.88537549407100002</v>
       </c>
       <c r="I19">
-        <v>0.45901639344299999</v>
+        <v>0.32558139534899999</v>
       </c>
       <c r="J19" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -4469,25 +5020,25 @@
         <v>17</v>
       </c>
       <c r="D20">
-        <v>0.25390495012100001</v>
+        <v>0.18304145947799999</v>
       </c>
       <c r="E20">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="F20">
-        <v>0.99867041197700002</v>
+        <v>0.99934174145400001</v>
       </c>
       <c r="G20">
-        <v>0.625</v>
+        <v>0.58333333333299997</v>
       </c>
       <c r="H20">
-        <v>0.85551330798500003</v>
+        <v>0.92585551330799998</v>
       </c>
       <c r="I20">
-        <v>0.16483516483499999</v>
+        <v>0.26415094339599998</v>
       </c>
       <c r="J20" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -4501,25 +5052,25 @@
         <v>17</v>
       </c>
       <c r="D21">
-        <v>3.9671886595600001</v>
+        <v>4.0546967159999996</v>
       </c>
       <c r="E21">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F21">
-        <v>0.84515953236100005</v>
+        <v>0.84242043688099999</v>
       </c>
       <c r="G21">
-        <v>0.5</v>
+        <v>0.54166666666700003</v>
       </c>
       <c r="H21">
         <v>0.89923954372600001</v>
       </c>
       <c r="I21">
-        <v>0.18461538461499999</v>
+        <v>0.19696969697</v>
       </c>
       <c r="J21" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -4533,25 +5084,25 @@
         <v>18</v>
       </c>
       <c r="D22">
-        <v>1.5009315843</v>
+        <v>0.42066450459299998</v>
       </c>
       <c r="E22">
-        <v>550</v>
+        <v>44</v>
       </c>
       <c r="F22">
-        <v>0.99760154834400006</v>
+        <v>0.99987094385099995</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>0.08</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -4565,25 +5116,25 @@
         <v>18</v>
       </c>
       <c r="D23">
-        <v>15.3637956065</v>
+        <v>3.8576199300099998</v>
       </c>
       <c r="E23">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="F23">
-        <v>0.80198093571399998</v>
+        <v>0.96782241016399995</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>0.982213438735</v>
+        <v>0.942687747036</v>
       </c>
       <c r="I23">
-        <v>0.83018867924499995</v>
+        <v>0.60273972602699999</v>
       </c>
       <c r="J23" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -4597,13 +5148,13 @@
         <v>18</v>
       </c>
       <c r="D24">
-        <v>3.0492129014099998</v>
+        <v>2.80123151975</v>
       </c>
       <c r="E24">
         <v>550</v>
       </c>
       <c r="F24">
-        <v>0.85738021987400004</v>
+        <v>0.86121597623699997</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -4615,7 +5166,7 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J24" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -4629,13 +5180,13 @@
         <v>18</v>
       </c>
       <c r="D25">
-        <v>8.2590165444199997</v>
+        <v>8.0871251029</v>
       </c>
       <c r="E25">
         <v>550</v>
       </c>
       <c r="F25">
-        <v>0.67828565870699997</v>
+        <v>0.68350178889400004</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -4647,7 +5198,7 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J25" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -4671,7 +5222,7 @@
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -4711,28 +5262,28 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2">
-        <v>116.66663806299999</v>
+        <v>115.040045826</v>
       </c>
       <c r="E2">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="F2">
-        <v>0.76533714287499999</v>
+        <v>0.76848991344299999</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0.249011857708</v>
+        <v>0.28458498023700002</v>
       </c>
       <c r="I2">
-        <v>0.103773584906</v>
+        <v>0.108374384236</v>
       </c>
       <c r="J2" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4743,28 +5294,28 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>49.426215901299997</v>
+        <v>16.824721862699999</v>
       </c>
       <c r="E3">
-        <v>504</v>
+        <v>84</v>
       </c>
       <c r="F3">
-        <v>0.52989910216000002</v>
+        <v>0.752800946463</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0.70454545454499995</v>
       </c>
       <c r="H3">
-        <v>9.0909090909100002E-2</v>
+        <v>0.89525691699599996</v>
       </c>
       <c r="I3">
-        <v>8.7301587301599995E-2</v>
+        <v>0.36904761904799999</v>
       </c>
       <c r="J3" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4775,28 +5326,28 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>32.162673249100003</v>
+        <v>9.3795609580000008</v>
       </c>
       <c r="E4">
-        <v>369</v>
+        <v>160</v>
       </c>
       <c r="F4">
-        <v>0.60744781052200003</v>
+        <v>0.68193834685999999</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0.34410646387799998</v>
+        <v>0.74144486692</v>
       </c>
       <c r="I4">
-        <v>6.5040650406500006E-2</v>
+        <v>0.15</v>
       </c>
       <c r="J4" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4807,28 +5358,28 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5">
-        <v>28.4755932176</v>
+        <v>13.562161748299999</v>
       </c>
       <c r="E5">
-        <v>352</v>
+        <v>168</v>
       </c>
       <c r="F5">
-        <v>0.48961934753199998</v>
+        <v>0.53839203593499996</v>
       </c>
       <c r="G5">
-        <v>0.95833333333299997</v>
+        <v>0.875</v>
       </c>
       <c r="H5">
-        <v>0.37452471482900002</v>
+        <v>0.72053231939200002</v>
       </c>
       <c r="I5">
-        <v>6.5340909090899998E-2</v>
+        <v>0.125</v>
       </c>
       <c r="J5" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4842,25 +5393,25 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>124.620028408</v>
+        <v>111.462979092</v>
       </c>
       <c r="E6">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F6">
-        <v>0.81879054325099998</v>
+        <v>0.81903299327500001</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0.29446640316200001</v>
+        <v>0.29249011857700002</v>
       </c>
       <c r="I6">
-        <v>0.109725685786</v>
+        <v>0.109452736318</v>
       </c>
       <c r="J6" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4874,25 +5425,25 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>44.4600877946</v>
+        <v>14.296993261000001</v>
       </c>
       <c r="E7">
-        <v>356</v>
+        <v>47</v>
       </c>
       <c r="F7">
-        <v>0.60521215275899998</v>
+        <v>0.82237822943500005</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0.63636363636399995</v>
       </c>
       <c r="H7">
-        <v>0.38339920948599998</v>
+        <v>0.96245059288500001</v>
       </c>
       <c r="I7">
-        <v>0.12359550561800001</v>
+        <v>0.59574468085099996</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4906,25 +5457,25 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>29.863823149600002</v>
+        <v>13.9316378829</v>
       </c>
       <c r="E8">
-        <v>315</v>
+        <v>167</v>
       </c>
       <c r="F8">
-        <v>0.66642306649100003</v>
+        <v>0.72714395357999995</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>0.44676806083699999</v>
+        <v>0.72813688212899996</v>
       </c>
       <c r="I8">
-        <v>7.6190476190499998E-2</v>
+        <v>0.14371257485</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4938,25 +5489,25 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>20.869635318699999</v>
+        <v>20.612784303600002</v>
       </c>
       <c r="E9">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F9">
-        <v>0.56015701273600005</v>
+        <v>0.55994248887800002</v>
       </c>
       <c r="G9">
         <v>0.91666666666700003</v>
       </c>
       <c r="H9">
-        <v>0.44866920152099998</v>
+        <v>0.45057034220499997</v>
       </c>
       <c r="I9">
-        <v>7.0512820512800001E-2</v>
+        <v>7.07395498392E-2</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4970,25 +5521,25 @@
         <v>15</v>
       </c>
       <c r="D10">
-        <v>129.317251763</v>
+        <v>5.7671704995199997</v>
       </c>
       <c r="E10">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="F10">
-        <v>0.75954883700599995</v>
+        <v>0.92446655152099999</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.7667984189699998E-2</v>
       </c>
       <c r="I10">
-        <v>0.08</v>
+        <v>8.2089552238800004E-2</v>
       </c>
       <c r="J10" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5002,25 +5553,25 @@
         <v>15</v>
       </c>
       <c r="D11">
-        <v>51.157411331299997</v>
+        <v>18.323929975199999</v>
       </c>
       <c r="E11">
-        <v>550</v>
+        <v>373</v>
       </c>
       <c r="F11">
-        <v>0.52875703422099996</v>
+        <v>0.73964530955300001</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.349802371542</v>
       </c>
       <c r="I11">
-        <v>0.08</v>
+        <v>0.117962466488</v>
       </c>
       <c r="J11" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5034,25 +5585,25 @@
         <v>15</v>
       </c>
       <c r="D12">
-        <v>37.650426646699998</v>
+        <v>4.8968332913300001</v>
       </c>
       <c r="E12">
-        <v>550</v>
+        <v>186</v>
       </c>
       <c r="F12">
-        <v>0.59812273357500001</v>
+        <v>0.80212424767000001</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.69201520912500003</v>
       </c>
       <c r="I12">
-        <v>4.36363636364E-2</v>
+        <v>0.12903225806499999</v>
       </c>
       <c r="J12" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5066,25 +5617,25 @@
         <v>15</v>
       </c>
       <c r="D13">
-        <v>32.407831022700002</v>
+        <v>10.6704913409</v>
       </c>
       <c r="E13">
-        <v>550</v>
+        <v>167</v>
       </c>
       <c r="F13">
-        <v>0.480228094981</v>
+        <v>0.56101943679400001</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0.95833333333299997</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.72623574144500003</v>
       </c>
       <c r="I13">
-        <v>4.36363636364E-2</v>
+        <v>0.13772455089800001</v>
       </c>
       <c r="J13" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5098,25 +5649,25 @@
         <v>16</v>
       </c>
       <c r="D14">
-        <v>0.331404494499</v>
+        <v>0.89150825556699997</v>
       </c>
       <c r="E14">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F14">
-        <v>0.99988324791100003</v>
+        <v>0.99336983022000003</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>0.86363636363600005</v>
+        <v>0.89130434782599999</v>
       </c>
       <c r="I14">
-        <v>0.38938053097300002</v>
+        <v>0.444444444444</v>
       </c>
       <c r="J14" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5130,25 +5681,25 @@
         <v>16</v>
       </c>
       <c r="D15">
-        <v>30.9107504965</v>
+        <v>13.913554767300001</v>
       </c>
       <c r="E15">
-        <v>440</v>
+        <v>102</v>
       </c>
       <c r="F15">
-        <v>0.73121712375400005</v>
+        <v>0.82236670146299995</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0.70454545454499995</v>
       </c>
       <c r="H15">
-        <v>0.217391304348</v>
+        <v>0.85968379446599996</v>
       </c>
       <c r="I15">
-        <v>0.1</v>
+        <v>0.30392156862699998</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5162,25 +5713,25 @@
         <v>16</v>
       </c>
       <c r="D16">
-        <v>2.31254845581</v>
+        <v>2.2362303242300001</v>
       </c>
       <c r="E16">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F16">
-        <v>0.89597169018800005</v>
+        <v>0.89629574742600004</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>0.75095057034199997</v>
+        <v>0.75665399239499997</v>
       </c>
       <c r="I16">
-        <v>0.154838709677</v>
+        <v>0.15789473684200001</v>
       </c>
       <c r="J16" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5194,25 +5745,25 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <v>7.3395024331499998</v>
+        <v>5.6805201796400002</v>
       </c>
       <c r="E17">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="F17">
-        <v>0.76334628583300002</v>
+        <v>0.82061409658200002</v>
       </c>
       <c r="G17">
-        <v>0.83333333333299997</v>
+        <v>0.54166666666700003</v>
       </c>
       <c r="H17">
-        <v>0.72813688212899996</v>
+        <v>0.85171102661599996</v>
       </c>
       <c r="I17">
-        <v>0.122699386503</v>
+        <v>0.14285714285699999</v>
       </c>
       <c r="J17" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5340,7 +5891,7 @@
         <v>0.19402985074599999</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -5354,13 +5905,13 @@
         <v>18</v>
       </c>
       <c r="D22">
-        <v>0.46698734671800002</v>
+        <v>0.46698734996800001</v>
       </c>
       <c r="E22">
         <v>549</v>
       </c>
       <c r="F22">
-        <v>0.99888672959500002</v>
+        <v>0.99888672958500002</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -5386,25 +5937,25 @@
         <v>18</v>
       </c>
       <c r="D23">
-        <v>2.3180584023900002</v>
+        <v>1.2286323192399999</v>
       </c>
       <c r="E23">
-        <v>550</v>
+        <v>106</v>
       </c>
       <c r="F23">
-        <v>0.98477310496000003</v>
+        <v>0.99244158790600001</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.87747035573099996</v>
       </c>
       <c r="I23">
-        <v>0.08</v>
+        <v>0.41509433962300002</v>
       </c>
       <c r="J23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -5418,7 +5969,7 @@
         <v>18</v>
       </c>
       <c r="D24">
-        <v>2.7168882302599999</v>
+        <v>2.7168882302499999</v>
       </c>
       <c r="E24">
         <v>550</v>
@@ -5436,7 +5987,7 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -5450,13 +6001,13 @@
         <v>18</v>
       </c>
       <c r="D25">
-        <v>8.1036830182999999</v>
+        <v>8.5848696249700005</v>
       </c>
       <c r="E25">
         <v>550</v>
       </c>
       <c r="F25">
-        <v>0.68389652591899996</v>
+        <v>0.669518327297</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -5468,7 +6019,7 @@
         <v>4.36363636364E-2</v>
       </c>
       <c r="J25" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -5478,7 +6029,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
@@ -5488,7 +6039,7 @@
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
@@ -5527,240 +6078,240 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="D2">
-        <v>4.6620756644899997</v>
+        <v>1.92342303886</v>
       </c>
       <c r="E2">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="F2">
-        <v>0.93931721452799999</v>
+        <v>0.99149632383800002</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0.98863636363600005</v>
+        <v>0.85795454545500005</v>
       </c>
       <c r="I2">
-        <v>0.95652173913000005</v>
+        <v>0.63768115942000003</v>
       </c>
       <c r="J2" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="D3">
-        <v>10.6616629244</v>
+        <v>14.612980673999999</v>
       </c>
       <c r="E3">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F3">
-        <v>0.79154806628499996</v>
+        <v>0.84142813863099997</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0.88636363636399995</v>
       </c>
       <c r="H3">
-        <v>0.76136363636399995</v>
+        <v>0.72727272727299996</v>
       </c>
       <c r="I3">
-        <v>0.511627906977</v>
+        <v>0.448275862069</v>
       </c>
       <c r="J3" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>92</v>
+      </c>
+      <c r="D4">
+        <v>0.77870490857399999</v>
+      </c>
+      <c r="E4">
+        <v>53</v>
+      </c>
+      <c r="F4">
+        <v>0.99735850978700002</v>
+      </c>
+      <c r="G4">
+        <v>0.625</v>
+      </c>
+      <c r="H4">
+        <v>0.80612244897999996</v>
+      </c>
+      <c r="I4">
+        <v>0.28301886792499997</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="D5">
-        <v>13.1677040182</v>
+        <v>4.3964644269199997</v>
       </c>
       <c r="E5">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="F5">
-        <v>0.68955969008100004</v>
+        <v>0.89544750953300001</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0.79166666666700003</v>
       </c>
       <c r="H5">
-        <v>0.57142857142900005</v>
+        <v>0.72959183673500005</v>
       </c>
       <c r="I5">
-        <v>0.222222222222</v>
+        <v>0.26388888888899997</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>13.713621162999999</v>
+        <v>4.6620756644899997</v>
       </c>
       <c r="E6">
-        <v>220</v>
+        <v>46</v>
       </c>
       <c r="F6">
-        <v>0.88219439779499997</v>
+        <v>0.93931721452799999</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.98863636363600005</v>
       </c>
       <c r="I6">
-        <v>0.2</v>
+        <v>0.95652173913000005</v>
       </c>
       <c r="J6" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>35.6359479921</v>
+        <v>10.6616629244</v>
       </c>
       <c r="E7">
-        <v>220</v>
+        <v>86</v>
       </c>
       <c r="F7">
-        <v>0.64981309692599998</v>
+        <v>0.79154806628499996</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.76136363636399995</v>
       </c>
       <c r="I7">
-        <v>0.2</v>
+        <v>0.511627906977</v>
       </c>
       <c r="J7" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>11.3869336108</v>
-      </c>
-      <c r="E8">
-        <v>220</v>
-      </c>
-      <c r="F8">
-        <v>0.68982680574300004</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0.109090909091</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>12.74044877</v>
+        <v>13.1677040182</v>
       </c>
       <c r="E9">
-        <v>220</v>
+        <v>108</v>
       </c>
       <c r="F9">
-        <v>0.58324439609800005</v>
+        <v>0.68955969008100004</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.57142857142900005</v>
       </c>
       <c r="I9">
-        <v>0.109090909091</v>
+        <v>0.222222222222</v>
       </c>
       <c r="J9" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5771,508 +6322,1020 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>2.0343988526599999</v>
+        <v>1.11315431746</v>
       </c>
       <c r="E10">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="F10">
-        <v>0.99095780060399996</v>
+        <v>0.99526737034599999</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>0.84659090909099999</v>
+        <v>0.99431818181800002</v>
       </c>
       <c r="I10">
-        <v>0.619718309859</v>
+        <v>0.97777777777800001</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>15.092321953900001</v>
+        <v>6.3846217585299998</v>
       </c>
       <c r="E11">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F11">
-        <v>0.84607084553099998</v>
+        <v>0.92266119429799998</v>
       </c>
       <c r="G11">
-        <v>0.88636363636399995</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0.67613636363600005</v>
+        <v>0.73863636363600005</v>
       </c>
       <c r="I11">
-        <v>0.40625</v>
+        <v>0.48888888888900001</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D12">
-        <v>0.78056182514899997</v>
+        <v>0.97176165277399995</v>
       </c>
       <c r="E12">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F12">
-        <v>0.99762265772400005</v>
+        <v>0.99648459185600002</v>
       </c>
       <c r="G12">
         <v>0.625</v>
       </c>
       <c r="H12">
-        <v>0.775510204082</v>
+        <v>0.816326530612</v>
       </c>
       <c r="I12">
-        <v>0.25423728813599999</v>
+        <v>0.29411764705900001</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>4.5366884562000003</v>
+        <v>3.98166198921</v>
       </c>
       <c r="E13">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="F13">
-        <v>0.89900766305500002</v>
+        <v>0.926572453367</v>
       </c>
       <c r="G13">
         <v>0.79166666666700003</v>
       </c>
       <c r="H13">
-        <v>0.65306122449000004</v>
+        <v>0.724489795918</v>
       </c>
       <c r="I13">
-        <v>0.218390804598</v>
+        <v>0.260273972603</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>0.88704025757899996</v>
+        <v>1.9391142107299999</v>
       </c>
       <c r="E14">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="F14">
-        <v>0.99957218992700003</v>
+        <v>0.99209442967600003</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>0.98863636363600005</v>
+        <v>0.85227272727299996</v>
       </c>
       <c r="I14">
-        <v>0.95652173913000005</v>
+        <v>0.62857142857100001</v>
       </c>
       <c r="J14" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>2.5701279027799999</v>
+        <v>14.698286409</v>
       </c>
       <c r="E15">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F15">
-        <v>0.98735255344600004</v>
+        <v>0.84697380531099997</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0.86363636363600005</v>
       </c>
       <c r="H15">
-        <v>0.76136363636399995</v>
+        <v>0.67045454545500005</v>
       </c>
       <c r="I15">
-        <v>0.511627906977</v>
+        <v>0.39583333333300003</v>
       </c>
       <c r="J15" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>4.8186967301200001</v>
+        <v>0.78664556506299999</v>
       </c>
       <c r="E16">
-        <v>220</v>
+        <v>57</v>
       </c>
       <c r="F16">
-        <v>0.84304328349199997</v>
+        <v>0.99753613309</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.78571428571400004</v>
       </c>
       <c r="I16">
-        <v>0.109090909091</v>
+        <v>0.26315789473700002</v>
       </c>
       <c r="J16" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>5.6339566687299998</v>
+        <v>4.5341559739599999</v>
       </c>
       <c r="E17">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="F17">
-        <v>0.78220514536100005</v>
+        <v>0.89885410918800002</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0.83333333333299997</v>
       </c>
       <c r="H17">
-        <v>0.57142857142900005</v>
+        <v>0.64795918367299998</v>
       </c>
       <c r="I17">
-        <v>0.222222222222</v>
+        <v>0.22471910112400001</v>
       </c>
       <c r="J17" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>0.98581926970599998</v>
+        <v>1.9921293841000001</v>
       </c>
       <c r="E18">
-        <v>209</v>
+        <v>85</v>
       </c>
       <c r="F18">
-        <v>0.998273367749</v>
+        <v>0.98047579498600002</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>6.25E-2</v>
+        <v>0.76704545454499995</v>
       </c>
       <c r="I18">
-        <v>0.210526315789</v>
+        <v>0.51764705882399997</v>
       </c>
       <c r="J18" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>0.81815626049099999</v>
+        <v>8.2440513286799995</v>
       </c>
       <c r="E19">
-        <v>200</v>
+        <v>91</v>
       </c>
       <c r="F19">
-        <v>0.998709574564</v>
+        <v>0.90757041380600001</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>0.11363636363600001</v>
+        <v>0.73295454545500005</v>
       </c>
       <c r="I19">
-        <v>0.22</v>
+        <v>0.48351648351600002</v>
       </c>
       <c r="J19" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D20">
-        <v>1.1740584091699999</v>
+        <v>6.9821469947099999</v>
       </c>
       <c r="E20">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F20">
-        <v>0.99444013309500001</v>
+        <v>0.75480775515599996</v>
       </c>
       <c r="G20">
-        <v>0.83333333333299997</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>0.66836734693900002</v>
+        <v>0.63775510204100005</v>
       </c>
       <c r="I20">
-        <v>0.23529411764700001</v>
+        <v>0.252631578947</v>
       </c>
       <c r="J20" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D21">
-        <v>4.7287136263500003</v>
+        <v>6.8283319629800001</v>
       </c>
       <c r="E21">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F21">
-        <v>0.90551072592100001</v>
+        <v>0.69022405695900002</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>0.57142857142900005</v>
+        <v>0.61224489795899995</v>
       </c>
       <c r="I21">
-        <v>0.222222222222</v>
+        <v>0.24</v>
       </c>
       <c r="J21" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D22">
-        <v>0.73796109438900004</v>
+        <v>0.67756258895400001</v>
       </c>
       <c r="E22">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="F22">
-        <v>0.99949071216200003</v>
+        <v>0.99995483598000001</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>0.625</v>
+        <v>0.39204545454500001</v>
       </c>
       <c r="I22">
-        <v>0.4</v>
+        <v>0.29139072847699998</v>
       </c>
       <c r="J22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D23">
-        <v>1.1404054939799999</v>
+        <v>15.1201847994</v>
       </c>
       <c r="E23">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="F23">
-        <v>0.99782207012199997</v>
+        <v>0.84509127482699997</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0.86363636363600005</v>
       </c>
       <c r="H23">
-        <v>0.84090909090900001</v>
+        <v>0.64204545454499995</v>
       </c>
       <c r="I23">
-        <v>0.61111111111100003</v>
+        <v>0.37623762376199998</v>
       </c>
       <c r="J23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D24">
-        <v>1.1118316445300001</v>
+        <v>0.76090057177299997</v>
       </c>
       <c r="E24">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F24">
-        <v>0.99506274698300001</v>
+        <v>0.99761894081199998</v>
       </c>
       <c r="G24">
         <v>0.625</v>
       </c>
       <c r="H24">
-        <v>0.775510204082</v>
+        <v>0.81122448979600004</v>
       </c>
       <c r="I24">
-        <v>0.25423728813599999</v>
+        <v>0.28846153846200001</v>
       </c>
       <c r="J24" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D25">
-        <v>4.5287033114400002</v>
+        <v>4.4127939439299997</v>
       </c>
       <c r="E25">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F25">
-        <v>0.904347627564</v>
+        <v>0.89484330240400001</v>
       </c>
       <c r="G25">
         <v>0.79166666666700003</v>
       </c>
       <c r="H25">
+        <v>0.73469387755100002</v>
+      </c>
+      <c r="I25">
+        <v>0.26760563380300001</v>
+      </c>
+      <c r="J25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>2.0343988526599999</v>
+      </c>
+      <c r="E26">
+        <v>71</v>
+      </c>
+      <c r="F26">
+        <v>0.99095780060399996</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>0.84659090909099999</v>
+      </c>
+      <c r="I26">
+        <v>0.619718309859</v>
+      </c>
+      <c r="J26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27">
+        <v>15.092321953900001</v>
+      </c>
+      <c r="E27">
+        <v>96</v>
+      </c>
+      <c r="F27">
+        <v>0.84607084553099998</v>
+      </c>
+      <c r="G27">
+        <v>0.88636363636399995</v>
+      </c>
+      <c r="H27">
+        <v>0.67613636363600005</v>
+      </c>
+      <c r="I27">
+        <v>0.40625</v>
+      </c>
+      <c r="J27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28">
+        <v>0.78056182514899997</v>
+      </c>
+      <c r="E28">
+        <v>59</v>
+      </c>
+      <c r="F28">
+        <v>0.99762265772400005</v>
+      </c>
+      <c r="G28">
+        <v>0.625</v>
+      </c>
+      <c r="H28">
+        <v>0.775510204082</v>
+      </c>
+      <c r="I28">
+        <v>0.25423728813599999</v>
+      </c>
+      <c r="J28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29">
+        <v>4.5366884562000003</v>
+      </c>
+      <c r="E29">
+        <v>87</v>
+      </c>
+      <c r="F29">
+        <v>0.89900766305500002</v>
+      </c>
+      <c r="G29">
+        <v>0.79166666666700003</v>
+      </c>
+      <c r="H29">
         <v>0.65306122449000004</v>
       </c>
-      <c r="I25">
+      <c r="I29">
         <v>0.218390804598</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30">
+        <v>0.88704025757899996</v>
+      </c>
+      <c r="E30">
+        <v>46</v>
+      </c>
+      <c r="F30">
+        <v>0.99957218992700003</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>0.98863636363600005</v>
+      </c>
+      <c r="I30">
+        <v>0.95652173913000005</v>
+      </c>
+      <c r="J30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31">
+        <v>2.5701279027799999</v>
+      </c>
+      <c r="E31">
+        <v>86</v>
+      </c>
+      <c r="F31">
+        <v>0.98735255344600004</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0.76136363636399995</v>
+      </c>
+      <c r="I31">
+        <v>0.511627906977</v>
+      </c>
+      <c r="J31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32">
+        <v>4.8186967301200001</v>
+      </c>
+      <c r="E32">
+        <v>220</v>
+      </c>
+      <c r="F32">
+        <v>0.84304328349199997</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0.109090909091</v>
+      </c>
+      <c r="J32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33">
+        <v>5.6339566687299998</v>
+      </c>
+      <c r="E33">
         <v>108</v>
+      </c>
+      <c r="F33">
+        <v>0.78220514536100005</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>0.57142857142900005</v>
+      </c>
+      <c r="I33">
+        <v>0.222222222222</v>
+      </c>
+      <c r="J33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34">
+        <v>0.98581926970599998</v>
+      </c>
+      <c r="E34">
+        <v>209</v>
+      </c>
+      <c r="F34">
+        <v>0.998273367749</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>6.25E-2</v>
+      </c>
+      <c r="I34">
+        <v>0.210526315789</v>
+      </c>
+      <c r="J34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35">
+        <v>0.81815626049099999</v>
+      </c>
+      <c r="E35">
+        <v>200</v>
+      </c>
+      <c r="F35">
+        <v>0.998709574564</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>0.11363636363600001</v>
+      </c>
+      <c r="I35">
+        <v>0.22</v>
+      </c>
+      <c r="J35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36">
+        <v>1.1740584091699999</v>
+      </c>
+      <c r="E36">
+        <v>85</v>
+      </c>
+      <c r="F36">
+        <v>0.99444013309500001</v>
+      </c>
+      <c r="G36">
+        <v>0.83333333333299997</v>
+      </c>
+      <c r="H36">
+        <v>0.66836734693900002</v>
+      </c>
+      <c r="I36">
+        <v>0.23529411764700001</v>
+      </c>
+      <c r="J36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37">
+        <v>4.7287136263500003</v>
+      </c>
+      <c r="E37">
+        <v>108</v>
+      </c>
+      <c r="F37">
+        <v>0.90551072592100001</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>0.57142857142900005</v>
+      </c>
+      <c r="I37">
+        <v>0.222222222222</v>
+      </c>
+      <c r="J37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38">
+        <v>0.73796109438900004</v>
+      </c>
+      <c r="E38">
+        <v>110</v>
+      </c>
+      <c r="F38">
+        <v>0.99949071216200003</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>0.625</v>
+      </c>
+      <c r="I38">
+        <v>0.4</v>
+      </c>
+      <c r="J38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39">
+        <v>1.1404054939799999</v>
+      </c>
+      <c r="E39">
+        <v>72</v>
+      </c>
+      <c r="F39">
+        <v>0.99782207012199997</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>0.84090909090900001</v>
+      </c>
+      <c r="I39">
+        <v>0.61111111111100003</v>
+      </c>
+      <c r="J39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40">
+        <v>24</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40">
+        <v>1.1118316445300001</v>
+      </c>
+      <c r="E40">
+        <v>59</v>
+      </c>
+      <c r="F40">
+        <v>0.99506274698300001</v>
+      </c>
+      <c r="G40">
+        <v>0.625</v>
+      </c>
+      <c r="H40">
+        <v>0.775510204082</v>
+      </c>
+      <c r="I40">
+        <v>0.25423728813599999</v>
+      </c>
+      <c r="J40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41">
+        <v>34</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41">
+        <v>4.5287033114400002</v>
+      </c>
+      <c r="E41">
+        <v>87</v>
+      </c>
+      <c r="F41">
+        <v>0.904347627564</v>
+      </c>
+      <c r="G41">
+        <v>0.79166666666700003</v>
+      </c>
+      <c r="H41">
+        <v>0.65306122449000004</v>
+      </c>
+      <c r="I41">
+        <v>0.218390804598</v>
+      </c>
+      <c r="J41" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -6294,7 +7357,7 @@
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -6334,28 +7397,28 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2">
-        <v>8.7612699038899997</v>
+        <v>3.6155653586600001</v>
       </c>
       <c r="E2">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="F2">
-        <v>0.893270472702</v>
+        <v>0.97894456802200003</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0.22727272727299999</v>
+        <v>0.80681818181800002</v>
       </c>
       <c r="I2">
-        <v>0.24444444444399999</v>
+        <v>0.56410256410299997</v>
       </c>
       <c r="J2" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6366,28 +7429,28 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>24.686606731299999</v>
+        <v>11.714406651799999</v>
       </c>
       <c r="E3">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="F3">
-        <v>0.70772368045800005</v>
+        <v>0.88356759077900004</v>
       </c>
       <c r="G3">
-        <v>0.70454545454499995</v>
+        <v>0.88636363636399995</v>
       </c>
       <c r="H3">
-        <v>0.93181818181800002</v>
+        <v>0.83522727272700004</v>
       </c>
       <c r="I3">
-        <v>0.72093023255800004</v>
+        <v>0.57352941176500005</v>
       </c>
       <c r="J3" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6398,28 +7461,28 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>11.796139604</v>
+        <v>2.1437582906600001</v>
       </c>
       <c r="E4">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="F4">
-        <v>0.77197216454200002</v>
+        <v>0.97766937599000003</v>
       </c>
       <c r="G4">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0.52040816326499995</v>
+        <v>0.64285714285700002</v>
       </c>
       <c r="I4">
-        <v>0.182608695652</v>
+        <v>0.255319148936</v>
       </c>
       <c r="J4" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6430,28 +7493,28 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5">
-        <v>11.288731540800001</v>
+        <v>7.8810286247599999</v>
       </c>
       <c r="E5">
-        <v>158</v>
+        <v>60</v>
       </c>
       <c r="F5">
-        <v>0.60549670876200001</v>
+        <v>0.82685487132799995</v>
       </c>
       <c r="G5">
-        <v>0.91666666666700003</v>
+        <v>0.79166666666700003</v>
       </c>
       <c r="H5">
-        <v>0.30612244898000002</v>
+        <v>0.79081632653099998</v>
       </c>
       <c r="I5">
-        <v>0.13924050632900001</v>
+        <v>0.316666666667</v>
       </c>
       <c r="J5" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6465,25 +7528,25 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>3.78357934322</v>
+        <v>2.8433013515400001</v>
       </c>
       <c r="E6">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="F6">
-        <v>0.96705316358500004</v>
+        <v>0.98450404196800001</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0.63068181818199998</v>
+        <v>0.76704545454499995</v>
       </c>
       <c r="I6">
-        <v>0.40366972477099999</v>
+        <v>0.51764705882399997</v>
       </c>
       <c r="J6" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6497,25 +7560,25 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>23.625900422800001</v>
+        <v>24.8609220128</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F7">
-        <v>0.79821330470999996</v>
+        <v>0.787594256411</v>
       </c>
       <c r="G7">
         <v>0.68181818181800002</v>
       </c>
       <c r="H7">
-        <v>0.94318181818199998</v>
+        <v>0.95454545454499995</v>
       </c>
       <c r="I7">
-        <v>0.75</v>
+        <v>0.78947368421099995</v>
       </c>
       <c r="J7" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6529,25 +7592,25 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>1.2814227310499999</v>
+        <v>2.2641348217399999</v>
       </c>
       <c r="E8">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F8">
-        <v>0.99108809861900005</v>
+        <v>0.98455595249500005</v>
       </c>
       <c r="G8">
-        <v>0.70833333333299997</v>
+        <v>0.75</v>
       </c>
       <c r="H8">
-        <v>0.867346938776</v>
+        <v>0.91326530612199996</v>
       </c>
       <c r="I8">
-        <v>0.39534883720899999</v>
+        <v>0.51428571428600001</v>
       </c>
       <c r="J8" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6561,25 +7624,25 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>9.3395422415899993</v>
+        <v>5.3970213868999997</v>
       </c>
       <c r="E9">
-        <v>142</v>
+        <v>62</v>
       </c>
       <c r="F9">
-        <v>0.71535681338000001</v>
+        <v>0.81221757769199998</v>
       </c>
       <c r="G9">
-        <v>0.91666666666700003</v>
+        <v>0.75</v>
       </c>
       <c r="H9">
-        <v>0.387755102041</v>
+        <v>0.775510204082</v>
       </c>
       <c r="I9">
-        <v>0.154929577465</v>
+        <v>0.29032258064499999</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6593,25 +7656,25 @@
         <v>15</v>
       </c>
       <c r="D10">
-        <v>11.221630318900001</v>
+        <v>1.9921293841000001</v>
       </c>
       <c r="E10">
-        <v>220</v>
+        <v>85</v>
       </c>
       <c r="F10">
-        <v>0.88207761498799997</v>
+        <v>0.98047579498600002</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.76704545454499995</v>
       </c>
       <c r="I10">
-        <v>0.2</v>
+        <v>0.51764705882399997</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6625,25 +7688,25 @@
         <v>15</v>
       </c>
       <c r="D11">
-        <v>36.661424729899998</v>
+        <v>8.2440513286799995</v>
       </c>
       <c r="E11">
-        <v>220</v>
+        <v>91</v>
       </c>
       <c r="F11">
-        <v>0.64834386662800003</v>
+        <v>0.90757041380600001</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.73295454545500005</v>
       </c>
       <c r="I11">
-        <v>0.2</v>
+        <v>0.48351648351600002</v>
       </c>
       <c r="J11" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6657,25 +7720,25 @@
         <v>15</v>
       </c>
       <c r="D12">
-        <v>10.7607493564</v>
+        <v>8.0120641443899991</v>
       </c>
       <c r="E12">
-        <v>220</v>
+        <v>177</v>
       </c>
       <c r="F12">
-        <v>0.69078859416600003</v>
+        <v>0.75434959256</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.21938775510200001</v>
       </c>
       <c r="I12">
-        <v>0.109090909091</v>
+        <v>0.13559322033900001</v>
       </c>
       <c r="J12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6689,25 +7752,25 @@
         <v>15</v>
       </c>
       <c r="D13">
-        <v>12.985986433100001</v>
+        <v>6.8283319629800001</v>
       </c>
       <c r="E13">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="F13">
-        <v>0.58521965690300004</v>
+        <v>0.69022405695900002</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.61224489795899995</v>
       </c>
       <c r="I13">
-        <v>0.109090909091</v>
+        <v>0.24</v>
       </c>
       <c r="J13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6721,25 +7784,25 @@
         <v>16</v>
       </c>
       <c r="D14">
-        <v>0.99640395367699996</v>
+        <v>1.0411899150899999</v>
       </c>
       <c r="E14">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="F14">
-        <v>0.99775422064599995</v>
+        <v>0.99783430678499996</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>0.3125</v>
+        <v>0.83522727272700004</v>
       </c>
       <c r="I14">
-        <v>0.26666666666700001</v>
+        <v>0.60273972602699999</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6753,25 +7816,25 @@
         <v>16</v>
       </c>
       <c r="D15">
-        <v>20.883530251700002</v>
+        <v>13.824991993899999</v>
       </c>
       <c r="E15">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="F15">
-        <v>0.85788632559099998</v>
+        <v>0.87048882787699999</v>
       </c>
       <c r="G15">
-        <v>0.68181818181800002</v>
+        <v>0.86363636363600005</v>
       </c>
       <c r="H15">
-        <v>0.94886363636399995</v>
+        <v>0.65909090909099999</v>
       </c>
       <c r="I15">
-        <v>0.76923076923099998</v>
+        <v>0.387755102041</v>
       </c>
       <c r="J15" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -6785,25 +7848,25 @@
         <v>16</v>
       </c>
       <c r="D16">
-        <v>1.9184054581700001</v>
+        <v>5.6610267976499999</v>
       </c>
       <c r="E16">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="F16">
-        <v>0.98459357971999995</v>
+        <v>0.93250994290900002</v>
       </c>
       <c r="G16">
-        <v>0.75</v>
+        <v>0.91666666666700003</v>
       </c>
       <c r="H16">
-        <v>0.61224489795899995</v>
+        <v>0.92346938775499998</v>
       </c>
       <c r="I16">
-        <v>0.19148936170200001</v>
+        <v>0.59459459459499997</v>
       </c>
       <c r="J16" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6817,25 +7880,25 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <v>6.8742040207199997</v>
+        <v>6.4996438528800002</v>
       </c>
       <c r="E17">
-        <v>137</v>
+        <v>31</v>
       </c>
       <c r="F17">
-        <v>0.76542797706700005</v>
+        <v>0.795551440552</v>
       </c>
       <c r="G17">
-        <v>0.91666666666700003</v>
+        <v>0.70833333333299997</v>
       </c>
       <c r="H17">
-        <v>0.41326530612200002</v>
+        <v>0.92857142857099995</v>
       </c>
       <c r="I17">
-        <v>0.16058394160600001</v>
+        <v>0.54838709677399999</v>
       </c>
       <c r="J17" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6849,25 +7912,25 @@
         <v>17</v>
       </c>
       <c r="D18">
-        <v>3.14108498528</v>
+        <v>2.4226923936000002</v>
       </c>
       <c r="E18">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F18">
-        <v>0.98419767352400001</v>
+        <v>0.98876556649900005</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>0.73863636363600005</v>
+        <v>0.79545454545500005</v>
       </c>
       <c r="I18">
-        <v>0.48888888888900001</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J18" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -6881,25 +7944,25 @@
         <v>17</v>
       </c>
       <c r="D19">
-        <v>23.2917054706</v>
+        <v>15.128296285499999</v>
       </c>
       <c r="E19">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="F19">
-        <v>0.76830162045399997</v>
+        <v>0.83611023671700002</v>
       </c>
       <c r="G19">
-        <v>0.65909090909099999</v>
+        <v>0.88636363636399995</v>
       </c>
       <c r="H19">
-        <v>0.86363636363600005</v>
+        <v>0.73863636363600005</v>
       </c>
       <c r="I19">
-        <v>0.54716981132099995</v>
+        <v>0.458823529412</v>
       </c>
       <c r="J19" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -6931,7 +7994,7 @@
         <v>0.18478260869599999</v>
       </c>
       <c r="J20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -6945,25 +8008,25 @@
         <v>17</v>
       </c>
       <c r="D21">
-        <v>4.69583578691</v>
+        <v>5.8299682671599999</v>
       </c>
       <c r="E21">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F21">
-        <v>0.86897058899099999</v>
+        <v>0.80987583988400003</v>
       </c>
       <c r="G21">
-        <v>0.79166666666700003</v>
+        <v>0.625</v>
       </c>
       <c r="H21">
-        <v>0.76530612244899998</v>
+        <v>0.84693877550999996</v>
       </c>
       <c r="I21">
-        <v>0.29230769230800002</v>
+        <v>0.33333333333300003</v>
       </c>
       <c r="J21" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -6977,25 +8040,25 @@
         <v>18</v>
       </c>
       <c r="D22">
-        <v>1.5524035632099999</v>
+        <v>1.2180671115699999</v>
       </c>
       <c r="E22">
-        <v>220</v>
+        <v>102</v>
       </c>
       <c r="F22">
-        <v>0.99338542212500003</v>
+        <v>0.99639867009700001</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.67045454545500005</v>
       </c>
       <c r="I22">
-        <v>0.2</v>
+        <v>0.43137254902</v>
       </c>
       <c r="J22" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -7009,25 +8072,25 @@
         <v>18</v>
       </c>
       <c r="D23">
-        <v>12.7911124884</v>
+        <v>5.3947219721500002</v>
       </c>
       <c r="E23">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F23">
-        <v>0.88218947824899996</v>
+        <v>0.96554611454799999</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>0.92613636363600005</v>
+        <v>0.91477272727299996</v>
       </c>
       <c r="I23">
-        <v>0.77192982456100001</v>
+        <v>0.74576271186400001</v>
       </c>
       <c r="J23" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -7041,13 +8104,13 @@
         <v>18</v>
       </c>
       <c r="D24">
-        <v>4.9045422203599998</v>
+        <v>4.8194832743799996</v>
       </c>
       <c r="E24">
         <v>220</v>
       </c>
       <c r="F24">
-        <v>0.83415066548200001</v>
+        <v>0.83917767805099996</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -7059,7 +8122,7 @@
         <v>0.109090909091</v>
       </c>
       <c r="J24" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -7073,25 +8136,25 @@
         <v>18</v>
       </c>
       <c r="D25">
-        <v>7.4785328494899996</v>
+        <v>5.2581734952600003</v>
       </c>
       <c r="E25">
-        <v>220</v>
+        <v>115</v>
       </c>
       <c r="F25">
-        <v>0.75195545166599997</v>
+        <v>0.77629464291799999</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.53571428571400004</v>
       </c>
       <c r="I25">
-        <v>0.109090909091</v>
+        <v>0.20869565217399999</v>
       </c>
       <c r="J25" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -7113,7 +8176,7 @@
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -7153,28 +8216,28 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2">
-        <v>7.5057758304000002</v>
+        <v>2.4131184603100002</v>
       </c>
       <c r="E2">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="F2">
-        <v>0.92586307212600005</v>
+        <v>0.98714107397600004</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0.5625</v>
+        <v>0.85795454545500005</v>
       </c>
       <c r="I2">
-        <v>0.36363636363599999</v>
+        <v>0.63768115942000003</v>
       </c>
       <c r="J2" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -7185,28 +8248,28 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>31.301326662099999</v>
+        <v>3.8319958964</v>
       </c>
       <c r="E3">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="F3">
-        <v>0.67203546616400001</v>
+        <v>0.96598056970299995</v>
       </c>
       <c r="G3">
-        <v>0.97727272727299996</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0.42045454545499999</v>
+        <v>0.78409090909099999</v>
       </c>
       <c r="I3">
-        <v>0.29655172413800002</v>
+        <v>0.53658536585399996</v>
       </c>
       <c r="J3" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7217,28 +8280,28 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>7.8667474218600004</v>
+        <v>0.925987057399</v>
       </c>
       <c r="E4">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="F4">
-        <v>0.80223373019800004</v>
+        <v>0.99240107108200004</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0.525510204082</v>
+        <v>0.86224489795899995</v>
       </c>
       <c r="I4">
-        <v>0.20512820512800001</v>
+        <v>0.47058823529400001</v>
       </c>
       <c r="J4" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -7249,28 +8312,28 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5">
-        <v>13.396408206</v>
+        <v>3.2434345763499999</v>
       </c>
       <c r="E5">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="F5">
-        <v>0.64312151317499999</v>
+        <v>0.94942388965900004</v>
       </c>
       <c r="G5">
-        <v>0.95833333333299997</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0.53061224489799996</v>
+        <v>0.79591836734700006</v>
       </c>
       <c r="I5">
-        <v>0.2</v>
+        <v>0.375</v>
       </c>
       <c r="J5" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7284,25 +8347,25 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>43.305857643300001</v>
+        <v>31.347580088299999</v>
       </c>
       <c r="E6">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="F6">
-        <v>0.88748537424399998</v>
+        <v>0.90921056003599998</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0.28977272727300002</v>
+        <v>0.58522727272700004</v>
       </c>
       <c r="I6">
-        <v>0.26035502958599999</v>
+        <v>0.37606837606799998</v>
       </c>
       <c r="J6" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -7316,25 +8379,25 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>39.631266799400002</v>
+        <v>31.105558291600001</v>
       </c>
       <c r="E7">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="F7">
-        <v>0.67358933609399996</v>
+        <v>0.72849862969300005</v>
       </c>
       <c r="G7">
-        <v>0.90909090909099999</v>
+        <v>0.86363636363600005</v>
       </c>
       <c r="H7">
-        <v>0.26704545454500001</v>
+        <v>0.50568181818199998</v>
       </c>
       <c r="I7">
-        <v>0.236686390533</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="J7" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -7348,25 +8411,25 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>15.1297079071</v>
+        <v>12.471645802899999</v>
       </c>
       <c r="E8">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="F8">
-        <v>0.71188431818700004</v>
+        <v>0.74169505252699997</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>0.387755102041</v>
+        <v>0.70408163265299994</v>
       </c>
       <c r="I8">
-        <v>0.166666666667</v>
+        <v>0.29268292682899999</v>
       </c>
       <c r="J8" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7398,7 +8461,7 @@
         <v>0.141935483871</v>
       </c>
       <c r="J9" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7412,25 +8475,25 @@
         <v>15</v>
       </c>
       <c r="D10">
-        <v>13.713621162999999</v>
+        <v>871.69055653199996</v>
       </c>
       <c r="E10">
-        <v>220</v>
-      </c>
-      <c r="F10">
-        <v>0.88219439779499997</v>
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>133</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
         <v>0</v>
       </c>
-      <c r="I10">
-        <v>0.2</v>
-      </c>
       <c r="J10" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7444,25 +8507,25 @@
         <v>15</v>
       </c>
       <c r="D11">
-        <v>36.661424729899998</v>
+        <v>8.2440513286799995</v>
       </c>
       <c r="E11">
-        <v>220</v>
+        <v>91</v>
       </c>
       <c r="F11">
-        <v>0.64834386662800003</v>
+        <v>0.90757041380600001</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.73295454545500005</v>
       </c>
       <c r="I11">
-        <v>0.2</v>
+        <v>0.48351648351600002</v>
       </c>
       <c r="J11" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7476,25 +8539,25 @@
         <v>15</v>
       </c>
       <c r="D12">
-        <v>11.3869336108</v>
+        <v>9.74029869584</v>
       </c>
       <c r="E12">
-        <v>220</v>
+        <v>46</v>
       </c>
       <c r="F12">
-        <v>0.68982680574300004</v>
+        <v>0.68055447599899999</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.88775510204100005</v>
       </c>
       <c r="I12">
-        <v>0.109090909091</v>
+        <v>0.52173913043499998</v>
       </c>
       <c r="J12" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7508,25 +8571,25 @@
         <v>15</v>
       </c>
       <c r="D13">
-        <v>12.74044877</v>
+        <v>7.8739757688300003</v>
       </c>
       <c r="E13">
-        <v>220</v>
+        <v>39</v>
       </c>
       <c r="F13">
-        <v>0.58324439609800005</v>
+        <v>0.56261198051200001</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0.91666666666700003</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.91326530612199996</v>
       </c>
       <c r="I13">
-        <v>0.109090909091</v>
+        <v>0.56410256410299997</v>
       </c>
       <c r="J13" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7540,25 +8603,25 @@
         <v>16</v>
       </c>
       <c r="D14">
-        <v>0.71469295952</v>
+        <v>1.6112873924</v>
       </c>
       <c r="E14">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F14">
-        <v>0.999726466353</v>
+        <v>0.99382543520699995</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>0.68181818181800002</v>
+        <v>0.85227272727299996</v>
       </c>
       <c r="I14">
-        <v>0.44</v>
+        <v>0.62857142857100001</v>
       </c>
       <c r="J14" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7572,25 +8635,25 @@
         <v>16</v>
       </c>
       <c r="D15">
-        <v>17.869583560300001</v>
+        <v>35.745867138000001</v>
       </c>
       <c r="E15">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="F15">
-        <v>0.85773751188900005</v>
+        <v>0.72880651489100001</v>
       </c>
       <c r="G15">
-        <v>0.86363636363600005</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>0.48863636363599999</v>
+        <v>0.67613636363600005</v>
       </c>
       <c r="I15">
-        <v>0.296875</v>
+        <v>0.43564356435599999</v>
       </c>
       <c r="J15" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7604,25 +8667,25 @@
         <v>16</v>
       </c>
       <c r="D16">
-        <v>2.8414935909299999</v>
+        <v>1.2936073804199999</v>
       </c>
       <c r="E16">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="F16">
-        <v>0.89847072617599999</v>
+        <v>0.98512131458600005</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="H16">
-        <v>0.67346938775499998</v>
+        <v>0.78061224489799996</v>
       </c>
       <c r="I16">
-        <v>0.27272727272699998</v>
+        <v>0.328125</v>
       </c>
       <c r="J16" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7636,25 +8699,25 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <v>5.1993929855700003</v>
+        <v>5.1582503616400004</v>
       </c>
       <c r="E17">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="F17">
-        <v>0.77785953839800004</v>
+        <v>0.84903508474199996</v>
       </c>
       <c r="G17">
         <v>0.875</v>
       </c>
       <c r="H17">
-        <v>0.56122448979600004</v>
+        <v>0.69897959183699998</v>
       </c>
       <c r="I17">
-        <v>0.196261682243</v>
+        <v>0.26250000000000001</v>
       </c>
       <c r="J17" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7686,7 +8749,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J18" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7718,7 +8781,7 @@
         <v>0.46428571428600002</v>
       </c>
       <c r="J19" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -7796,13 +8859,13 @@
         <v>18</v>
       </c>
       <c r="D22">
-        <v>1.2180671063899999</v>
+        <v>1.2180671115699999</v>
       </c>
       <c r="E22">
         <v>102</v>
       </c>
       <c r="F22">
-        <v>0.99639867056200004</v>
+        <v>0.99639867009700001</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -7828,25 +8891,25 @@
         <v>18</v>
       </c>
       <c r="D23">
-        <v>2.76601764746</v>
+        <v>2.5701248023900001</v>
       </c>
       <c r="E23">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="F23">
-        <v>0.98606501799799995</v>
+        <v>0.98735255481399997</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>0.63636363636399995</v>
+        <v>0.75568181818199998</v>
       </c>
       <c r="I23">
-        <v>0.40740740740699999</v>
+        <v>0.50574712643700004</v>
       </c>
       <c r="J23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -7860,25 +8923,25 @@
         <v>18</v>
       </c>
       <c r="D24">
-        <v>4.9415552813000003</v>
+        <v>2.9479420261199998</v>
       </c>
       <c r="E24">
-        <v>139</v>
+        <v>62</v>
       </c>
       <c r="F24">
-        <v>0.84685191313399999</v>
+        <v>0.85833030741000005</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>0.41326530612200002</v>
+        <v>0.80612244897999996</v>
       </c>
       <c r="I24">
-        <v>0.172661870504</v>
+        <v>0.38709677419400002</v>
       </c>
       <c r="J24" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -7892,25 +8955,25 @@
         <v>18</v>
       </c>
       <c r="D25">
-        <v>5.6339566687299998</v>
+        <v>4.6734870197699996</v>
       </c>
       <c r="E25">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="F25">
-        <v>0.78220514536100005</v>
+        <v>0.764980614866</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>0.57142857142900005</v>
+        <v>0.70408163265299994</v>
       </c>
       <c r="I25">
-        <v>0.222222222222</v>
+        <v>0.29268292682899999</v>
       </c>
       <c r="J25" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/python/results/tuning_summary.xlsx
+++ b/python/results/tuning_summary.xlsx
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="136">
   <si>
     <t>setup</t>
   </si>
@@ -305,9 +305,6 @@
     <t>Tuning</t>
   </si>
   <si>
-    <t>Correlation</t>
-  </si>
-  <si>
     <t>Predictor</t>
   </si>
   <si>
@@ -317,12 +314,6 @@
     <t>Correlation with true parameters</t>
   </si>
   <si>
-    <t>Correlation tuning</t>
-  </si>
-  <si>
-    <t>MSE tuning</t>
-  </si>
-  <si>
     <t>Feature selection sensitivity</t>
   </si>
   <si>
@@ -534,6 +525,18 @@
   </si>
   <si>
     <t>lambda 1=100.0, lambda 2=1000.0</t>
+  </si>
+  <si>
+    <t>CV MSE</t>
+  </si>
+  <si>
+    <t>CV MSE Tuning</t>
+  </si>
+  <si>
+    <t>Orchestra</t>
+  </si>
+  <si>
+    <t>Orchestra Tuning</t>
   </si>
 </sst>
 </file>
@@ -624,7 +627,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MSE tuning</c:v>
+                  <c:v>CV MSE Tuning</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -692,7 +695,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Correlation tuning</c:v>
+                  <c:v>Orchestra Tuning</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -751,47 +754,50 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="90621056"/>
-        <c:axId val="90622592"/>
+        <c:axId val="75548160"/>
+        <c:axId val="75549696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="90621056"/>
+        <c:axId val="75548160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90622592"/>
+        <c:crossAx val="75549696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90622592"/>
+        <c:axId val="75549696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90621056"/>
+        <c:crossAx val="75548160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -833,7 +839,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MSE tuning</c:v>
+                  <c:v>CV MSE Tuning</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -901,7 +907,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Correlation tuning</c:v>
+                  <c:v>Orchestra Tuning</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -960,47 +966,50 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="90779008"/>
-        <c:axId val="90797184"/>
+        <c:axId val="144400384"/>
+        <c:axId val="144401920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="90779008"/>
+        <c:axId val="144400384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90797184"/>
+        <c:crossAx val="144401920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90797184"/>
+        <c:axId val="144401920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90779008"/>
+        <c:crossAx val="144400384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1042,7 +1051,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MSE tuning</c:v>
+                  <c:v>CV MSE Tuning</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1110,7 +1119,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Correlation tuning</c:v>
+                  <c:v>Orchestra Tuning</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1169,47 +1178,50 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="90826240"/>
-        <c:axId val="90827776"/>
+        <c:axId val="144435072"/>
+        <c:axId val="144436608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="90826240"/>
+        <c:axId val="144435072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90827776"/>
+        <c:crossAx val="144436608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90827776"/>
+        <c:axId val="144436608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90826240"/>
+        <c:crossAx val="144435072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1251,7 +1263,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MSE tuning</c:v>
+                  <c:v>CV MSE Tuning</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1319,7 +1331,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Correlation tuning</c:v>
+                  <c:v>Orchestra Tuning</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1378,47 +1390,50 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="160386432"/>
-        <c:axId val="160396416"/>
+        <c:axId val="144470016"/>
+        <c:axId val="144471552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="160386432"/>
+        <c:axId val="144470016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160396416"/>
+        <c:crossAx val="144471552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160396416"/>
+        <c:axId val="144471552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160386432"/>
+        <c:crossAx val="144470016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1460,7 +1475,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MSE tuning</c:v>
+                  <c:v>CV MSE Tuning</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1528,7 +1543,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Correlation tuning</c:v>
+                  <c:v>Orchestra Tuning</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1587,25 +1602,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="160433664"/>
-        <c:axId val="160435200"/>
+        <c:axId val="144508800"/>
+        <c:axId val="144510336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="160433664"/>
+        <c:axId val="144508800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160435200"/>
+        <c:crossAx val="144510336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160435200"/>
+        <c:axId val="144510336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1614,20 +1629,20 @@
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160433664"/>
+        <c:crossAx val="144508800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1668,15 +1683,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1697,16 +1712,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1228725</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1727,16 +1742,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2100,7 +2115,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2125,7 +2140,7 @@
         <v>56</v>
       </c>
       <c r="E1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F1" t="s">
         <v>53</v>
@@ -2142,7 +2157,7 @@
         <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="C2" s="1">
         <f>AVERAGE(cv_mse_p550!D10:D13)</f>
@@ -2174,7 +2189,7 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="C3" s="1">
         <f>AVERAGE(coef_corr_p550!D2:D5)</f>
@@ -2206,7 +2221,7 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1">
         <f>AVERAGE(n_pred_p550!D2:D5)</f>
@@ -2238,7 +2253,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="C5" s="1">
         <f>AVERAGE(cv_mse_p550!D14:D17)</f>
@@ -2270,7 +2285,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="C6" s="1">
         <f>AVERAGE(coef_corr_p550!D6:D9)</f>
@@ -2302,7 +2317,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1">
         <f>AVERAGE(n_pred_p550!D6:D9)</f>
@@ -2334,7 +2349,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="C8" s="1">
         <f>AVERAGE(cv_mse_p550!D18:D21)</f>
@@ -2366,7 +2381,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="C9" s="1">
         <f>AVERAGE(coef_corr_p550!D10:D13)</f>
@@ -2398,7 +2413,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="1">
         <f>AVERAGE(n_pred_p550!D10:D13)</f>
@@ -2430,7 +2445,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="C11" s="1">
         <f>AVERAGE(cv_mse_p550!D22:D24)</f>
@@ -2462,7 +2477,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="C12" s="1">
         <f>AVERAGE(coef_corr_p550!D14:D17)</f>
@@ -2494,7 +2509,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(n_pred_p550!D14:D17)</f>
@@ -2526,7 +2541,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="C14" s="1">
         <f>AVERAGE(cv_mse_p550!D10:D13)</f>
@@ -2558,7 +2573,7 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="C15" s="1">
         <f>AVERAGE(coef_corr_p550!D18:D21)</f>
@@ -2590,7 +2605,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="1">
         <f>AVERAGE(n_pred_p550!D18:D21)</f>
@@ -2622,7 +2637,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="C17" s="1">
         <f>AVERAGE(cv_mse_p550!D14:D17)</f>
@@ -2654,7 +2669,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="C18" s="1">
         <f>AVERAGE(coef_corr_p550!D22:D25)</f>
@@ -2686,7 +2701,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1">
         <f>AVERAGE(n_pred_p550!D22:D25)</f>
@@ -2719,52 +2734,52 @@
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11">
       <c r="B22" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="G22" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="H22" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="I22" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="J22" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="K22" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -3108,7 +3123,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>1.3508563917900001</v>
@@ -3129,7 +3144,7 @@
         <v>0.56410256410299997</v>
       </c>
       <c r="J2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3140,7 +3155,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>16.412046992099999</v>
@@ -3161,7 +3176,7 @@
         <v>0.31868131868100003</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3172,7 +3187,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>0.19301668483600001</v>
@@ -3193,7 +3208,7 @@
         <v>0.3</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3204,7 +3219,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>5.0394186583999998</v>
@@ -3225,7 +3240,7 @@
         <v>0.156626506024</v>
       </c>
       <c r="J5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3257,7 +3272,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3289,7 +3304,7 @@
         <v>0.41509433962300002</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3321,7 +3336,7 @@
         <v>0.22857142857099999</v>
       </c>
       <c r="J8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3353,7 +3368,7 @@
         <v>0.26373626373600001</v>
       </c>
       <c r="J9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3385,7 +3400,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3417,7 +3432,7 @@
         <v>0.30136986301399998</v>
       </c>
       <c r="J11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3449,7 +3464,7 @@
         <v>0.46875</v>
       </c>
       <c r="J12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3481,7 +3496,7 @@
         <v>0.16901408450700001</v>
       </c>
       <c r="J13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3513,7 +3528,7 @@
         <v>0.58666666666699996</v>
       </c>
       <c r="J14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3545,7 +3560,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="J15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3577,7 +3592,7 @@
         <v>0.245901639344</v>
       </c>
       <c r="J16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3609,7 +3624,7 @@
         <v>0.13402061855700001</v>
       </c>
       <c r="J17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3641,7 +3656,7 @@
         <v>0.12054794520500001</v>
       </c>
       <c r="J18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3673,7 +3688,7 @@
         <v>9.5860566448800005E-2</v>
       </c>
       <c r="J19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3705,7 +3720,7 @@
         <v>4.6153846153799999E-2</v>
       </c>
       <c r="J20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3737,7 +3752,7 @@
         <v>5.0632911392399997E-2</v>
       </c>
       <c r="J21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -3769,7 +3784,7 @@
         <v>0.196428571429</v>
       </c>
       <c r="J22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -3801,7 +3816,7 @@
         <v>0.31868131868100003</v>
       </c>
       <c r="J23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3833,7 +3848,7 @@
         <v>0.26415094339599998</v>
       </c>
       <c r="J24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3865,7 +3880,7 @@
         <v>0.14141414141399999</v>
       </c>
       <c r="J25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -4121,7 +4136,7 @@
         <v>0.26373626373600001</v>
       </c>
       <c r="J33" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -4153,7 +4168,7 @@
         <v>9.5238095238100007E-2</v>
       </c>
       <c r="J34" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -4185,7 +4200,7 @@
         <v>9.2243186582799994E-2</v>
       </c>
       <c r="J35" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -4217,7 +4232,7 @@
         <v>0.18604651162800001</v>
       </c>
       <c r="J36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -4249,7 +4264,7 @@
         <v>0.14117647058800001</v>
       </c>
       <c r="J37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -4281,7 +4296,7 @@
         <v>0.323529411765</v>
       </c>
       <c r="J38" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -4313,7 +4328,7 @@
         <v>0.08</v>
       </c>
       <c r="J39" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -4345,7 +4360,7 @@
         <v>0.25423728813599999</v>
       </c>
       <c r="J40" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -4377,7 +4392,7 @@
         <v>8.984375E-2</v>
       </c>
       <c r="J41" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -4462,7 +4477,7 @@
         <v>0.57142857142900005</v>
       </c>
       <c r="J2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4494,7 +4509,7 @@
         <v>0.35632183907999998</v>
       </c>
       <c r="J3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4526,7 +4541,7 @@
         <v>0.35384615384599999</v>
       </c>
       <c r="J4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4558,7 +4573,7 @@
         <v>0.12258064516099999</v>
       </c>
       <c r="J5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4590,7 +4605,7 @@
         <v>0.5</v>
       </c>
       <c r="J6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4622,7 +4637,7 @@
         <v>0.63043478260899999</v>
       </c>
       <c r="J7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4654,7 +4669,7 @@
         <v>0.56666666666700005</v>
       </c>
       <c r="J8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4686,7 +4701,7 @@
         <v>0.16</v>
       </c>
       <c r="J9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4718,7 +4733,7 @@
         <v>0.12054794520500001</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4750,7 +4765,7 @@
         <v>9.5860566448800005E-2</v>
       </c>
       <c r="J11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4782,7 +4797,7 @@
         <v>4.6153846153799999E-2</v>
       </c>
       <c r="J12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4814,7 +4829,7 @@
         <v>4.6783625730999999E-2</v>
       </c>
       <c r="J13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4878,7 +4893,7 @@
         <v>0.30392156862699998</v>
       </c>
       <c r="J15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4910,7 +4925,7 @@
         <v>0.56097560975600003</v>
       </c>
       <c r="J16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4942,7 +4957,7 @@
         <v>0.13768115942</v>
       </c>
       <c r="J17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4974,7 +4989,7 @@
         <v>0.48314606741600002</v>
       </c>
       <c r="J18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5006,7 +5021,7 @@
         <v>0.32558139534899999</v>
       </c>
       <c r="J19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -5038,7 +5053,7 @@
         <v>0.26415094339599998</v>
       </c>
       <c r="J20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -5070,7 +5085,7 @@
         <v>0.19696969697</v>
       </c>
       <c r="J21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -5283,7 +5298,7 @@
         <v>0.108374384236</v>
       </c>
       <c r="J2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5315,7 +5330,7 @@
         <v>0.36904761904799999</v>
       </c>
       <c r="J3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5347,7 +5362,7 @@
         <v>0.15</v>
       </c>
       <c r="J4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -5379,7 +5394,7 @@
         <v>0.125</v>
       </c>
       <c r="J5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5411,7 +5426,7 @@
         <v>0.109452736318</v>
       </c>
       <c r="J6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5443,7 +5458,7 @@
         <v>0.59574468085099996</v>
       </c>
       <c r="J7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5475,7 +5490,7 @@
         <v>0.14371257485</v>
       </c>
       <c r="J8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5507,7 +5522,7 @@
         <v>7.07395498392E-2</v>
       </c>
       <c r="J9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5539,7 +5554,7 @@
         <v>8.2089552238800004E-2</v>
       </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5571,7 +5586,7 @@
         <v>0.117962466488</v>
       </c>
       <c r="J11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5603,7 +5618,7 @@
         <v>0.12903225806499999</v>
       </c>
       <c r="J12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5699,7 +5714,7 @@
         <v>0.30392156862699998</v>
       </c>
       <c r="J15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5763,7 +5778,7 @@
         <v>0.14285714285699999</v>
       </c>
       <c r="J17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6084,7 +6099,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>1.92342303886</v>
@@ -6105,7 +6120,7 @@
         <v>0.63768115942000003</v>
       </c>
       <c r="J2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6116,7 +6131,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>14.612980673999999</v>
@@ -6137,7 +6152,7 @@
         <v>0.448275862069</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6148,7 +6163,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>0.77870490857399999</v>
@@ -6169,7 +6184,7 @@
         <v>0.28301886792499997</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6180,7 +6195,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>4.3964644269199997</v>
@@ -6201,7 +6216,7 @@
         <v>0.26388888888899997</v>
       </c>
       <c r="J5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6233,7 +6248,7 @@
         <v>0.95652173913000005</v>
       </c>
       <c r="J6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6265,7 +6280,7 @@
         <v>0.511627906977</v>
       </c>
       <c r="J7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6311,7 +6326,7 @@
         <v>0.222222222222</v>
       </c>
       <c r="J9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6343,7 +6358,7 @@
         <v>0.97777777777800001</v>
       </c>
       <c r="J10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6375,7 +6390,7 @@
         <v>0.48888888888900001</v>
       </c>
       <c r="J11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6407,7 +6422,7 @@
         <v>0.29411764705900001</v>
       </c>
       <c r="J12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6439,7 +6454,7 @@
         <v>0.260273972603</v>
       </c>
       <c r="J13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6471,7 +6486,7 @@
         <v>0.62857142857100001</v>
       </c>
       <c r="J14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6503,7 +6518,7 @@
         <v>0.39583333333300003</v>
       </c>
       <c r="J15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -6535,7 +6550,7 @@
         <v>0.26315789473700002</v>
       </c>
       <c r="J16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6567,7 +6582,7 @@
         <v>0.22471910112400001</v>
       </c>
       <c r="J17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6599,7 +6614,7 @@
         <v>0.51764705882399997</v>
       </c>
       <c r="J18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -6631,7 +6646,7 @@
         <v>0.48351648351600002</v>
       </c>
       <c r="J19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -6663,7 +6678,7 @@
         <v>0.252631578947</v>
       </c>
       <c r="J20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -6695,7 +6710,7 @@
         <v>0.24</v>
       </c>
       <c r="J21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -6727,7 +6742,7 @@
         <v>0.29139072847699998</v>
       </c>
       <c r="J22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -6759,7 +6774,7 @@
         <v>0.37623762376199998</v>
       </c>
       <c r="J23" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -6791,7 +6806,7 @@
         <v>0.28846153846200001</v>
       </c>
       <c r="J24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -6823,7 +6838,7 @@
         <v>0.26760563380300001</v>
       </c>
       <c r="J25" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -7175,7 +7190,7 @@
         <v>0.23529411764700001</v>
       </c>
       <c r="J36" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -7207,7 +7222,7 @@
         <v>0.222222222222</v>
       </c>
       <c r="J37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -7239,7 +7254,7 @@
         <v>0.4</v>
       </c>
       <c r="J38" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -7271,7 +7286,7 @@
         <v>0.61111111111100003</v>
       </c>
       <c r="J39" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -7303,7 +7318,7 @@
         <v>0.25423728813599999</v>
       </c>
       <c r="J40" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -7335,7 +7350,7 @@
         <v>0.218390804598</v>
       </c>
       <c r="J41" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -7418,7 +7433,7 @@
         <v>0.56410256410299997</v>
       </c>
       <c r="J2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -7450,7 +7465,7 @@
         <v>0.57352941176500005</v>
       </c>
       <c r="J3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7482,7 +7497,7 @@
         <v>0.255319148936</v>
       </c>
       <c r="J4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -7514,7 +7529,7 @@
         <v>0.316666666667</v>
       </c>
       <c r="J5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7546,7 +7561,7 @@
         <v>0.51764705882399997</v>
       </c>
       <c r="J6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -7578,7 +7593,7 @@
         <v>0.78947368421099995</v>
       </c>
       <c r="J7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -7610,7 +7625,7 @@
         <v>0.51428571428600001</v>
       </c>
       <c r="J8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7642,7 +7657,7 @@
         <v>0.29032258064499999</v>
       </c>
       <c r="J9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7674,7 +7689,7 @@
         <v>0.51764705882399997</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7706,7 +7721,7 @@
         <v>0.48351648351600002</v>
       </c>
       <c r="J11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7770,7 +7785,7 @@
         <v>0.24</v>
       </c>
       <c r="J13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7802,7 +7817,7 @@
         <v>0.60273972602699999</v>
       </c>
       <c r="J14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7834,7 +7849,7 @@
         <v>0.387755102041</v>
       </c>
       <c r="J15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7866,7 +7881,7 @@
         <v>0.59459459459499997</v>
       </c>
       <c r="J16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7898,7 +7913,7 @@
         <v>0.54838709677399999</v>
       </c>
       <c r="J17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7930,7 +7945,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7962,7 +7977,7 @@
         <v>0.458823529412</v>
       </c>
       <c r="J19" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -8026,7 +8041,7 @@
         <v>0.33333333333300003</v>
       </c>
       <c r="J21" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -8237,7 +8252,7 @@
         <v>0.63768115942000003</v>
       </c>
       <c r="J2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -8269,7 +8284,7 @@
         <v>0.53658536585399996</v>
       </c>
       <c r="J3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -8301,7 +8316,7 @@
         <v>0.47058823529400001</v>
       </c>
       <c r="J4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -8333,7 +8348,7 @@
         <v>0.375</v>
       </c>
       <c r="J5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -8365,7 +8380,7 @@
         <v>0.37606837606799998</v>
       </c>
       <c r="J6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -8397,7 +8412,7 @@
         <v>0.30399999999999999</v>
       </c>
       <c r="J7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -8429,7 +8444,7 @@
         <v>0.29268292682899999</v>
       </c>
       <c r="J8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -8461,7 +8476,7 @@
         <v>0.141935483871</v>
       </c>
       <c r="J9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -8481,7 +8496,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -8525,7 +8540,7 @@
         <v>0.48351648351600002</v>
       </c>
       <c r="J11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -8557,7 +8572,7 @@
         <v>0.52173913043499998</v>
       </c>
       <c r="J12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -8589,7 +8604,7 @@
         <v>0.56410256410299997</v>
       </c>
       <c r="J13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -8621,7 +8636,7 @@
         <v>0.62857142857100001</v>
       </c>
       <c r="J14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -8653,7 +8668,7 @@
         <v>0.43564356435599999</v>
       </c>
       <c r="J15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -8685,7 +8700,7 @@
         <v>0.328125</v>
       </c>
       <c r="J16" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -8717,7 +8732,7 @@
         <v>0.26250000000000001</v>
       </c>
       <c r="J17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -8749,7 +8764,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -8781,7 +8796,7 @@
         <v>0.46428571428600002</v>
       </c>
       <c r="J19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -8973,7 +8988,7 @@
         <v>0.29268292682899999</v>
       </c>
       <c r="J25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
